--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/酒水_饮料_矿泉水.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/酒水_饮料_矿泉水.xlsx
@@ -2509,12 +2509,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2553,7 +2553,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2567,23 +2582,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2596,25 +2604,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2630,23 +2630,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2659,23 +2650,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2688,11 +2680,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2825,7 +2825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2837,7 +2843,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2849,7 +2879,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2861,7 +2939,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2873,73 +2987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2951,55 +2999,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3114,6 +3114,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -3123,8 +3143,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3145,30 +3180,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -3183,28 +3194,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3213,152 +3213,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="46" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="40" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="39" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="216">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3422,7 +3422,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3581,10 +3581,10 @@
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -3671,28 +3671,28 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
@@ -3842,6 +3842,9 @@
     <xf numFmtId="44" fontId="3" fillId="21" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3854,22 +3857,16 @@
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="6" borderId="1" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -3884,9 +3881,6 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3897,9 +3891,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3995,10 +3986,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="2" xfId="9" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4326,14 +4317,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:CW166"/>
+  <dimension ref="A1:CX166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BZ71" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="CG154" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CD82" sqref="CD82"/>
+      <selection pane="bottomRight" activeCell="CJ127" sqref="CJ127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4396,18 +4387,18 @@
     <col min="83" max="84" width="22.5" style="71" customWidth="1"/>
     <col min="85" max="85" width="21.375" style="71" customWidth="1"/>
     <col min="86" max="87" width="22.5" style="72" customWidth="1"/>
-    <col min="88" max="88" width="22.5" style="60" customWidth="1"/>
-    <col min="89" max="89" width="27.3076923076923" style="121" customWidth="1"/>
-    <col min="90" max="94" width="20.375" style="72" customWidth="1"/>
-    <col min="95" max="95" width="28.4615384615385" style="72" customWidth="1"/>
-    <col min="96" max="96" width="20.375" style="121" customWidth="1"/>
-    <col min="97" max="97" width="30.2884615384615" style="122" customWidth="1"/>
-    <col min="98" max="98" width="98.5576923076923" customWidth="1"/>
-    <col min="99" max="99" width="20" customWidth="1"/>
-    <col min="100" max="100" width="47.5961538461538" customWidth="1"/>
+    <col min="88" max="89" width="22.5" style="60" customWidth="1"/>
+    <col min="90" max="90" width="27.3076923076923" style="121" customWidth="1"/>
+    <col min="91" max="95" width="20.375" style="72" customWidth="1"/>
+    <col min="96" max="96" width="28.4615384615385" style="72" customWidth="1"/>
+    <col min="97" max="97" width="20.375" style="121" customWidth="1"/>
+    <col min="98" max="98" width="30.2884615384615" style="122" customWidth="1"/>
+    <col min="99" max="99" width="98.5576923076923" customWidth="1"/>
+    <col min="100" max="100" width="20" customWidth="1"/>
+    <col min="101" max="101" width="47.5961538461538" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:101">
+    <row r="1" spans="1:102">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -4611,48 +4602,49 @@
       <c r="CI1" s="123" t="s">
         <v>57</v>
       </c>
-      <c r="CJ1" s="128" t="s">
+      <c r="CJ1" s="161"/>
+      <c r="CK1" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="CK1" s="161" t="s">
+      <c r="CL1" s="162" t="s">
         <v>59</v>
       </c>
-      <c r="CL1" s="129" t="s">
+      <c r="CM1" s="129" t="s">
         <v>54</v>
       </c>
-      <c r="CM1" s="162" t="s">
+      <c r="CN1" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="CN1" s="129" t="s">
+      <c r="CO1" s="129" t="s">
         <v>61</v>
       </c>
-      <c r="CO1" s="129" t="s">
+      <c r="CP1" s="129" t="s">
         <v>62</v>
       </c>
-      <c r="CP1" s="129" t="s">
+      <c r="CQ1" s="129" t="s">
         <v>63</v>
       </c>
-      <c r="CQ1" s="129" t="s">
+      <c r="CR1" s="129" t="s">
         <v>64</v>
       </c>
-      <c r="CR1" s="164" t="s">
+      <c r="CS1" s="165" t="s">
         <v>65</v>
       </c>
-      <c r="CS1" s="166" t="s">
+      <c r="CT1" s="166" t="s">
         <v>66</v>
       </c>
-      <c r="CT1" s="25" t="s">
+      <c r="CU1" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="CU1" s="4" t="s">
+      <c r="CV1" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="CV1" s="7" t="s">
+      <c r="CW1" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="CW1" s="1"/>
-    </row>
-    <row r="2" ht="41" customHeight="1" spans="1:101">
+      <c r="CX1" s="1"/>
+    </row>
+    <row r="2" ht="41" customHeight="1" spans="1:102">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="123"/>
@@ -4786,22 +4778,23 @@
       <c r="CG2" s="160"/>
       <c r="CH2" s="123"/>
       <c r="CI2" s="123"/>
-      <c r="CJ2" s="128"/>
-      <c r="CK2" s="161"/>
-      <c r="CL2" s="129"/>
+      <c r="CJ2" s="161"/>
+      <c r="CK2" s="128"/>
+      <c r="CL2" s="162"/>
       <c r="CM2" s="129"/>
       <c r="CN2" s="129"/>
       <c r="CO2" s="129"/>
       <c r="CP2" s="129"/>
       <c r="CQ2" s="129"/>
-      <c r="CR2" s="164"/>
-      <c r="CS2" s="167"/>
-      <c r="CT2" s="25"/>
-      <c r="CU2" s="4"/>
+      <c r="CR2" s="129"/>
+      <c r="CS2" s="165"/>
+      <c r="CT2" s="167"/>
+      <c r="CU2" s="25"/>
       <c r="CV2" s="4"/>
-      <c r="CW2" s="1"/>
-    </row>
-    <row r="3" spans="1:100">
+      <c r="CW2" s="4"/>
+      <c r="CX2" s="1"/>
+    </row>
+    <row r="3" spans="1:101">
       <c r="A3" s="25" t="s">
         <v>93</v>
       </c>
@@ -4935,27 +4928,28 @@
         <f t="shared" ref="CI3:CI8" si="5">CC3+CF3+CG3</f>
         <v>86593300161.91</v>
       </c>
-      <c r="CJ3" s="62">
-        <f t="shared" ref="CJ3:CJ8" si="6">CE3/BX3</f>
+      <c r="CJ3" s="62"/>
+      <c r="CK3" s="62">
+        <f t="shared" ref="CK3:CK8" si="6">CE3/BX3</f>
         <v>0</v>
       </c>
-      <c r="CK3" s="56">
-        <f t="shared" ref="CK3:CK8" si="7">CI3/CA3</f>
+      <c r="CL3" s="56">
+        <f t="shared" ref="CL3:CL8" si="7">CI3/CA3</f>
         <v>3.28860196363658</v>
       </c>
-      <c r="CL3" s="124"/>
       <c r="CM3" s="124"/>
       <c r="CN3" s="124"/>
       <c r="CO3" s="124"/>
       <c r="CP3" s="124"/>
       <c r="CQ3" s="124"/>
-      <c r="CR3" s="165"/>
-      <c r="CS3" s="128"/>
-      <c r="CT3" s="5"/>
+      <c r="CR3" s="124"/>
+      <c r="CS3" s="168"/>
+      <c r="CT3" s="128"/>
       <c r="CU3" s="5"/>
       <c r="CV3" s="5"/>
-    </row>
-    <row r="4" spans="1:100">
+      <c r="CW3" s="5"/>
+    </row>
+    <row r="4" spans="1:101">
       <c r="A4" s="25"/>
       <c r="B4" s="27">
         <v>2021</v>
@@ -5087,27 +5081,28 @@
         <f t="shared" si="5"/>
         <v>73990254569.48</v>
       </c>
-      <c r="CJ4" s="62">
+      <c r="CJ4" s="62"/>
+      <c r="CK4" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="CK4" s="56">
+      <c r="CL4" s="56">
         <f t="shared" si="7"/>
         <v>10.9201754686187</v>
       </c>
-      <c r="CL4" s="76"/>
       <c r="CM4" s="76"/>
       <c r="CN4" s="76"/>
       <c r="CO4" s="76"/>
       <c r="CP4" s="76"/>
       <c r="CQ4" s="76"/>
-      <c r="CR4" s="56"/>
-      <c r="CS4" s="128"/>
-      <c r="CT4" s="5"/>
+      <c r="CR4" s="76"/>
+      <c r="CS4" s="56"/>
+      <c r="CT4" s="128"/>
       <c r="CU4" s="5"/>
       <c r="CV4" s="5"/>
-    </row>
-    <row r="5" spans="1:100">
+      <c r="CW4" s="5"/>
+    </row>
+    <row r="5" spans="1:101">
       <c r="A5" s="25"/>
       <c r="B5" s="27">
         <v>2020</v>
@@ -5237,27 +5232,28 @@
         <f t="shared" si="5"/>
         <v>66511597837.25</v>
       </c>
-      <c r="CJ5" s="62">
+      <c r="CJ5" s="62"/>
+      <c r="CK5" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="CK5" s="56">
+      <c r="CL5" s="56">
         <f t="shared" si="7"/>
         <v>6.3665762364497</v>
       </c>
-      <c r="CL5" s="76"/>
       <c r="CM5" s="76"/>
       <c r="CN5" s="76"/>
       <c r="CO5" s="76"/>
       <c r="CP5" s="76"/>
       <c r="CQ5" s="76"/>
-      <c r="CR5" s="56"/>
-      <c r="CS5" s="128"/>
-      <c r="CT5" s="5"/>
+      <c r="CR5" s="76"/>
+      <c r="CS5" s="56"/>
+      <c r="CT5" s="128"/>
       <c r="CU5" s="5"/>
       <c r="CV5" s="5"/>
-    </row>
-    <row r="6" spans="1:100">
+      <c r="CW5" s="5"/>
+    </row>
+    <row r="6" spans="1:101">
       <c r="A6" s="25"/>
       <c r="B6" s="27">
         <v>2019</v>
@@ -5385,27 +5381,28 @@
         <f t="shared" si="5"/>
         <v>59194700117.67</v>
       </c>
-      <c r="CJ6" s="62">
+      <c r="CJ6" s="62"/>
+      <c r="CK6" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="CK6" s="56">
+      <c r="CL6" s="56">
         <f t="shared" si="7"/>
         <v>5.44157359301602</v>
       </c>
-      <c r="CL6" s="76"/>
       <c r="CM6" s="76"/>
       <c r="CN6" s="76"/>
       <c r="CO6" s="76"/>
       <c r="CP6" s="76"/>
       <c r="CQ6" s="76"/>
-      <c r="CR6" s="56"/>
-      <c r="CS6" s="128"/>
-      <c r="CT6" s="5"/>
+      <c r="CR6" s="76"/>
+      <c r="CS6" s="56"/>
+      <c r="CT6" s="128"/>
       <c r="CU6" s="5"/>
       <c r="CV6" s="5"/>
-    </row>
-    <row r="7" spans="1:100">
+      <c r="CW6" s="5"/>
+    </row>
+    <row r="7" spans="1:101">
       <c r="A7" s="25"/>
       <c r="B7" s="27">
         <v>2018</v>
@@ -5533,27 +5530,28 @@
         <f t="shared" si="5"/>
         <v>51475784251.79</v>
       </c>
-      <c r="CJ7" s="62">
+      <c r="CJ7" s="62"/>
+      <c r="CK7" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="CK7" s="56">
+      <c r="CL7" s="56">
         <f t="shared" si="7"/>
         <v>3.07471696813104</v>
       </c>
-      <c r="CL7" s="76"/>
       <c r="CM7" s="76"/>
       <c r="CN7" s="76"/>
       <c r="CO7" s="76"/>
       <c r="CP7" s="76"/>
       <c r="CQ7" s="76"/>
-      <c r="CR7" s="56"/>
-      <c r="CS7" s="128"/>
-      <c r="CT7" s="5"/>
+      <c r="CR7" s="76"/>
+      <c r="CS7" s="56"/>
+      <c r="CT7" s="128"/>
       <c r="CU7" s="5"/>
       <c r="CV7" s="5"/>
-    </row>
-    <row r="8" spans="1:100">
+      <c r="CW7" s="5"/>
+    </row>
+    <row r="8" spans="1:101">
       <c r="A8" s="25"/>
       <c r="B8" s="27">
         <v>2017</v>
@@ -5683,27 +5681,28 @@
         <f t="shared" si="5"/>
         <v>39019472984.32</v>
       </c>
-      <c r="CJ8" s="62">
+      <c r="CJ8" s="62"/>
+      <c r="CK8" s="62">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="CK8" s="56">
+      <c r="CL8" s="56">
         <f t="shared" si="7"/>
         <v>2.10157330475013</v>
       </c>
-      <c r="CL8" s="76"/>
       <c r="CM8" s="76"/>
       <c r="CN8" s="76"/>
       <c r="CO8" s="76"/>
       <c r="CP8" s="76"/>
       <c r="CQ8" s="76"/>
-      <c r="CR8" s="56"/>
-      <c r="CS8" s="128"/>
-      <c r="CT8" s="5"/>
+      <c r="CR8" s="76"/>
+      <c r="CS8" s="56"/>
+      <c r="CT8" s="128"/>
       <c r="CU8" s="5"/>
       <c r="CV8" s="5"/>
-    </row>
-    <row r="9" spans="1:100">
+      <c r="CW8" s="5"/>
+    </row>
+    <row r="9" spans="1:101">
       <c r="A9" s="25"/>
       <c r="B9" s="27">
         <v>2016</v>
@@ -5797,20 +5796,21 @@
       <c r="CH9" s="76"/>
       <c r="CI9" s="76"/>
       <c r="CJ9" s="62"/>
-      <c r="CK9" s="56"/>
-      <c r="CL9" s="76"/>
+      <c r="CK9" s="62"/>
+      <c r="CL9" s="56"/>
       <c r="CM9" s="76"/>
       <c r="CN9" s="76"/>
       <c r="CO9" s="76"/>
       <c r="CP9" s="76"/>
       <c r="CQ9" s="76"/>
-      <c r="CR9" s="56"/>
-      <c r="CS9" s="128"/>
-      <c r="CT9" s="5"/>
+      <c r="CR9" s="76"/>
+      <c r="CS9" s="56"/>
+      <c r="CT9" s="128"/>
       <c r="CU9" s="5"/>
       <c r="CV9" s="5"/>
-    </row>
-    <row r="10" spans="1:100">
+      <c r="CW9" s="5"/>
+    </row>
+    <row r="10" spans="1:101">
       <c r="A10" s="25"/>
       <c r="B10" s="27">
         <v>2015</v>
@@ -5904,20 +5904,21 @@
       <c r="CH10" s="76"/>
       <c r="CI10" s="76"/>
       <c r="CJ10" s="62"/>
-      <c r="CK10" s="56"/>
-      <c r="CL10" s="76"/>
+      <c r="CK10" s="62"/>
+      <c r="CL10" s="56"/>
       <c r="CM10" s="76"/>
       <c r="CN10" s="76"/>
       <c r="CO10" s="76"/>
       <c r="CP10" s="76"/>
       <c r="CQ10" s="76"/>
-      <c r="CR10" s="56"/>
-      <c r="CS10" s="128"/>
-      <c r="CT10" s="5"/>
+      <c r="CR10" s="76"/>
+      <c r="CS10" s="56"/>
+      <c r="CT10" s="128"/>
       <c r="CU10" s="5"/>
       <c r="CV10" s="5"/>
-    </row>
-    <row r="11" spans="1:100">
+      <c r="CW10" s="5"/>
+    </row>
+    <row r="11" spans="1:101">
       <c r="A11" s="25"/>
       <c r="B11" s="27">
         <v>2014</v>
@@ -6011,20 +6012,21 @@
       <c r="CH11" s="76"/>
       <c r="CI11" s="76"/>
       <c r="CJ11" s="62"/>
-      <c r="CK11" s="56"/>
-      <c r="CL11" s="76"/>
+      <c r="CK11" s="62"/>
+      <c r="CL11" s="56"/>
       <c r="CM11" s="76"/>
       <c r="CN11" s="76"/>
       <c r="CO11" s="76"/>
       <c r="CP11" s="76"/>
       <c r="CQ11" s="76"/>
-      <c r="CR11" s="56"/>
-      <c r="CS11" s="128"/>
-      <c r="CT11" s="5"/>
+      <c r="CR11" s="76"/>
+      <c r="CS11" s="56"/>
+      <c r="CT11" s="128"/>
       <c r="CU11" s="5"/>
       <c r="CV11" s="5"/>
-    </row>
-    <row r="12" spans="1:100">
+      <c r="CW11" s="5"/>
+    </row>
+    <row r="12" spans="1:101">
       <c r="A12" s="25"/>
       <c r="B12" s="27">
         <v>2013</v>
@@ -6118,20 +6120,21 @@
       <c r="CH12" s="76"/>
       <c r="CI12" s="76"/>
       <c r="CJ12" s="62"/>
-      <c r="CK12" s="56"/>
-      <c r="CL12" s="76"/>
+      <c r="CK12" s="62"/>
+      <c r="CL12" s="56"/>
       <c r="CM12" s="76"/>
       <c r="CN12" s="76"/>
       <c r="CO12" s="76"/>
       <c r="CP12" s="76"/>
       <c r="CQ12" s="76"/>
-      <c r="CR12" s="56"/>
-      <c r="CS12" s="128"/>
-      <c r="CT12" s="5"/>
+      <c r="CR12" s="76"/>
+      <c r="CS12" s="56"/>
+      <c r="CT12" s="128"/>
       <c r="CU12" s="5"/>
       <c r="CV12" s="5"/>
-    </row>
-    <row r="13" spans="1:100">
+      <c r="CW12" s="5"/>
+    </row>
+    <row r="13" spans="1:101">
       <c r="A13" s="25"/>
       <c r="B13" s="27">
         <v>2012</v>
@@ -6225,20 +6228,21 @@
       <c r="CH13" s="76"/>
       <c r="CI13" s="76"/>
       <c r="CJ13" s="62"/>
-      <c r="CK13" s="56"/>
-      <c r="CL13" s="76"/>
+      <c r="CK13" s="62"/>
+      <c r="CL13" s="56"/>
       <c r="CM13" s="76"/>
       <c r="CN13" s="76"/>
       <c r="CO13" s="76"/>
       <c r="CP13" s="76"/>
       <c r="CQ13" s="76"/>
-      <c r="CR13" s="56"/>
-      <c r="CS13" s="128"/>
-      <c r="CT13" s="5"/>
+      <c r="CR13" s="76"/>
+      <c r="CS13" s="56"/>
+      <c r="CT13" s="128"/>
       <c r="CU13" s="5"/>
       <c r="CV13" s="5"/>
-    </row>
-    <row r="14" spans="1:100">
+      <c r="CW13" s="5"/>
+    </row>
+    <row r="14" spans="1:101">
       <c r="A14" s="25" t="s">
         <v>94</v>
       </c>
@@ -6334,20 +6338,21 @@
       <c r="CH14" s="76"/>
       <c r="CI14" s="76"/>
       <c r="CJ14" s="62"/>
-      <c r="CK14" s="56"/>
-      <c r="CL14" s="76"/>
+      <c r="CK14" s="62"/>
+      <c r="CL14" s="56"/>
       <c r="CM14" s="76"/>
       <c r="CN14" s="76"/>
       <c r="CO14" s="76"/>
       <c r="CP14" s="76"/>
       <c r="CQ14" s="76"/>
-      <c r="CR14" s="56"/>
-      <c r="CS14" s="128"/>
-      <c r="CT14" s="5"/>
+      <c r="CR14" s="76"/>
+      <c r="CS14" s="56"/>
+      <c r="CT14" s="128"/>
       <c r="CU14" s="5"/>
       <c r="CV14" s="5"/>
-    </row>
-    <row r="15" spans="1:100">
+      <c r="CW14" s="5"/>
+    </row>
+    <row r="15" spans="1:101">
       <c r="A15" s="25"/>
       <c r="B15" s="27">
         <v>2021</v>
@@ -6441,20 +6446,21 @@
       <c r="CH15" s="76"/>
       <c r="CI15" s="76"/>
       <c r="CJ15" s="62"/>
-      <c r="CK15" s="56"/>
-      <c r="CL15" s="76"/>
+      <c r="CK15" s="62"/>
+      <c r="CL15" s="56"/>
       <c r="CM15" s="76"/>
       <c r="CN15" s="76"/>
       <c r="CO15" s="76"/>
       <c r="CP15" s="76"/>
       <c r="CQ15" s="76"/>
-      <c r="CR15" s="56"/>
-      <c r="CS15" s="128"/>
-      <c r="CT15" s="5"/>
+      <c r="CR15" s="76"/>
+      <c r="CS15" s="56"/>
+      <c r="CT15" s="128"/>
       <c r="CU15" s="5"/>
       <c r="CV15" s="5"/>
-    </row>
-    <row r="16" spans="1:100">
+      <c r="CW15" s="5"/>
+    </row>
+    <row r="16" spans="1:101">
       <c r="A16" s="25"/>
       <c r="B16" s="27">
         <v>2020</v>
@@ -6548,20 +6554,21 @@
       <c r="CH16" s="76"/>
       <c r="CI16" s="76"/>
       <c r="CJ16" s="62"/>
-      <c r="CK16" s="56"/>
-      <c r="CL16" s="76"/>
+      <c r="CK16" s="62"/>
+      <c r="CL16" s="56"/>
       <c r="CM16" s="76"/>
       <c r="CN16" s="76"/>
       <c r="CO16" s="76"/>
       <c r="CP16" s="76"/>
       <c r="CQ16" s="76"/>
-      <c r="CR16" s="56"/>
-      <c r="CS16" s="128"/>
-      <c r="CT16" s="5"/>
+      <c r="CR16" s="76"/>
+      <c r="CS16" s="56"/>
+      <c r="CT16" s="128"/>
       <c r="CU16" s="5"/>
       <c r="CV16" s="5"/>
-    </row>
-    <row r="17" spans="1:100">
+      <c r="CW16" s="5"/>
+    </row>
+    <row r="17" spans="1:101">
       <c r="A17" s="25"/>
       <c r="B17" s="27">
         <v>2019</v>
@@ -6655,20 +6662,21 @@
       <c r="CH17" s="76"/>
       <c r="CI17" s="76"/>
       <c r="CJ17" s="62"/>
-      <c r="CK17" s="56"/>
-      <c r="CL17" s="76"/>
+      <c r="CK17" s="62"/>
+      <c r="CL17" s="56"/>
       <c r="CM17" s="76"/>
       <c r="CN17" s="76"/>
       <c r="CO17" s="76"/>
       <c r="CP17" s="76"/>
       <c r="CQ17" s="76"/>
-      <c r="CR17" s="56"/>
-      <c r="CS17" s="128"/>
-      <c r="CT17" s="5"/>
+      <c r="CR17" s="76"/>
+      <c r="CS17" s="56"/>
+      <c r="CT17" s="128"/>
       <c r="CU17" s="5"/>
       <c r="CV17" s="5"/>
-    </row>
-    <row r="18" spans="1:100">
+      <c r="CW17" s="5"/>
+    </row>
+    <row r="18" spans="1:101">
       <c r="A18" s="25"/>
       <c r="B18" s="27">
         <v>2018</v>
@@ -6762,20 +6770,21 @@
       <c r="CH18" s="76"/>
       <c r="CI18" s="76"/>
       <c r="CJ18" s="62"/>
-      <c r="CK18" s="56"/>
-      <c r="CL18" s="76"/>
+      <c r="CK18" s="62"/>
+      <c r="CL18" s="56"/>
       <c r="CM18" s="76"/>
       <c r="CN18" s="76"/>
       <c r="CO18" s="76"/>
       <c r="CP18" s="76"/>
       <c r="CQ18" s="76"/>
-      <c r="CR18" s="56"/>
-      <c r="CS18" s="128"/>
-      <c r="CT18" s="5"/>
+      <c r="CR18" s="76"/>
+      <c r="CS18" s="56"/>
+      <c r="CT18" s="128"/>
       <c r="CU18" s="5"/>
       <c r="CV18" s="5"/>
-    </row>
-    <row r="19" spans="1:100">
+      <c r="CW18" s="5"/>
+    </row>
+    <row r="19" spans="1:101">
       <c r="A19" s="25"/>
       <c r="B19" s="27">
         <v>2017</v>
@@ -6869,20 +6878,21 @@
       <c r="CH19" s="76"/>
       <c r="CI19" s="76"/>
       <c r="CJ19" s="62"/>
-      <c r="CK19" s="56"/>
-      <c r="CL19" s="76"/>
+      <c r="CK19" s="62"/>
+      <c r="CL19" s="56"/>
       <c r="CM19" s="76"/>
       <c r="CN19" s="76"/>
       <c r="CO19" s="76"/>
       <c r="CP19" s="76"/>
       <c r="CQ19" s="76"/>
-      <c r="CR19" s="56"/>
-      <c r="CS19" s="128"/>
-      <c r="CT19" s="5"/>
+      <c r="CR19" s="76"/>
+      <c r="CS19" s="56"/>
+      <c r="CT19" s="128"/>
       <c r="CU19" s="5"/>
       <c r="CV19" s="5"/>
-    </row>
-    <row r="20" spans="1:100">
+      <c r="CW19" s="5"/>
+    </row>
+    <row r="20" spans="1:101">
       <c r="A20" s="25"/>
       <c r="B20" s="27">
         <v>2016</v>
@@ -6976,20 +6986,21 @@
       <c r="CH20" s="76"/>
       <c r="CI20" s="76"/>
       <c r="CJ20" s="62"/>
-      <c r="CK20" s="56"/>
-      <c r="CL20" s="76"/>
+      <c r="CK20" s="62"/>
+      <c r="CL20" s="56"/>
       <c r="CM20" s="76"/>
       <c r="CN20" s="76"/>
       <c r="CO20" s="76"/>
       <c r="CP20" s="76"/>
       <c r="CQ20" s="76"/>
-      <c r="CR20" s="56"/>
-      <c r="CS20" s="128"/>
-      <c r="CT20" s="5"/>
+      <c r="CR20" s="76"/>
+      <c r="CS20" s="56"/>
+      <c r="CT20" s="128"/>
       <c r="CU20" s="5"/>
       <c r="CV20" s="5"/>
-    </row>
-    <row r="21" spans="1:100">
+      <c r="CW20" s="5"/>
+    </row>
+    <row r="21" spans="1:101">
       <c r="A21" s="25"/>
       <c r="B21" s="27">
         <v>2015</v>
@@ -7083,20 +7094,21 @@
       <c r="CH21" s="76"/>
       <c r="CI21" s="76"/>
       <c r="CJ21" s="62"/>
-      <c r="CK21" s="56"/>
-      <c r="CL21" s="76"/>
+      <c r="CK21" s="62"/>
+      <c r="CL21" s="56"/>
       <c r="CM21" s="76"/>
       <c r="CN21" s="76"/>
       <c r="CO21" s="76"/>
       <c r="CP21" s="76"/>
       <c r="CQ21" s="76"/>
-      <c r="CR21" s="56"/>
-      <c r="CS21" s="128"/>
-      <c r="CT21" s="5"/>
+      <c r="CR21" s="76"/>
+      <c r="CS21" s="56"/>
+      <c r="CT21" s="128"/>
       <c r="CU21" s="5"/>
       <c r="CV21" s="5"/>
-    </row>
-    <row r="22" spans="1:100">
+      <c r="CW21" s="5"/>
+    </row>
+    <row r="22" spans="1:101">
       <c r="A22" s="25"/>
       <c r="B22" s="27">
         <v>2014</v>
@@ -7190,20 +7202,21 @@
       <c r="CH22" s="76"/>
       <c r="CI22" s="76"/>
       <c r="CJ22" s="62"/>
-      <c r="CK22" s="56"/>
-      <c r="CL22" s="76"/>
+      <c r="CK22" s="62"/>
+      <c r="CL22" s="56"/>
       <c r="CM22" s="76"/>
       <c r="CN22" s="76"/>
       <c r="CO22" s="76"/>
       <c r="CP22" s="76"/>
       <c r="CQ22" s="76"/>
-      <c r="CR22" s="56"/>
-      <c r="CS22" s="128"/>
-      <c r="CT22" s="5"/>
+      <c r="CR22" s="76"/>
+      <c r="CS22" s="56"/>
+      <c r="CT22" s="128"/>
       <c r="CU22" s="5"/>
       <c r="CV22" s="5"/>
-    </row>
-    <row r="23" spans="1:100">
+      <c r="CW22" s="5"/>
+    </row>
+    <row r="23" spans="1:101">
       <c r="A23" s="25"/>
       <c r="B23" s="27">
         <v>2013</v>
@@ -7297,20 +7310,21 @@
       <c r="CH23" s="76"/>
       <c r="CI23" s="76"/>
       <c r="CJ23" s="62"/>
-      <c r="CK23" s="56"/>
-      <c r="CL23" s="76"/>
+      <c r="CK23" s="62"/>
+      <c r="CL23" s="56"/>
       <c r="CM23" s="76"/>
       <c r="CN23" s="76"/>
       <c r="CO23" s="76"/>
       <c r="CP23" s="76"/>
       <c r="CQ23" s="76"/>
-      <c r="CR23" s="56"/>
-      <c r="CS23" s="128"/>
-      <c r="CT23" s="5"/>
+      <c r="CR23" s="76"/>
+      <c r="CS23" s="56"/>
+      <c r="CT23" s="128"/>
       <c r="CU23" s="5"/>
       <c r="CV23" s="5"/>
-    </row>
-    <row r="24" spans="1:100">
+      <c r="CW23" s="5"/>
+    </row>
+    <row r="24" spans="1:101">
       <c r="A24" s="25"/>
       <c r="B24" s="27">
         <v>2012</v>
@@ -7404,20 +7418,21 @@
       <c r="CH24" s="76"/>
       <c r="CI24" s="76"/>
       <c r="CJ24" s="62"/>
-      <c r="CK24" s="56"/>
-      <c r="CL24" s="76"/>
+      <c r="CK24" s="62"/>
+      <c r="CL24" s="56"/>
       <c r="CM24" s="76"/>
       <c r="CN24" s="76"/>
       <c r="CO24" s="76"/>
       <c r="CP24" s="76"/>
       <c r="CQ24" s="76"/>
-      <c r="CR24" s="56"/>
-      <c r="CS24" s="128"/>
-      <c r="CT24" s="5"/>
+      <c r="CR24" s="76"/>
+      <c r="CS24" s="56"/>
+      <c r="CT24" s="128"/>
       <c r="CU24" s="5"/>
       <c r="CV24" s="5"/>
-    </row>
-    <row r="25" spans="1:100">
+      <c r="CW24" s="5"/>
+    </row>
+    <row r="25" spans="1:101">
       <c r="A25" s="25" t="s">
         <v>95</v>
       </c>
@@ -7552,27 +7567,28 @@
         <f t="shared" ref="CI25:CI30" si="13">CC25+CG25</f>
         <v>10835882408.22</v>
       </c>
-      <c r="CJ25" s="62">
-        <f t="shared" ref="CJ25:CJ30" si="14">CE25/BX25</f>
+      <c r="CJ25" s="62"/>
+      <c r="CK25" s="62">
+        <f t="shared" ref="CK25:CK30" si="14">CE25/BX25</f>
         <v>0.50014481973453</v>
       </c>
-      <c r="CK25" s="163">
-        <f t="shared" ref="CK25:CK30" si="15">CI25/CA25</f>
+      <c r="CL25" s="164">
+        <f t="shared" ref="CL25:CL30" si="15">CI25/CA25</f>
         <v>1.15543037078557</v>
       </c>
-      <c r="CL25" s="76"/>
       <c r="CM25" s="76"/>
       <c r="CN25" s="76"/>
       <c r="CO25" s="76"/>
       <c r="CP25" s="76"/>
       <c r="CQ25" s="76"/>
-      <c r="CR25" s="56"/>
-      <c r="CS25" s="128"/>
-      <c r="CT25" s="5"/>
+      <c r="CR25" s="76"/>
+      <c r="CS25" s="56"/>
+      <c r="CT25" s="128"/>
       <c r="CU25" s="5"/>
       <c r="CV25" s="5"/>
-    </row>
-    <row r="26" spans="1:100">
+      <c r="CW25" s="5"/>
+    </row>
+    <row r="26" spans="1:101">
       <c r="A26" s="25"/>
       <c r="B26" s="27">
         <v>2021</v>
@@ -7705,27 +7721,28 @@
         <f t="shared" si="13"/>
         <v>6996339915.57</v>
       </c>
-      <c r="CJ26" s="62">
+      <c r="CJ26" s="62"/>
+      <c r="CK26" s="62">
         <f t="shared" si="14"/>
         <v>0.454906629442051</v>
       </c>
-      <c r="CK26" s="163">
+      <c r="CL26" s="164">
         <f t="shared" si="15"/>
         <v>2.11638140650393</v>
       </c>
-      <c r="CL26" s="76"/>
       <c r="CM26" s="76"/>
       <c r="CN26" s="76"/>
       <c r="CO26" s="76"/>
       <c r="CP26" s="76"/>
       <c r="CQ26" s="76"/>
-      <c r="CR26" s="56"/>
-      <c r="CS26" s="128"/>
-      <c r="CT26" s="5"/>
+      <c r="CR26" s="76"/>
+      <c r="CS26" s="56"/>
+      <c r="CT26" s="128"/>
       <c r="CU26" s="5"/>
       <c r="CV26" s="5"/>
-    </row>
-    <row r="27" spans="1:100">
+      <c r="CW26" s="5"/>
+    </row>
+    <row r="27" spans="1:101">
       <c r="A27" s="25"/>
       <c r="B27" s="27">
         <v>2020</v>
@@ -7854,27 +7871,28 @@
         <f t="shared" si="13"/>
         <v>4166855234.06</v>
       </c>
-      <c r="CJ27" s="62">
+      <c r="CJ27" s="62"/>
+      <c r="CK27" s="62">
         <f t="shared" si="14"/>
         <v>0.420928258948939</v>
       </c>
-      <c r="CK27" s="163">
+      <c r="CL27" s="164">
         <f t="shared" si="15"/>
         <v>0.773102421644262</v>
       </c>
-      <c r="CL27" s="76"/>
       <c r="CM27" s="76"/>
       <c r="CN27" s="76"/>
       <c r="CO27" s="76"/>
       <c r="CP27" s="76"/>
       <c r="CQ27" s="76"/>
-      <c r="CR27" s="56"/>
-      <c r="CS27" s="128"/>
-      <c r="CT27" s="5"/>
+      <c r="CR27" s="76"/>
+      <c r="CS27" s="56"/>
+      <c r="CT27" s="128"/>
       <c r="CU27" s="5"/>
       <c r="CV27" s="5"/>
-    </row>
-    <row r="28" spans="1:100">
+      <c r="CW27" s="5"/>
+    </row>
+    <row r="28" spans="1:101">
       <c r="A28" s="25"/>
       <c r="B28" s="27">
         <v>2019</v>
@@ -8001,27 +8019,28 @@
         <f t="shared" si="13"/>
         <v>2826464286.13</v>
       </c>
-      <c r="CJ28" s="62">
+      <c r="CJ28" s="62"/>
+      <c r="CK28" s="62">
         <f t="shared" si="14"/>
         <v>0.371341993739896</v>
       </c>
-      <c r="CK28" s="163">
+      <c r="CL28" s="164">
         <f t="shared" si="15"/>
         <v>0.725246287144384</v>
       </c>
-      <c r="CL28" s="76"/>
       <c r="CM28" s="76"/>
       <c r="CN28" s="76"/>
       <c r="CO28" s="76"/>
       <c r="CP28" s="76"/>
       <c r="CQ28" s="76"/>
-      <c r="CR28" s="56"/>
-      <c r="CS28" s="128"/>
-      <c r="CT28" s="5"/>
+      <c r="CR28" s="76"/>
+      <c r="CS28" s="56"/>
+      <c r="CT28" s="128"/>
       <c r="CU28" s="5"/>
       <c r="CV28" s="5"/>
-    </row>
-    <row r="29" spans="1:100">
+      <c r="CW28" s="5"/>
+    </row>
+    <row r="29" spans="1:101">
       <c r="A29" s="25"/>
       <c r="B29" s="27">
         <v>2018</v>
@@ -8148,27 +8167,28 @@
         <f t="shared" si="13"/>
         <v>2149674502.48</v>
       </c>
-      <c r="CJ29" s="62">
+      <c r="CJ29" s="62"/>
+      <c r="CK29" s="62">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="CK29" s="163">
+      <c r="CL29" s="164">
         <f t="shared" si="15"/>
         <v>0.416725385286497</v>
       </c>
-      <c r="CL29" s="76"/>
       <c r="CM29" s="76"/>
       <c r="CN29" s="76"/>
       <c r="CO29" s="76"/>
       <c r="CP29" s="76"/>
       <c r="CQ29" s="76"/>
-      <c r="CR29" s="56"/>
-      <c r="CS29" s="128"/>
-      <c r="CT29" s="5"/>
+      <c r="CR29" s="76"/>
+      <c r="CS29" s="56"/>
+      <c r="CT29" s="128"/>
       <c r="CU29" s="5"/>
       <c r="CV29" s="5"/>
-    </row>
-    <row r="30" spans="1:100">
+      <c r="CW29" s="5"/>
+    </row>
+    <row r="30" spans="1:101">
       <c r="A30" s="25"/>
       <c r="B30" s="27">
         <v>2017</v>
@@ -8293,27 +8313,28 @@
         <f t="shared" si="13"/>
         <v>1372472755.26</v>
       </c>
-      <c r="CJ30" s="62">
+      <c r="CJ30" s="62"/>
+      <c r="CK30" s="62">
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="CK30" s="163">
+      <c r="CL30" s="164">
         <f t="shared" si="15"/>
         <v>0.318222038537875</v>
       </c>
-      <c r="CL30" s="76"/>
       <c r="CM30" s="76"/>
       <c r="CN30" s="76"/>
       <c r="CO30" s="76"/>
       <c r="CP30" s="76"/>
       <c r="CQ30" s="76"/>
-      <c r="CR30" s="56"/>
-      <c r="CS30" s="128"/>
-      <c r="CT30" s="5"/>
+      <c r="CR30" s="76"/>
+      <c r="CS30" s="56"/>
+      <c r="CT30" s="128"/>
       <c r="CU30" s="5"/>
       <c r="CV30" s="5"/>
-    </row>
-    <row r="31" spans="1:100">
+      <c r="CW30" s="5"/>
+    </row>
+    <row r="31" spans="1:101">
       <c r="A31" s="25"/>
       <c r="B31" s="27">
         <v>2016</v>
@@ -8407,20 +8428,21 @@
       <c r="CH31" s="76"/>
       <c r="CI31" s="76"/>
       <c r="CJ31" s="62"/>
-      <c r="CK31" s="56"/>
-      <c r="CL31" s="76"/>
+      <c r="CK31" s="62"/>
+      <c r="CL31" s="56"/>
       <c r="CM31" s="76"/>
       <c r="CN31" s="76"/>
       <c r="CO31" s="76"/>
       <c r="CP31" s="76"/>
       <c r="CQ31" s="76"/>
-      <c r="CR31" s="56"/>
-      <c r="CS31" s="128"/>
-      <c r="CT31" s="5"/>
+      <c r="CR31" s="76"/>
+      <c r="CS31" s="56"/>
+      <c r="CT31" s="128"/>
       <c r="CU31" s="5"/>
       <c r="CV31" s="5"/>
-    </row>
-    <row r="32" spans="1:100">
+      <c r="CW31" s="5"/>
+    </row>
+    <row r="32" spans="1:101">
       <c r="A32" s="25"/>
       <c r="B32" s="27">
         <v>2015</v>
@@ -8514,20 +8536,21 @@
       <c r="CH32" s="76"/>
       <c r="CI32" s="76"/>
       <c r="CJ32" s="62"/>
-      <c r="CK32" s="56"/>
-      <c r="CL32" s="76"/>
+      <c r="CK32" s="62"/>
+      <c r="CL32" s="56"/>
       <c r="CM32" s="76"/>
       <c r="CN32" s="76"/>
       <c r="CO32" s="76"/>
       <c r="CP32" s="76"/>
       <c r="CQ32" s="76"/>
-      <c r="CR32" s="56"/>
-      <c r="CS32" s="128"/>
-      <c r="CT32" s="5"/>
+      <c r="CR32" s="76"/>
+      <c r="CS32" s="56"/>
+      <c r="CT32" s="128"/>
       <c r="CU32" s="5"/>
       <c r="CV32" s="5"/>
-    </row>
-    <row r="33" spans="1:100">
+      <c r="CW32" s="5"/>
+    </row>
+    <row r="33" spans="1:101">
       <c r="A33" s="25"/>
       <c r="B33" s="27">
         <v>2014</v>
@@ -8621,20 +8644,21 @@
       <c r="CH33" s="76"/>
       <c r="CI33" s="76"/>
       <c r="CJ33" s="62"/>
-      <c r="CK33" s="56"/>
-      <c r="CL33" s="76"/>
+      <c r="CK33" s="62"/>
+      <c r="CL33" s="56"/>
       <c r="CM33" s="76"/>
       <c r="CN33" s="76"/>
       <c r="CO33" s="76"/>
       <c r="CP33" s="76"/>
       <c r="CQ33" s="76"/>
-      <c r="CR33" s="56"/>
-      <c r="CS33" s="128"/>
-      <c r="CT33" s="5"/>
+      <c r="CR33" s="76"/>
+      <c r="CS33" s="56"/>
+      <c r="CT33" s="128"/>
       <c r="CU33" s="5"/>
       <c r="CV33" s="5"/>
-    </row>
-    <row r="34" spans="1:100">
+      <c r="CW33" s="5"/>
+    </row>
+    <row r="34" spans="1:101">
       <c r="A34" s="25"/>
       <c r="B34" s="27">
         <v>2013</v>
@@ -8728,20 +8752,21 @@
       <c r="CH34" s="76"/>
       <c r="CI34" s="76"/>
       <c r="CJ34" s="62"/>
-      <c r="CK34" s="56"/>
-      <c r="CL34" s="76"/>
+      <c r="CK34" s="62"/>
+      <c r="CL34" s="56"/>
       <c r="CM34" s="76"/>
       <c r="CN34" s="76"/>
       <c r="CO34" s="76"/>
       <c r="CP34" s="76"/>
       <c r="CQ34" s="76"/>
-      <c r="CR34" s="56"/>
-      <c r="CS34" s="128"/>
-      <c r="CT34" s="5"/>
+      <c r="CR34" s="76"/>
+      <c r="CS34" s="56"/>
+      <c r="CT34" s="128"/>
       <c r="CU34" s="5"/>
       <c r="CV34" s="5"/>
-    </row>
-    <row r="35" spans="1:100">
+      <c r="CW34" s="5"/>
+    </row>
+    <row r="35" spans="1:101">
       <c r="A35" s="25"/>
       <c r="B35" s="27">
         <v>2012</v>
@@ -8835,20 +8860,21 @@
       <c r="CH35" s="76"/>
       <c r="CI35" s="76"/>
       <c r="CJ35" s="62"/>
-      <c r="CK35" s="56"/>
-      <c r="CL35" s="76"/>
+      <c r="CK35" s="62"/>
+      <c r="CL35" s="56"/>
       <c r="CM35" s="76"/>
       <c r="CN35" s="76"/>
       <c r="CO35" s="76"/>
       <c r="CP35" s="76"/>
       <c r="CQ35" s="76"/>
-      <c r="CR35" s="56"/>
-      <c r="CS35" s="128"/>
-      <c r="CT35" s="5"/>
+      <c r="CR35" s="76"/>
+      <c r="CS35" s="56"/>
+      <c r="CT35" s="128"/>
       <c r="CU35" s="5"/>
       <c r="CV35" s="5"/>
-    </row>
-    <row r="36" spans="1:100">
+      <c r="CW35" s="5"/>
+    </row>
+    <row r="36" spans="1:101">
       <c r="A36" s="25" t="s">
         <v>96</v>
       </c>
@@ -8944,20 +8970,21 @@
       <c r="CH36" s="76"/>
       <c r="CI36" s="76"/>
       <c r="CJ36" s="62"/>
-      <c r="CK36" s="56"/>
-      <c r="CL36" s="76"/>
+      <c r="CK36" s="62"/>
+      <c r="CL36" s="56"/>
       <c r="CM36" s="76"/>
       <c r="CN36" s="76"/>
       <c r="CO36" s="76"/>
       <c r="CP36" s="76"/>
       <c r="CQ36" s="76"/>
-      <c r="CR36" s="56"/>
-      <c r="CS36" s="128"/>
-      <c r="CT36" s="5"/>
+      <c r="CR36" s="76"/>
+      <c r="CS36" s="56"/>
+      <c r="CT36" s="128"/>
       <c r="CU36" s="5"/>
       <c r="CV36" s="5"/>
-    </row>
-    <row r="37" spans="1:100">
+      <c r="CW36" s="5"/>
+    </row>
+    <row r="37" spans="1:101">
       <c r="A37" s="25"/>
       <c r="B37" s="27">
         <v>2021</v>
@@ -9051,20 +9078,21 @@
       <c r="CH37" s="76"/>
       <c r="CI37" s="76"/>
       <c r="CJ37" s="62"/>
-      <c r="CK37" s="56"/>
-      <c r="CL37" s="76"/>
+      <c r="CK37" s="62"/>
+      <c r="CL37" s="56"/>
       <c r="CM37" s="76"/>
       <c r="CN37" s="76"/>
       <c r="CO37" s="76"/>
       <c r="CP37" s="76"/>
       <c r="CQ37" s="76"/>
-      <c r="CR37" s="56"/>
-      <c r="CS37" s="128"/>
-      <c r="CT37" s="5"/>
+      <c r="CR37" s="76"/>
+      <c r="CS37" s="56"/>
+      <c r="CT37" s="128"/>
       <c r="CU37" s="5"/>
       <c r="CV37" s="5"/>
-    </row>
-    <row r="38" spans="1:100">
+      <c r="CW37" s="5"/>
+    </row>
+    <row r="38" spans="1:101">
       <c r="A38" s="25"/>
       <c r="B38" s="27">
         <v>2020</v>
@@ -9158,20 +9186,21 @@
       <c r="CH38" s="76"/>
       <c r="CI38" s="76"/>
       <c r="CJ38" s="62"/>
-      <c r="CK38" s="56"/>
-      <c r="CL38" s="76"/>
+      <c r="CK38" s="62"/>
+      <c r="CL38" s="56"/>
       <c r="CM38" s="76"/>
       <c r="CN38" s="76"/>
       <c r="CO38" s="76"/>
       <c r="CP38" s="76"/>
       <c r="CQ38" s="76"/>
-      <c r="CR38" s="56"/>
-      <c r="CS38" s="128"/>
-      <c r="CT38" s="5"/>
+      <c r="CR38" s="76"/>
+      <c r="CS38" s="56"/>
+      <c r="CT38" s="128"/>
       <c r="CU38" s="5"/>
       <c r="CV38" s="5"/>
-    </row>
-    <row r="39" spans="1:100">
+      <c r="CW38" s="5"/>
+    </row>
+    <row r="39" spans="1:101">
       <c r="A39" s="25"/>
       <c r="B39" s="27">
         <v>2019</v>
@@ -9265,20 +9294,21 @@
       <c r="CH39" s="76"/>
       <c r="CI39" s="76"/>
       <c r="CJ39" s="62"/>
-      <c r="CK39" s="56"/>
-      <c r="CL39" s="76"/>
+      <c r="CK39" s="62"/>
+      <c r="CL39" s="56"/>
       <c r="CM39" s="76"/>
       <c r="CN39" s="76"/>
       <c r="CO39" s="76"/>
       <c r="CP39" s="76"/>
       <c r="CQ39" s="76"/>
-      <c r="CR39" s="56"/>
-      <c r="CS39" s="128"/>
-      <c r="CT39" s="5"/>
+      <c r="CR39" s="76"/>
+      <c r="CS39" s="56"/>
+      <c r="CT39" s="128"/>
       <c r="CU39" s="5"/>
       <c r="CV39" s="5"/>
-    </row>
-    <row r="40" spans="1:100">
+      <c r="CW39" s="5"/>
+    </row>
+    <row r="40" spans="1:101">
       <c r="A40" s="25"/>
       <c r="B40" s="27">
         <v>2018</v>
@@ -9372,20 +9402,21 @@
       <c r="CH40" s="76"/>
       <c r="CI40" s="76"/>
       <c r="CJ40" s="62"/>
-      <c r="CK40" s="56"/>
-      <c r="CL40" s="76"/>
+      <c r="CK40" s="62"/>
+      <c r="CL40" s="56"/>
       <c r="CM40" s="76"/>
       <c r="CN40" s="76"/>
       <c r="CO40" s="76"/>
       <c r="CP40" s="76"/>
       <c r="CQ40" s="76"/>
-      <c r="CR40" s="56"/>
-      <c r="CS40" s="128"/>
-      <c r="CT40" s="5"/>
+      <c r="CR40" s="76"/>
+      <c r="CS40" s="56"/>
+      <c r="CT40" s="128"/>
       <c r="CU40" s="5"/>
       <c r="CV40" s="5"/>
-    </row>
-    <row r="41" spans="1:100">
+      <c r="CW40" s="5"/>
+    </row>
+    <row r="41" spans="1:101">
       <c r="A41" s="25"/>
       <c r="B41" s="27">
         <v>2017</v>
@@ -9479,20 +9510,21 @@
       <c r="CH41" s="76"/>
       <c r="CI41" s="76"/>
       <c r="CJ41" s="62"/>
-      <c r="CK41" s="56"/>
-      <c r="CL41" s="76"/>
+      <c r="CK41" s="62"/>
+      <c r="CL41" s="56"/>
       <c r="CM41" s="76"/>
       <c r="CN41" s="76"/>
       <c r="CO41" s="76"/>
       <c r="CP41" s="76"/>
       <c r="CQ41" s="76"/>
-      <c r="CR41" s="56"/>
-      <c r="CS41" s="128"/>
-      <c r="CT41" s="5"/>
+      <c r="CR41" s="76"/>
+      <c r="CS41" s="56"/>
+      <c r="CT41" s="128"/>
       <c r="CU41" s="5"/>
       <c r="CV41" s="5"/>
-    </row>
-    <row r="42" spans="1:100">
+      <c r="CW41" s="5"/>
+    </row>
+    <row r="42" spans="1:101">
       <c r="A42" s="25"/>
       <c r="B42" s="27">
         <v>2016</v>
@@ -9586,20 +9618,21 @@
       <c r="CH42" s="76"/>
       <c r="CI42" s="76"/>
       <c r="CJ42" s="62"/>
-      <c r="CK42" s="56"/>
-      <c r="CL42" s="76"/>
+      <c r="CK42" s="62"/>
+      <c r="CL42" s="56"/>
       <c r="CM42" s="76"/>
       <c r="CN42" s="76"/>
       <c r="CO42" s="76"/>
       <c r="CP42" s="76"/>
       <c r="CQ42" s="76"/>
-      <c r="CR42" s="56"/>
-      <c r="CS42" s="128"/>
-      <c r="CT42" s="5"/>
+      <c r="CR42" s="76"/>
+      <c r="CS42" s="56"/>
+      <c r="CT42" s="128"/>
       <c r="CU42" s="5"/>
       <c r="CV42" s="5"/>
-    </row>
-    <row r="43" spans="1:100">
+      <c r="CW42" s="5"/>
+    </row>
+    <row r="43" spans="1:101">
       <c r="A43" s="25"/>
       <c r="B43" s="27">
         <v>2015</v>
@@ -9693,20 +9726,21 @@
       <c r="CH43" s="76"/>
       <c r="CI43" s="76"/>
       <c r="CJ43" s="62"/>
-      <c r="CK43" s="56"/>
-      <c r="CL43" s="76"/>
+      <c r="CK43" s="62"/>
+      <c r="CL43" s="56"/>
       <c r="CM43" s="76"/>
       <c r="CN43" s="76"/>
       <c r="CO43" s="76"/>
       <c r="CP43" s="76"/>
       <c r="CQ43" s="76"/>
-      <c r="CR43" s="56"/>
-      <c r="CS43" s="128"/>
-      <c r="CT43" s="5"/>
+      <c r="CR43" s="76"/>
+      <c r="CS43" s="56"/>
+      <c r="CT43" s="128"/>
       <c r="CU43" s="5"/>
       <c r="CV43" s="5"/>
-    </row>
-    <row r="44" spans="1:100">
+      <c r="CW43" s="5"/>
+    </row>
+    <row r="44" spans="1:101">
       <c r="A44" s="25"/>
       <c r="B44" s="27">
         <v>2014</v>
@@ -9800,20 +9834,21 @@
       <c r="CH44" s="76"/>
       <c r="CI44" s="76"/>
       <c r="CJ44" s="62"/>
-      <c r="CK44" s="56"/>
-      <c r="CL44" s="76"/>
+      <c r="CK44" s="62"/>
+      <c r="CL44" s="56"/>
       <c r="CM44" s="76"/>
       <c r="CN44" s="76"/>
       <c r="CO44" s="76"/>
       <c r="CP44" s="76"/>
       <c r="CQ44" s="76"/>
-      <c r="CR44" s="56"/>
-      <c r="CS44" s="128"/>
-      <c r="CT44" s="5"/>
+      <c r="CR44" s="76"/>
+      <c r="CS44" s="56"/>
+      <c r="CT44" s="128"/>
       <c r="CU44" s="5"/>
       <c r="CV44" s="5"/>
-    </row>
-    <row r="45" spans="1:100">
+      <c r="CW44" s="5"/>
+    </row>
+    <row r="45" spans="1:101">
       <c r="A45" s="25"/>
       <c r="B45" s="27">
         <v>2013</v>
@@ -9907,20 +9942,21 @@
       <c r="CH45" s="76"/>
       <c r="CI45" s="76"/>
       <c r="CJ45" s="62"/>
-      <c r="CK45" s="56"/>
-      <c r="CL45" s="76"/>
+      <c r="CK45" s="62"/>
+      <c r="CL45" s="56"/>
       <c r="CM45" s="76"/>
       <c r="CN45" s="76"/>
       <c r="CO45" s="76"/>
       <c r="CP45" s="76"/>
       <c r="CQ45" s="76"/>
-      <c r="CR45" s="56"/>
-      <c r="CS45" s="128"/>
-      <c r="CT45" s="5"/>
+      <c r="CR45" s="76"/>
+      <c r="CS45" s="56"/>
+      <c r="CT45" s="128"/>
       <c r="CU45" s="5"/>
       <c r="CV45" s="5"/>
-    </row>
-    <row r="46" spans="1:100">
+      <c r="CW45" s="5"/>
+    </row>
+    <row r="46" spans="1:101">
       <c r="A46" s="25"/>
       <c r="B46" s="27">
         <v>2012</v>
@@ -10014,20 +10050,21 @@
       <c r="CH46" s="76"/>
       <c r="CI46" s="76"/>
       <c r="CJ46" s="62"/>
-      <c r="CK46" s="56"/>
-      <c r="CL46" s="76"/>
+      <c r="CK46" s="62"/>
+      <c r="CL46" s="56"/>
       <c r="CM46" s="76"/>
       <c r="CN46" s="76"/>
       <c r="CO46" s="76"/>
       <c r="CP46" s="76"/>
       <c r="CQ46" s="76"/>
-      <c r="CR46" s="56"/>
-      <c r="CS46" s="128"/>
-      <c r="CT46" s="5"/>
+      <c r="CR46" s="76"/>
+      <c r="CS46" s="56"/>
+      <c r="CT46" s="128"/>
       <c r="CU46" s="5"/>
       <c r="CV46" s="5"/>
-    </row>
-    <row r="47" spans="1:100">
+      <c r="CW46" s="5"/>
+    </row>
+    <row r="47" spans="1:101">
       <c r="A47" s="4" t="s">
         <v>97</v>
       </c>
@@ -10123,20 +10160,21 @@
       <c r="CH47" s="76"/>
       <c r="CI47" s="76"/>
       <c r="CJ47" s="62"/>
-      <c r="CK47" s="56"/>
-      <c r="CL47" s="76"/>
+      <c r="CK47" s="62"/>
+      <c r="CL47" s="56"/>
       <c r="CM47" s="76"/>
       <c r="CN47" s="76"/>
       <c r="CO47" s="76"/>
       <c r="CP47" s="76"/>
       <c r="CQ47" s="76"/>
-      <c r="CR47" s="56"/>
-      <c r="CS47" s="128"/>
-      <c r="CT47" s="5"/>
+      <c r="CR47" s="76"/>
+      <c r="CS47" s="56"/>
+      <c r="CT47" s="128"/>
       <c r="CU47" s="5"/>
       <c r="CV47" s="5"/>
-    </row>
-    <row r="48" spans="1:100">
+      <c r="CW47" s="5"/>
+    </row>
+    <row r="48" spans="1:101">
       <c r="A48" s="4"/>
       <c r="B48" s="27">
         <v>2021</v>
@@ -10230,20 +10268,21 @@
       <c r="CH48" s="76"/>
       <c r="CI48" s="76"/>
       <c r="CJ48" s="62"/>
-      <c r="CK48" s="56"/>
-      <c r="CL48" s="76"/>
+      <c r="CK48" s="62"/>
+      <c r="CL48" s="56"/>
       <c r="CM48" s="76"/>
       <c r="CN48" s="76"/>
       <c r="CO48" s="76"/>
       <c r="CP48" s="76"/>
       <c r="CQ48" s="76"/>
-      <c r="CR48" s="56"/>
-      <c r="CS48" s="128"/>
-      <c r="CT48" s="5"/>
+      <c r="CR48" s="76"/>
+      <c r="CS48" s="56"/>
+      <c r="CT48" s="128"/>
       <c r="CU48" s="5"/>
       <c r="CV48" s="5"/>
-    </row>
-    <row r="49" spans="1:100">
+      <c r="CW48" s="5"/>
+    </row>
+    <row r="49" spans="1:101">
       <c r="A49" s="4"/>
       <c r="B49" s="27">
         <v>2020</v>
@@ -10337,20 +10376,21 @@
       <c r="CH49" s="76"/>
       <c r="CI49" s="76"/>
       <c r="CJ49" s="62"/>
-      <c r="CK49" s="56"/>
-      <c r="CL49" s="76"/>
+      <c r="CK49" s="62"/>
+      <c r="CL49" s="56"/>
       <c r="CM49" s="76"/>
       <c r="CN49" s="76"/>
       <c r="CO49" s="76"/>
       <c r="CP49" s="76"/>
       <c r="CQ49" s="76"/>
-      <c r="CR49" s="56"/>
-      <c r="CS49" s="128"/>
-      <c r="CT49" s="5"/>
+      <c r="CR49" s="76"/>
+      <c r="CS49" s="56"/>
+      <c r="CT49" s="128"/>
       <c r="CU49" s="5"/>
       <c r="CV49" s="5"/>
-    </row>
-    <row r="50" spans="1:100">
+      <c r="CW49" s="5"/>
+    </row>
+    <row r="50" spans="1:101">
       <c r="A50" s="4"/>
       <c r="B50" s="27">
         <v>2019</v>
@@ -10444,20 +10484,21 @@
       <c r="CH50" s="76"/>
       <c r="CI50" s="76"/>
       <c r="CJ50" s="62"/>
-      <c r="CK50" s="56"/>
-      <c r="CL50" s="76"/>
+      <c r="CK50" s="62"/>
+      <c r="CL50" s="56"/>
       <c r="CM50" s="76"/>
       <c r="CN50" s="76"/>
       <c r="CO50" s="76"/>
       <c r="CP50" s="76"/>
       <c r="CQ50" s="76"/>
-      <c r="CR50" s="56"/>
-      <c r="CS50" s="128"/>
-      <c r="CT50" s="5"/>
+      <c r="CR50" s="76"/>
+      <c r="CS50" s="56"/>
+      <c r="CT50" s="128"/>
       <c r="CU50" s="5"/>
       <c r="CV50" s="5"/>
-    </row>
-    <row r="51" spans="1:100">
+      <c r="CW50" s="5"/>
+    </row>
+    <row r="51" spans="1:101">
       <c r="A51" s="4"/>
       <c r="B51" s="27">
         <v>2018</v>
@@ -10551,20 +10592,21 @@
       <c r="CH51" s="76"/>
       <c r="CI51" s="76"/>
       <c r="CJ51" s="62"/>
-      <c r="CK51" s="56"/>
-      <c r="CL51" s="76"/>
+      <c r="CK51" s="62"/>
+      <c r="CL51" s="56"/>
       <c r="CM51" s="76"/>
       <c r="CN51" s="76"/>
       <c r="CO51" s="76"/>
       <c r="CP51" s="76"/>
       <c r="CQ51" s="76"/>
-      <c r="CR51" s="56"/>
-      <c r="CS51" s="128"/>
-      <c r="CT51" s="5"/>
+      <c r="CR51" s="76"/>
+      <c r="CS51" s="56"/>
+      <c r="CT51" s="128"/>
       <c r="CU51" s="5"/>
       <c r="CV51" s="5"/>
-    </row>
-    <row r="52" spans="1:100">
+      <c r="CW51" s="5"/>
+    </row>
+    <row r="52" spans="1:101">
       <c r="A52" s="4"/>
       <c r="B52" s="27">
         <v>2017</v>
@@ -10658,20 +10700,21 @@
       <c r="CH52" s="76"/>
       <c r="CI52" s="76"/>
       <c r="CJ52" s="62"/>
-      <c r="CK52" s="56"/>
-      <c r="CL52" s="76"/>
+      <c r="CK52" s="62"/>
+      <c r="CL52" s="56"/>
       <c r="CM52" s="76"/>
       <c r="CN52" s="76"/>
       <c r="CO52" s="76"/>
       <c r="CP52" s="76"/>
       <c r="CQ52" s="76"/>
-      <c r="CR52" s="56"/>
-      <c r="CS52" s="128"/>
-      <c r="CT52" s="5"/>
+      <c r="CR52" s="76"/>
+      <c r="CS52" s="56"/>
+      <c r="CT52" s="128"/>
       <c r="CU52" s="5"/>
       <c r="CV52" s="5"/>
-    </row>
-    <row r="53" spans="1:100">
+      <c r="CW52" s="5"/>
+    </row>
+    <row r="53" spans="1:101">
       <c r="A53" s="4"/>
       <c r="B53" s="27">
         <v>2016</v>
@@ -10765,20 +10808,21 @@
       <c r="CH53" s="76"/>
       <c r="CI53" s="76"/>
       <c r="CJ53" s="62"/>
-      <c r="CK53" s="56"/>
-      <c r="CL53" s="76"/>
+      <c r="CK53" s="62"/>
+      <c r="CL53" s="56"/>
       <c r="CM53" s="76"/>
       <c r="CN53" s="76"/>
       <c r="CO53" s="76"/>
       <c r="CP53" s="76"/>
       <c r="CQ53" s="76"/>
-      <c r="CR53" s="56"/>
-      <c r="CS53" s="128"/>
-      <c r="CT53" s="5"/>
+      <c r="CR53" s="76"/>
+      <c r="CS53" s="56"/>
+      <c r="CT53" s="128"/>
       <c r="CU53" s="5"/>
       <c r="CV53" s="5"/>
-    </row>
-    <row r="54" spans="1:100">
+      <c r="CW53" s="5"/>
+    </row>
+    <row r="54" spans="1:101">
       <c r="A54" s="4"/>
       <c r="B54" s="27">
         <v>2015</v>
@@ -10872,20 +10916,21 @@
       <c r="CH54" s="76"/>
       <c r="CI54" s="76"/>
       <c r="CJ54" s="62"/>
-      <c r="CK54" s="56"/>
-      <c r="CL54" s="76"/>
+      <c r="CK54" s="62"/>
+      <c r="CL54" s="56"/>
       <c r="CM54" s="76"/>
       <c r="CN54" s="76"/>
       <c r="CO54" s="76"/>
       <c r="CP54" s="76"/>
       <c r="CQ54" s="76"/>
-      <c r="CR54" s="56"/>
-      <c r="CS54" s="128"/>
-      <c r="CT54" s="5"/>
+      <c r="CR54" s="76"/>
+      <c r="CS54" s="56"/>
+      <c r="CT54" s="128"/>
       <c r="CU54" s="5"/>
       <c r="CV54" s="5"/>
-    </row>
-    <row r="55" spans="1:100">
+      <c r="CW54" s="5"/>
+    </row>
+    <row r="55" spans="1:101">
       <c r="A55" s="4"/>
       <c r="B55" s="27">
         <v>2014</v>
@@ -10979,20 +11024,21 @@
       <c r="CH55" s="76"/>
       <c r="CI55" s="76"/>
       <c r="CJ55" s="62"/>
-      <c r="CK55" s="56"/>
-      <c r="CL55" s="76"/>
+      <c r="CK55" s="62"/>
+      <c r="CL55" s="56"/>
       <c r="CM55" s="76"/>
       <c r="CN55" s="76"/>
       <c r="CO55" s="76"/>
       <c r="CP55" s="76"/>
       <c r="CQ55" s="76"/>
-      <c r="CR55" s="56"/>
-      <c r="CS55" s="128"/>
-      <c r="CT55" s="5"/>
+      <c r="CR55" s="76"/>
+      <c r="CS55" s="56"/>
+      <c r="CT55" s="128"/>
       <c r="CU55" s="5"/>
       <c r="CV55" s="5"/>
-    </row>
-    <row r="56" spans="1:100">
+      <c r="CW55" s="5"/>
+    </row>
+    <row r="56" spans="1:101">
       <c r="A56" s="4"/>
       <c r="B56" s="27">
         <v>2013</v>
@@ -11086,20 +11132,21 @@
       <c r="CH56" s="76"/>
       <c r="CI56" s="76"/>
       <c r="CJ56" s="62"/>
-      <c r="CK56" s="56"/>
-      <c r="CL56" s="76"/>
+      <c r="CK56" s="62"/>
+      <c r="CL56" s="56"/>
       <c r="CM56" s="76"/>
       <c r="CN56" s="76"/>
       <c r="CO56" s="76"/>
       <c r="CP56" s="76"/>
       <c r="CQ56" s="76"/>
-      <c r="CR56" s="56"/>
-      <c r="CS56" s="128"/>
-      <c r="CT56" s="5"/>
+      <c r="CR56" s="76"/>
+      <c r="CS56" s="56"/>
+      <c r="CT56" s="128"/>
       <c r="CU56" s="5"/>
       <c r="CV56" s="5"/>
-    </row>
-    <row r="57" spans="1:100">
+      <c r="CW56" s="5"/>
+    </row>
+    <row r="57" spans="1:101">
       <c r="A57" s="4" t="s">
         <v>98</v>
       </c>
@@ -11195,20 +11242,21 @@
       <c r="CH57" s="76"/>
       <c r="CI57" s="76"/>
       <c r="CJ57" s="62"/>
-      <c r="CK57" s="56"/>
-      <c r="CL57" s="76"/>
+      <c r="CK57" s="62"/>
+      <c r="CL57" s="56"/>
       <c r="CM57" s="76"/>
       <c r="CN57" s="76"/>
       <c r="CO57" s="76"/>
       <c r="CP57" s="76"/>
       <c r="CQ57" s="76"/>
-      <c r="CR57" s="56"/>
-      <c r="CS57" s="128"/>
-      <c r="CT57" s="5"/>
+      <c r="CR57" s="76"/>
+      <c r="CS57" s="56"/>
+      <c r="CT57" s="128"/>
       <c r="CU57" s="5"/>
       <c r="CV57" s="5"/>
-    </row>
-    <row r="58" spans="1:100">
+      <c r="CW57" s="5"/>
+    </row>
+    <row r="58" spans="1:101">
       <c r="A58" s="4"/>
       <c r="B58" s="27">
         <v>2021</v>
@@ -11302,20 +11350,21 @@
       <c r="CH58" s="76"/>
       <c r="CI58" s="76"/>
       <c r="CJ58" s="62"/>
-      <c r="CK58" s="56"/>
-      <c r="CL58" s="76"/>
+      <c r="CK58" s="62"/>
+      <c r="CL58" s="56"/>
       <c r="CM58" s="76"/>
       <c r="CN58" s="76"/>
       <c r="CO58" s="76"/>
       <c r="CP58" s="76"/>
       <c r="CQ58" s="76"/>
-      <c r="CR58" s="56"/>
-      <c r="CS58" s="128"/>
-      <c r="CT58" s="5"/>
+      <c r="CR58" s="76"/>
+      <c r="CS58" s="56"/>
+      <c r="CT58" s="128"/>
       <c r="CU58" s="5"/>
       <c r="CV58" s="5"/>
-    </row>
-    <row r="59" spans="1:100">
+      <c r="CW58" s="5"/>
+    </row>
+    <row r="59" spans="1:101">
       <c r="A59" s="4"/>
       <c r="B59" s="27">
         <v>2020</v>
@@ -11409,20 +11458,21 @@
       <c r="CH59" s="76"/>
       <c r="CI59" s="76"/>
       <c r="CJ59" s="62"/>
-      <c r="CK59" s="56"/>
-      <c r="CL59" s="76"/>
+      <c r="CK59" s="62"/>
+      <c r="CL59" s="56"/>
       <c r="CM59" s="76"/>
       <c r="CN59" s="76"/>
       <c r="CO59" s="76"/>
       <c r="CP59" s="76"/>
       <c r="CQ59" s="76"/>
-      <c r="CR59" s="56"/>
-      <c r="CS59" s="128"/>
-      <c r="CT59" s="5"/>
+      <c r="CR59" s="76"/>
+      <c r="CS59" s="56"/>
+      <c r="CT59" s="128"/>
       <c r="CU59" s="5"/>
       <c r="CV59" s="5"/>
-    </row>
-    <row r="60" spans="1:100">
+      <c r="CW59" s="5"/>
+    </row>
+    <row r="60" spans="1:101">
       <c r="A60" s="4"/>
       <c r="B60" s="27">
         <v>2019</v>
@@ -11516,20 +11566,21 @@
       <c r="CH60" s="76"/>
       <c r="CI60" s="76"/>
       <c r="CJ60" s="62"/>
-      <c r="CK60" s="56"/>
-      <c r="CL60" s="76"/>
+      <c r="CK60" s="62"/>
+      <c r="CL60" s="56"/>
       <c r="CM60" s="76"/>
       <c r="CN60" s="76"/>
       <c r="CO60" s="76"/>
       <c r="CP60" s="76"/>
       <c r="CQ60" s="76"/>
-      <c r="CR60" s="56"/>
-      <c r="CS60" s="128"/>
-      <c r="CT60" s="5"/>
+      <c r="CR60" s="76"/>
+      <c r="CS60" s="56"/>
+      <c r="CT60" s="128"/>
       <c r="CU60" s="5"/>
       <c r="CV60" s="5"/>
-    </row>
-    <row r="61" spans="1:100">
+      <c r="CW60" s="5"/>
+    </row>
+    <row r="61" spans="1:101">
       <c r="A61" s="4"/>
       <c r="B61" s="27">
         <v>2018</v>
@@ -11623,20 +11674,21 @@
       <c r="CH61" s="76"/>
       <c r="CI61" s="76"/>
       <c r="CJ61" s="62"/>
-      <c r="CK61" s="56"/>
-      <c r="CL61" s="76"/>
+      <c r="CK61" s="62"/>
+      <c r="CL61" s="56"/>
       <c r="CM61" s="76"/>
       <c r="CN61" s="76"/>
       <c r="CO61" s="76"/>
       <c r="CP61" s="76"/>
       <c r="CQ61" s="76"/>
-      <c r="CR61" s="56"/>
-      <c r="CS61" s="128"/>
-      <c r="CT61" s="5"/>
+      <c r="CR61" s="76"/>
+      <c r="CS61" s="56"/>
+      <c r="CT61" s="128"/>
       <c r="CU61" s="5"/>
       <c r="CV61" s="5"/>
-    </row>
-    <row r="62" spans="1:100">
+      <c r="CW61" s="5"/>
+    </row>
+    <row r="62" spans="1:101">
       <c r="A62" s="4"/>
       <c r="B62" s="27">
         <v>2017</v>
@@ -11730,20 +11782,21 @@
       <c r="CH62" s="76"/>
       <c r="CI62" s="76"/>
       <c r="CJ62" s="62"/>
-      <c r="CK62" s="56"/>
-      <c r="CL62" s="76"/>
+      <c r="CK62" s="62"/>
+      <c r="CL62" s="56"/>
       <c r="CM62" s="76"/>
       <c r="CN62" s="76"/>
       <c r="CO62" s="76"/>
       <c r="CP62" s="76"/>
       <c r="CQ62" s="76"/>
-      <c r="CR62" s="56"/>
-      <c r="CS62" s="128"/>
-      <c r="CT62" s="5"/>
+      <c r="CR62" s="76"/>
+      <c r="CS62" s="56"/>
+      <c r="CT62" s="128"/>
       <c r="CU62" s="5"/>
       <c r="CV62" s="5"/>
-    </row>
-    <row r="63" spans="1:100">
+      <c r="CW62" s="5"/>
+    </row>
+    <row r="63" spans="1:101">
       <c r="A63" s="4"/>
       <c r="B63" s="27">
         <v>2016</v>
@@ -11837,20 +11890,21 @@
       <c r="CH63" s="76"/>
       <c r="CI63" s="76"/>
       <c r="CJ63" s="62"/>
-      <c r="CK63" s="56"/>
-      <c r="CL63" s="76"/>
+      <c r="CK63" s="62"/>
+      <c r="CL63" s="56"/>
       <c r="CM63" s="76"/>
       <c r="CN63" s="76"/>
       <c r="CO63" s="76"/>
       <c r="CP63" s="76"/>
       <c r="CQ63" s="76"/>
-      <c r="CR63" s="56"/>
-      <c r="CS63" s="128"/>
-      <c r="CT63" s="5"/>
+      <c r="CR63" s="76"/>
+      <c r="CS63" s="56"/>
+      <c r="CT63" s="128"/>
       <c r="CU63" s="5"/>
       <c r="CV63" s="5"/>
-    </row>
-    <row r="64" spans="1:100">
+      <c r="CW63" s="5"/>
+    </row>
+    <row r="64" spans="1:101">
       <c r="A64" s="4"/>
       <c r="B64" s="27">
         <v>2015</v>
@@ -11944,20 +11998,21 @@
       <c r="CH64" s="76"/>
       <c r="CI64" s="76"/>
       <c r="CJ64" s="62"/>
-      <c r="CK64" s="56"/>
-      <c r="CL64" s="76"/>
+      <c r="CK64" s="62"/>
+      <c r="CL64" s="56"/>
       <c r="CM64" s="76"/>
       <c r="CN64" s="76"/>
       <c r="CO64" s="76"/>
       <c r="CP64" s="76"/>
       <c r="CQ64" s="76"/>
-      <c r="CR64" s="56"/>
-      <c r="CS64" s="128"/>
-      <c r="CT64" s="5"/>
+      <c r="CR64" s="76"/>
+      <c r="CS64" s="56"/>
+      <c r="CT64" s="128"/>
       <c r="CU64" s="5"/>
       <c r="CV64" s="5"/>
-    </row>
-    <row r="65" spans="1:100">
+      <c r="CW64" s="5"/>
+    </row>
+    <row r="65" spans="1:101">
       <c r="A65" s="4"/>
       <c r="B65" s="27">
         <v>2014</v>
@@ -12051,20 +12106,21 @@
       <c r="CH65" s="76"/>
       <c r="CI65" s="76"/>
       <c r="CJ65" s="62"/>
-      <c r="CK65" s="56"/>
-      <c r="CL65" s="76"/>
+      <c r="CK65" s="62"/>
+      <c r="CL65" s="56"/>
       <c r="CM65" s="76"/>
       <c r="CN65" s="76"/>
       <c r="CO65" s="76"/>
       <c r="CP65" s="76"/>
       <c r="CQ65" s="76"/>
-      <c r="CR65" s="56"/>
-      <c r="CS65" s="128"/>
-      <c r="CT65" s="5"/>
+      <c r="CR65" s="76"/>
+      <c r="CS65" s="56"/>
+      <c r="CT65" s="128"/>
       <c r="CU65" s="5"/>
       <c r="CV65" s="5"/>
-    </row>
-    <row r="66" spans="1:100">
+      <c r="CW65" s="5"/>
+    </row>
+    <row r="66" spans="1:101">
       <c r="A66" s="4"/>
       <c r="B66" s="27">
         <v>2013</v>
@@ -12158,20 +12214,21 @@
       <c r="CH66" s="76"/>
       <c r="CI66" s="76"/>
       <c r="CJ66" s="62"/>
-      <c r="CK66" s="56"/>
-      <c r="CL66" s="76"/>
+      <c r="CK66" s="62"/>
+      <c r="CL66" s="56"/>
       <c r="CM66" s="76"/>
       <c r="CN66" s="76"/>
       <c r="CO66" s="76"/>
       <c r="CP66" s="76"/>
       <c r="CQ66" s="76"/>
-      <c r="CR66" s="56"/>
-      <c r="CS66" s="128"/>
-      <c r="CT66" s="5"/>
+      <c r="CR66" s="76"/>
+      <c r="CS66" s="56"/>
+      <c r="CT66" s="128"/>
       <c r="CU66" s="5"/>
       <c r="CV66" s="5"/>
-    </row>
-    <row r="67" spans="1:100">
+      <c r="CW66" s="5"/>
+    </row>
+    <row r="67" spans="1:101">
       <c r="A67" s="4" t="s">
         <v>99</v>
       </c>
@@ -12267,20 +12324,21 @@
       <c r="CH67" s="76"/>
       <c r="CI67" s="76"/>
       <c r="CJ67" s="62"/>
-      <c r="CK67" s="56"/>
-      <c r="CL67" s="76"/>
+      <c r="CK67" s="62"/>
+      <c r="CL67" s="56"/>
       <c r="CM67" s="76"/>
       <c r="CN67" s="76"/>
       <c r="CO67" s="76"/>
       <c r="CP67" s="76"/>
       <c r="CQ67" s="76"/>
-      <c r="CR67" s="56"/>
-      <c r="CS67" s="128"/>
-      <c r="CT67" s="5"/>
+      <c r="CR67" s="76"/>
+      <c r="CS67" s="56"/>
+      <c r="CT67" s="128"/>
       <c r="CU67" s="5"/>
       <c r="CV67" s="5"/>
-    </row>
-    <row r="68" spans="1:100">
+      <c r="CW67" s="5"/>
+    </row>
+    <row r="68" spans="1:101">
       <c r="A68" s="4"/>
       <c r="B68" s="27">
         <v>2021</v>
@@ -12374,20 +12432,21 @@
       <c r="CH68" s="76"/>
       <c r="CI68" s="76"/>
       <c r="CJ68" s="62"/>
-      <c r="CK68" s="56"/>
-      <c r="CL68" s="76"/>
+      <c r="CK68" s="62"/>
+      <c r="CL68" s="56"/>
       <c r="CM68" s="76"/>
       <c r="CN68" s="76"/>
       <c r="CO68" s="76"/>
       <c r="CP68" s="76"/>
       <c r="CQ68" s="76"/>
-      <c r="CR68" s="56"/>
-      <c r="CS68" s="128"/>
-      <c r="CT68" s="5"/>
+      <c r="CR68" s="76"/>
+      <c r="CS68" s="56"/>
+      <c r="CT68" s="128"/>
       <c r="CU68" s="5"/>
       <c r="CV68" s="5"/>
-    </row>
-    <row r="69" spans="1:100">
+      <c r="CW68" s="5"/>
+    </row>
+    <row r="69" spans="1:101">
       <c r="A69" s="4"/>
       <c r="B69" s="27">
         <v>2020</v>
@@ -12481,20 +12540,21 @@
       <c r="CH69" s="76"/>
       <c r="CI69" s="76"/>
       <c r="CJ69" s="62"/>
-      <c r="CK69" s="56"/>
-      <c r="CL69" s="76"/>
+      <c r="CK69" s="62"/>
+      <c r="CL69" s="56"/>
       <c r="CM69" s="76"/>
       <c r="CN69" s="76"/>
       <c r="CO69" s="76"/>
       <c r="CP69" s="76"/>
       <c r="CQ69" s="76"/>
-      <c r="CR69" s="56"/>
-      <c r="CS69" s="128"/>
-      <c r="CT69" s="5"/>
+      <c r="CR69" s="76"/>
+      <c r="CS69" s="56"/>
+      <c r="CT69" s="128"/>
       <c r="CU69" s="5"/>
       <c r="CV69" s="5"/>
-    </row>
-    <row r="70" spans="1:100">
+      <c r="CW69" s="5"/>
+    </row>
+    <row r="70" spans="1:101">
       <c r="A70" s="4"/>
       <c r="B70" s="27">
         <v>2019</v>
@@ -12588,20 +12648,21 @@
       <c r="CH70" s="76"/>
       <c r="CI70" s="76"/>
       <c r="CJ70" s="62"/>
-      <c r="CK70" s="56"/>
-      <c r="CL70" s="76"/>
+      <c r="CK70" s="62"/>
+      <c r="CL70" s="56"/>
       <c r="CM70" s="76"/>
       <c r="CN70" s="76"/>
       <c r="CO70" s="76"/>
       <c r="CP70" s="76"/>
       <c r="CQ70" s="76"/>
-      <c r="CR70" s="56"/>
-      <c r="CS70" s="128"/>
-      <c r="CT70" s="5"/>
+      <c r="CR70" s="76"/>
+      <c r="CS70" s="56"/>
+      <c r="CT70" s="128"/>
       <c r="CU70" s="5"/>
       <c r="CV70" s="5"/>
-    </row>
-    <row r="71" spans="1:100">
+      <c r="CW70" s="5"/>
+    </row>
+    <row r="71" spans="1:101">
       <c r="A71" s="4"/>
       <c r="B71" s="27">
         <v>2018</v>
@@ -12695,20 +12756,21 @@
       <c r="CH71" s="76"/>
       <c r="CI71" s="76"/>
       <c r="CJ71" s="62"/>
-      <c r="CK71" s="56"/>
-      <c r="CL71" s="76"/>
+      <c r="CK71" s="62"/>
+      <c r="CL71" s="56"/>
       <c r="CM71" s="76"/>
       <c r="CN71" s="76"/>
       <c r="CO71" s="76"/>
       <c r="CP71" s="76"/>
       <c r="CQ71" s="76"/>
-      <c r="CR71" s="56"/>
-      <c r="CS71" s="128"/>
-      <c r="CT71" s="5"/>
+      <c r="CR71" s="76"/>
+      <c r="CS71" s="56"/>
+      <c r="CT71" s="128"/>
       <c r="CU71" s="5"/>
       <c r="CV71" s="5"/>
-    </row>
-    <row r="72" spans="1:100">
+      <c r="CW71" s="5"/>
+    </row>
+    <row r="72" spans="1:101">
       <c r="A72" s="4"/>
       <c r="B72" s="27">
         <v>2017</v>
@@ -12802,20 +12864,21 @@
       <c r="CH72" s="76"/>
       <c r="CI72" s="76"/>
       <c r="CJ72" s="62"/>
-      <c r="CK72" s="56"/>
-      <c r="CL72" s="76"/>
+      <c r="CK72" s="62"/>
+      <c r="CL72" s="56"/>
       <c r="CM72" s="76"/>
       <c r="CN72" s="76"/>
       <c r="CO72" s="76"/>
       <c r="CP72" s="76"/>
       <c r="CQ72" s="76"/>
-      <c r="CR72" s="56"/>
-      <c r="CS72" s="128"/>
-      <c r="CT72" s="5"/>
+      <c r="CR72" s="76"/>
+      <c r="CS72" s="56"/>
+      <c r="CT72" s="128"/>
       <c r="CU72" s="5"/>
       <c r="CV72" s="5"/>
-    </row>
-    <row r="73" spans="1:100">
+      <c r="CW72" s="5"/>
+    </row>
+    <row r="73" spans="1:101">
       <c r="A73" s="4"/>
       <c r="B73" s="27">
         <v>2016</v>
@@ -12909,20 +12972,21 @@
       <c r="CH73" s="76"/>
       <c r="CI73" s="76"/>
       <c r="CJ73" s="62"/>
-      <c r="CK73" s="56"/>
-      <c r="CL73" s="76"/>
+      <c r="CK73" s="62"/>
+      <c r="CL73" s="56"/>
       <c r="CM73" s="76"/>
       <c r="CN73" s="76"/>
       <c r="CO73" s="76"/>
       <c r="CP73" s="76"/>
       <c r="CQ73" s="76"/>
-      <c r="CR73" s="56"/>
-      <c r="CS73" s="128"/>
-      <c r="CT73" s="5"/>
+      <c r="CR73" s="76"/>
+      <c r="CS73" s="56"/>
+      <c r="CT73" s="128"/>
       <c r="CU73" s="5"/>
       <c r="CV73" s="5"/>
-    </row>
-    <row r="74" spans="1:100">
+      <c r="CW73" s="5"/>
+    </row>
+    <row r="74" spans="1:101">
       <c r="A74" s="4"/>
       <c r="B74" s="27">
         <v>2015</v>
@@ -13016,20 +13080,21 @@
       <c r="CH74" s="76"/>
       <c r="CI74" s="76"/>
       <c r="CJ74" s="62"/>
-      <c r="CK74" s="56"/>
-      <c r="CL74" s="76"/>
+      <c r="CK74" s="62"/>
+      <c r="CL74" s="56"/>
       <c r="CM74" s="76"/>
       <c r="CN74" s="76"/>
       <c r="CO74" s="76"/>
       <c r="CP74" s="76"/>
       <c r="CQ74" s="76"/>
-      <c r="CR74" s="56"/>
-      <c r="CS74" s="128"/>
-      <c r="CT74" s="5"/>
+      <c r="CR74" s="76"/>
+      <c r="CS74" s="56"/>
+      <c r="CT74" s="128"/>
       <c r="CU74" s="5"/>
       <c r="CV74" s="5"/>
-    </row>
-    <row r="75" spans="1:100">
+      <c r="CW74" s="5"/>
+    </row>
+    <row r="75" spans="1:101">
       <c r="A75" s="4"/>
       <c r="B75" s="27">
         <v>2014</v>
@@ -13123,20 +13188,21 @@
       <c r="CH75" s="76"/>
       <c r="CI75" s="76"/>
       <c r="CJ75" s="62"/>
-      <c r="CK75" s="56"/>
-      <c r="CL75" s="76"/>
+      <c r="CK75" s="62"/>
+      <c r="CL75" s="56"/>
       <c r="CM75" s="76"/>
       <c r="CN75" s="76"/>
       <c r="CO75" s="76"/>
       <c r="CP75" s="76"/>
       <c r="CQ75" s="76"/>
-      <c r="CR75" s="56"/>
-      <c r="CS75" s="128"/>
-      <c r="CT75" s="5"/>
+      <c r="CR75" s="76"/>
+      <c r="CS75" s="56"/>
+      <c r="CT75" s="128"/>
       <c r="CU75" s="5"/>
       <c r="CV75" s="5"/>
-    </row>
-    <row r="76" spans="1:100">
+      <c r="CW75" s="5"/>
+    </row>
+    <row r="76" spans="1:101">
       <c r="A76" s="4"/>
       <c r="B76" s="27">
         <v>2013</v>
@@ -13230,21 +13296,22 @@
       <c r="CH76" s="76"/>
       <c r="CI76" s="76"/>
       <c r="CJ76" s="62"/>
-      <c r="CK76" s="56"/>
-      <c r="CL76" s="76"/>
+      <c r="CK76" s="62"/>
+      <c r="CL76" s="56"/>
       <c r="CM76" s="76"/>
       <c r="CN76" s="76"/>
       <c r="CO76" s="76"/>
       <c r="CP76" s="76"/>
       <c r="CQ76" s="76"/>
-      <c r="CR76" s="56"/>
-      <c r="CS76" s="128"/>
-      <c r="CT76" s="5"/>
+      <c r="CR76" s="76"/>
+      <c r="CS76" s="56"/>
+      <c r="CT76" s="128"/>
       <c r="CU76" s="5"/>
       <c r="CV76" s="5"/>
-    </row>
-    <row r="77" spans="1:100">
-      <c r="A77" s="168" t="s">
+      <c r="CW76" s="5"/>
+    </row>
+    <row r="77" spans="1:101">
+      <c r="A77" s="41" t="s">
         <v>100</v>
       </c>
       <c r="B77" s="27">
@@ -13339,21 +13406,22 @@
       <c r="CH77" s="76"/>
       <c r="CI77" s="76"/>
       <c r="CJ77" s="62"/>
-      <c r="CK77" s="56"/>
-      <c r="CL77" s="76"/>
+      <c r="CK77" s="62"/>
+      <c r="CL77" s="56"/>
       <c r="CM77" s="76"/>
       <c r="CN77" s="76"/>
       <c r="CO77" s="76"/>
       <c r="CP77" s="76"/>
       <c r="CQ77" s="76"/>
-      <c r="CR77" s="56"/>
-      <c r="CS77" s="128"/>
-      <c r="CT77" s="5"/>
+      <c r="CR77" s="76"/>
+      <c r="CS77" s="56"/>
+      <c r="CT77" s="128"/>
       <c r="CU77" s="5"/>
       <c r="CV77" s="5"/>
-    </row>
-    <row r="78" spans="1:100">
-      <c r="A78" s="169"/>
+      <c r="CW77" s="5"/>
+    </row>
+    <row r="78" spans="1:101">
+      <c r="A78" s="42"/>
       <c r="B78" s="27">
         <v>2021</v>
       </c>
@@ -13446,21 +13514,22 @@
       <c r="CH78" s="76"/>
       <c r="CI78" s="76"/>
       <c r="CJ78" s="62"/>
-      <c r="CK78" s="56"/>
-      <c r="CL78" s="76"/>
+      <c r="CK78" s="62"/>
+      <c r="CL78" s="56"/>
       <c r="CM78" s="76"/>
       <c r="CN78" s="76"/>
       <c r="CO78" s="76"/>
       <c r="CP78" s="76"/>
       <c r="CQ78" s="76"/>
-      <c r="CR78" s="56"/>
-      <c r="CS78" s="128"/>
-      <c r="CT78" s="5"/>
+      <c r="CR78" s="76"/>
+      <c r="CS78" s="56"/>
+      <c r="CT78" s="128"/>
       <c r="CU78" s="5"/>
       <c r="CV78" s="5"/>
-    </row>
-    <row r="79" spans="1:100">
-      <c r="A79" s="169"/>
+      <c r="CW78" s="5"/>
+    </row>
+    <row r="79" spans="1:101">
+      <c r="A79" s="42"/>
       <c r="B79" s="27">
         <v>2020</v>
       </c>
@@ -13553,21 +13622,22 @@
       <c r="CH79" s="76"/>
       <c r="CI79" s="76"/>
       <c r="CJ79" s="62"/>
-      <c r="CK79" s="56"/>
-      <c r="CL79" s="76"/>
+      <c r="CK79" s="62"/>
+      <c r="CL79" s="56"/>
       <c r="CM79" s="76"/>
       <c r="CN79" s="76"/>
       <c r="CO79" s="76"/>
       <c r="CP79" s="76"/>
       <c r="CQ79" s="76"/>
-      <c r="CR79" s="56"/>
-      <c r="CS79" s="128"/>
-      <c r="CT79" s="5"/>
+      <c r="CR79" s="76"/>
+      <c r="CS79" s="56"/>
+      <c r="CT79" s="128"/>
       <c r="CU79" s="5"/>
       <c r="CV79" s="5"/>
-    </row>
-    <row r="80" spans="1:100">
-      <c r="A80" s="169"/>
+      <c r="CW79" s="5"/>
+    </row>
+    <row r="80" spans="1:101">
+      <c r="A80" s="42"/>
       <c r="B80" s="27">
         <v>2019</v>
       </c>
@@ -13660,21 +13730,22 @@
       <c r="CH80" s="76"/>
       <c r="CI80" s="76"/>
       <c r="CJ80" s="62"/>
-      <c r="CK80" s="56"/>
-      <c r="CL80" s="76"/>
+      <c r="CK80" s="62"/>
+      <c r="CL80" s="56"/>
       <c r="CM80" s="76"/>
       <c r="CN80" s="76"/>
       <c r="CO80" s="76"/>
       <c r="CP80" s="76"/>
       <c r="CQ80" s="76"/>
-      <c r="CR80" s="56"/>
-      <c r="CS80" s="128"/>
-      <c r="CT80" s="5"/>
+      <c r="CR80" s="76"/>
+      <c r="CS80" s="56"/>
+      <c r="CT80" s="128"/>
       <c r="CU80" s="5"/>
       <c r="CV80" s="5"/>
-    </row>
-    <row r="81" spans="1:100">
-      <c r="A81" s="169"/>
+      <c r="CW80" s="5"/>
+    </row>
+    <row r="81" spans="1:101">
+      <c r="A81" s="42"/>
       <c r="B81" s="27">
         <v>2018</v>
       </c>
@@ -13767,21 +13838,22 @@
       <c r="CH81" s="76"/>
       <c r="CI81" s="76"/>
       <c r="CJ81" s="62"/>
-      <c r="CK81" s="56"/>
-      <c r="CL81" s="76"/>
+      <c r="CK81" s="62"/>
+      <c r="CL81" s="56"/>
       <c r="CM81" s="76"/>
       <c r="CN81" s="76"/>
       <c r="CO81" s="76"/>
       <c r="CP81" s="76"/>
       <c r="CQ81" s="76"/>
-      <c r="CR81" s="56"/>
-      <c r="CS81" s="128"/>
-      <c r="CT81" s="5"/>
+      <c r="CR81" s="76"/>
+      <c r="CS81" s="56"/>
+      <c r="CT81" s="128"/>
       <c r="CU81" s="5"/>
       <c r="CV81" s="5"/>
-    </row>
-    <row r="82" spans="1:100">
-      <c r="A82" s="169"/>
+      <c r="CW81" s="5"/>
+    </row>
+    <row r="82" spans="1:101">
+      <c r="A82" s="42"/>
       <c r="B82" s="27">
         <v>2017</v>
       </c>
@@ -13874,21 +13946,22 @@
       <c r="CH82" s="76"/>
       <c r="CI82" s="76"/>
       <c r="CJ82" s="62"/>
-      <c r="CK82" s="56"/>
-      <c r="CL82" s="76"/>
+      <c r="CK82" s="62"/>
+      <c r="CL82" s="56"/>
       <c r="CM82" s="76"/>
       <c r="CN82" s="76"/>
       <c r="CO82" s="76"/>
       <c r="CP82" s="76"/>
       <c r="CQ82" s="76"/>
-      <c r="CR82" s="56"/>
-      <c r="CS82" s="128"/>
-      <c r="CT82" s="5"/>
+      <c r="CR82" s="76"/>
+      <c r="CS82" s="56"/>
+      <c r="CT82" s="128"/>
       <c r="CU82" s="5"/>
       <c r="CV82" s="5"/>
-    </row>
-    <row r="83" spans="1:100">
-      <c r="A83" s="169"/>
+      <c r="CW82" s="5"/>
+    </row>
+    <row r="83" spans="1:101">
+      <c r="A83" s="42"/>
       <c r="B83" s="27">
         <v>2016</v>
       </c>
@@ -13981,21 +14054,22 @@
       <c r="CH83" s="76"/>
       <c r="CI83" s="76"/>
       <c r="CJ83" s="62"/>
-      <c r="CK83" s="56"/>
-      <c r="CL83" s="76"/>
+      <c r="CK83" s="62"/>
+      <c r="CL83" s="56"/>
       <c r="CM83" s="76"/>
       <c r="CN83" s="76"/>
       <c r="CO83" s="76"/>
       <c r="CP83" s="76"/>
       <c r="CQ83" s="76"/>
-      <c r="CR83" s="56"/>
-      <c r="CS83" s="128"/>
-      <c r="CT83" s="5"/>
+      <c r="CR83" s="76"/>
+      <c r="CS83" s="56"/>
+      <c r="CT83" s="128"/>
       <c r="CU83" s="5"/>
       <c r="CV83" s="5"/>
-    </row>
-    <row r="84" spans="1:100">
-      <c r="A84" s="169"/>
+      <c r="CW83" s="5"/>
+    </row>
+    <row r="84" spans="1:101">
+      <c r="A84" s="42"/>
       <c r="B84" s="27">
         <v>2015</v>
       </c>
@@ -14088,21 +14162,22 @@
       <c r="CH84" s="76"/>
       <c r="CI84" s="76"/>
       <c r="CJ84" s="62"/>
-      <c r="CK84" s="56"/>
-      <c r="CL84" s="76"/>
+      <c r="CK84" s="62"/>
+      <c r="CL84" s="56"/>
       <c r="CM84" s="76"/>
       <c r="CN84" s="76"/>
       <c r="CO84" s="76"/>
       <c r="CP84" s="76"/>
       <c r="CQ84" s="76"/>
-      <c r="CR84" s="56"/>
-      <c r="CS84" s="128"/>
-      <c r="CT84" s="5"/>
+      <c r="CR84" s="76"/>
+      <c r="CS84" s="56"/>
+      <c r="CT84" s="128"/>
       <c r="CU84" s="5"/>
       <c r="CV84" s="5"/>
-    </row>
-    <row r="85" spans="1:100">
-      <c r="A85" s="169"/>
+      <c r="CW84" s="5"/>
+    </row>
+    <row r="85" spans="1:101">
+      <c r="A85" s="42"/>
       <c r="B85" s="27">
         <v>2014</v>
       </c>
@@ -14195,21 +14270,22 @@
       <c r="CH85" s="76"/>
       <c r="CI85" s="76"/>
       <c r="CJ85" s="62"/>
-      <c r="CK85" s="56"/>
-      <c r="CL85" s="76"/>
+      <c r="CK85" s="62"/>
+      <c r="CL85" s="56"/>
       <c r="CM85" s="76"/>
       <c r="CN85" s="76"/>
       <c r="CO85" s="76"/>
       <c r="CP85" s="76"/>
       <c r="CQ85" s="76"/>
-      <c r="CR85" s="56"/>
-      <c r="CS85" s="128"/>
-      <c r="CT85" s="5"/>
+      <c r="CR85" s="76"/>
+      <c r="CS85" s="56"/>
+      <c r="CT85" s="128"/>
       <c r="CU85" s="5"/>
       <c r="CV85" s="5"/>
-    </row>
-    <row r="86" spans="1:100">
-      <c r="A86" s="169"/>
+      <c r="CW85" s="5"/>
+    </row>
+    <row r="86" spans="1:101">
+      <c r="A86" s="42"/>
       <c r="B86" s="27">
         <v>2013</v>
       </c>
@@ -14302,21 +14378,22 @@
       <c r="CH86" s="76"/>
       <c r="CI86" s="76"/>
       <c r="CJ86" s="62"/>
-      <c r="CK86" s="56"/>
-      <c r="CL86" s="76"/>
+      <c r="CK86" s="62"/>
+      <c r="CL86" s="56"/>
       <c r="CM86" s="76"/>
       <c r="CN86" s="76"/>
       <c r="CO86" s="76"/>
       <c r="CP86" s="76"/>
       <c r="CQ86" s="76"/>
-      <c r="CR86" s="56"/>
-      <c r="CS86" s="128"/>
-      <c r="CT86" s="5"/>
+      <c r="CR86" s="76"/>
+      <c r="CS86" s="56"/>
+      <c r="CT86" s="128"/>
       <c r="CU86" s="5"/>
       <c r="CV86" s="5"/>
-    </row>
-    <row r="87" spans="1:100">
-      <c r="A87" s="170"/>
+      <c r="CW86" s="5"/>
+    </row>
+    <row r="87" spans="1:101">
+      <c r="A87" s="44"/>
       <c r="B87" s="27">
         <v>2012</v>
       </c>
@@ -14409,21 +14486,22 @@
       <c r="CH87" s="76"/>
       <c r="CI87" s="76"/>
       <c r="CJ87" s="62"/>
-      <c r="CK87" s="56"/>
-      <c r="CL87" s="76"/>
+      <c r="CK87" s="62"/>
+      <c r="CL87" s="56"/>
       <c r="CM87" s="76"/>
       <c r="CN87" s="76"/>
       <c r="CO87" s="76"/>
       <c r="CP87" s="76"/>
       <c r="CQ87" s="76"/>
-      <c r="CR87" s="56"/>
-      <c r="CS87" s="128"/>
-      <c r="CT87" s="5"/>
+      <c r="CR87" s="76"/>
+      <c r="CS87" s="56"/>
+      <c r="CT87" s="128"/>
       <c r="CU87" s="5"/>
       <c r="CV87" s="5"/>
-    </row>
-    <row r="88" spans="1:100">
-      <c r="A88" s="25" t="s">
+      <c r="CW87" s="5"/>
+    </row>
+    <row r="88" spans="1:101">
+      <c r="A88" s="169" t="s">
         <v>101</v>
       </c>
       <c r="B88" s="27">
@@ -14438,7 +14516,7 @@
       <c r="I88" s="124">
         <v>12497542168.83</v>
       </c>
-      <c r="K88" s="171">
+      <c r="K88" s="170">
         <v>3623022779.13</v>
       </c>
       <c r="L88" s="62"/>
@@ -14447,7 +14525,7 @@
       <c r="O88" s="76"/>
       <c r="P88" s="76"/>
       <c r="Q88" s="76"/>
-      <c r="R88" s="171">
+      <c r="R88" s="170">
         <v>77928597.87</v>
       </c>
       <c r="S88" s="76"/>
@@ -14479,7 +14557,7 @@
       </c>
       <c r="AI88" s="77"/>
       <c r="AJ88" s="77"/>
-      <c r="AK88" s="171">
+      <c r="AK88" s="170">
         <v>3829356.4</v>
       </c>
       <c r="AL88" s="77"/>
@@ -14560,28 +14638,29 @@
         <f t="shared" ref="CI88:CI93" si="21">CC88+CG88</f>
         <v>3242863061.96</v>
       </c>
-      <c r="CJ88" s="62">
-        <f t="shared" ref="CJ88:CJ93" si="22">CE88/BX88</f>
+      <c r="CJ88" s="62"/>
+      <c r="CK88" s="62">
+        <f t="shared" ref="CK88:CK93" si="22">CE88/BX88</f>
         <v>0</v>
       </c>
-      <c r="CK88" s="163">
-        <f t="shared" ref="CK88:CK93" si="23">CI88/CA88</f>
+      <c r="CL88" s="164">
+        <f t="shared" ref="CL88:CL93" si="23">CI88/CA88</f>
         <v>-358.626689483366</v>
       </c>
-      <c r="CL88" s="76"/>
       <c r="CM88" s="76"/>
       <c r="CN88" s="76"/>
       <c r="CO88" s="76"/>
       <c r="CP88" s="76"/>
       <c r="CQ88" s="76"/>
-      <c r="CR88" s="56"/>
-      <c r="CS88" s="128"/>
-      <c r="CT88" s="5"/>
+      <c r="CR88" s="76"/>
+      <c r="CS88" s="56"/>
+      <c r="CT88" s="128"/>
       <c r="CU88" s="5"/>
       <c r="CV88" s="5"/>
-    </row>
-    <row r="89" spans="1:100">
-      <c r="A89" s="25"/>
+      <c r="CW88" s="5"/>
+    </row>
+    <row r="89" spans="1:101">
+      <c r="A89" s="169"/>
       <c r="B89" s="4">
         <v>2021</v>
       </c>
@@ -14624,7 +14703,7 @@
       <c r="AD89" s="76">
         <v>240320800.68</v>
       </c>
-      <c r="AE89" s="171">
+      <c r="AE89" s="170">
         <v>13210379.78</v>
       </c>
       <c r="AF89" s="77"/>
@@ -14715,28 +14794,29 @@
         <f t="shared" si="21"/>
         <v>2931657952.56</v>
       </c>
-      <c r="CJ89" s="62">
+      <c r="CJ89" s="62"/>
+      <c r="CK89" s="62">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="CK89" s="163">
+      <c r="CL89" s="164">
         <f t="shared" si="23"/>
         <v>82.7401692506275</v>
       </c>
-      <c r="CL89" s="76"/>
       <c r="CM89" s="76"/>
       <c r="CN89" s="76"/>
       <c r="CO89" s="76"/>
       <c r="CP89" s="76"/>
       <c r="CQ89" s="76"/>
-      <c r="CR89" s="56"/>
-      <c r="CS89" s="128"/>
-      <c r="CT89" s="5"/>
+      <c r="CR89" s="76"/>
+      <c r="CS89" s="56"/>
+      <c r="CT89" s="128"/>
       <c r="CU89" s="5"/>
       <c r="CV89" s="5"/>
-    </row>
-    <row r="90" spans="1:100">
-      <c r="A90" s="25"/>
+      <c r="CW89" s="5"/>
+    </row>
+    <row r="90" spans="1:101">
+      <c r="A90" s="169"/>
       <c r="B90" s="4">
         <v>2020</v>
       </c>
@@ -14848,7 +14928,7 @@
         <f t="shared" si="25"/>
         <v>-1.12551290565473</v>
       </c>
-      <c r="CC90" s="174">
+      <c r="CC90" s="173">
         <v>1964036821.02</v>
       </c>
       <c r="CD90" s="61">
@@ -14868,28 +14948,29 @@
         <f t="shared" si="21"/>
         <v>1970260300.16</v>
       </c>
-      <c r="CJ90" s="62">
+      <c r="CJ90" s="62"/>
+      <c r="CK90" s="62">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="CK90" s="163">
+      <c r="CL90" s="164">
         <f t="shared" si="23"/>
         <v>-8.51469652827648</v>
       </c>
-      <c r="CL90" s="76"/>
       <c r="CM90" s="76"/>
       <c r="CN90" s="76"/>
       <c r="CO90" s="76"/>
       <c r="CP90" s="76"/>
       <c r="CQ90" s="76"/>
-      <c r="CR90" s="56"/>
-      <c r="CS90" s="128"/>
-      <c r="CT90" s="5"/>
+      <c r="CR90" s="76"/>
+      <c r="CS90" s="56"/>
+      <c r="CT90" s="128"/>
       <c r="CU90" s="5"/>
       <c r="CV90" s="5"/>
-    </row>
-    <row r="91" spans="1:100">
-      <c r="A91" s="25"/>
+      <c r="CW90" s="5"/>
+    </row>
+    <row r="91" spans="1:101">
+      <c r="A91" s="169"/>
       <c r="B91" s="4">
         <v>2019</v>
       </c>
@@ -14991,7 +15072,7 @@
         <v>2.07586466210338</v>
       </c>
       <c r="BZ91" s="62"/>
-      <c r="CA91" s="173">
+      <c r="CA91" s="172">
         <f t="shared" si="19"/>
         <v>1843597238.65</v>
       </c>
@@ -14999,7 +15080,7 @@
         <f t="shared" si="25"/>
         <v>222.497338488334</v>
       </c>
-      <c r="CC91" s="174">
+      <c r="CC91" s="173">
         <v>1626790489.33</v>
       </c>
       <c r="CD91" s="61">
@@ -15008,7 +15089,7 @@
       </c>
       <c r="CE91" s="77"/>
       <c r="CF91" s="77"/>
-      <c r="CG91" s="171">
+      <c r="CG91" s="170">
         <v>36191414</v>
       </c>
       <c r="CH91" s="76">
@@ -15019,28 +15100,29 @@
         <f t="shared" si="21"/>
         <v>1662981903.33</v>
       </c>
-      <c r="CJ91" s="62">
+      <c r="CJ91" s="62"/>
+      <c r="CK91" s="62">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="CK91" s="163">
+      <c r="CL91" s="164">
         <f t="shared" si="23"/>
         <v>0.902031023081669</v>
       </c>
-      <c r="CL91" s="76"/>
       <c r="CM91" s="76"/>
       <c r="CN91" s="76"/>
       <c r="CO91" s="76"/>
       <c r="CP91" s="76"/>
       <c r="CQ91" s="76"/>
-      <c r="CR91" s="56"/>
-      <c r="CS91" s="128"/>
-      <c r="CT91" s="5"/>
+      <c r="CR91" s="76"/>
+      <c r="CS91" s="56"/>
+      <c r="CT91" s="128"/>
       <c r="CU91" s="5"/>
       <c r="CV91" s="5"/>
-    </row>
-    <row r="92" spans="1:100">
-      <c r="A92" s="25"/>
+      <c r="CW91" s="5"/>
+    </row>
+    <row r="92" spans="1:101">
+      <c r="A92" s="169"/>
       <c r="B92" s="4">
         <v>2018</v>
       </c>
@@ -15080,7 +15162,7 @@
         <v>1000000</v>
       </c>
       <c r="AC92" s="76"/>
-      <c r="AD92" s="172">
+      <c r="AD92" s="171">
         <v>185968920.22</v>
       </c>
       <c r="AE92" s="76"/>
@@ -15170,28 +15252,29 @@
         <f t="shared" si="21"/>
         <v>498525535.12</v>
       </c>
-      <c r="CJ92" s="62">
+      <c r="CJ92" s="62"/>
+      <c r="CK92" s="62">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="CK92" s="163">
+      <c r="CL92" s="164">
         <f t="shared" si="23"/>
         <v>60.4357220394736</v>
       </c>
-      <c r="CL92" s="76"/>
       <c r="CM92" s="76"/>
       <c r="CN92" s="76"/>
       <c r="CO92" s="76"/>
       <c r="CP92" s="76"/>
       <c r="CQ92" s="76"/>
-      <c r="CR92" s="56"/>
-      <c r="CS92" s="128"/>
-      <c r="CT92" s="5"/>
+      <c r="CR92" s="76"/>
+      <c r="CS92" s="56"/>
+      <c r="CT92" s="128"/>
       <c r="CU92" s="5"/>
       <c r="CV92" s="5"/>
-    </row>
-    <row r="93" spans="1:100">
-      <c r="A93" s="25"/>
+      <c r="CW92" s="5"/>
+    </row>
+    <row r="93" spans="1:101">
+      <c r="A93" s="169"/>
       <c r="B93" s="4">
         <v>2017</v>
       </c>
@@ -15227,11 +15310,11 @@
       </c>
       <c r="Z93" s="76"/>
       <c r="AA93" s="76"/>
-      <c r="AB93" s="171">
+      <c r="AB93" s="170">
         <v>1000000</v>
       </c>
       <c r="AC93" s="76"/>
-      <c r="AD93" s="172">
+      <c r="AD93" s="171">
         <v>131924391.11</v>
       </c>
       <c r="AE93" s="76"/>
@@ -15321,28 +15404,29 @@
         <f t="shared" si="21"/>
         <v>357592270.63</v>
       </c>
-      <c r="CJ93" s="62">
+      <c r="CJ93" s="62"/>
+      <c r="CK93" s="62">
         <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="CK93" s="163">
+      <c r="CL93" s="164">
         <f t="shared" si="23"/>
         <v>1.04103386500696</v>
       </c>
-      <c r="CL93" s="76"/>
       <c r="CM93" s="76"/>
       <c r="CN93" s="76"/>
       <c r="CO93" s="76"/>
       <c r="CP93" s="76"/>
       <c r="CQ93" s="76"/>
-      <c r="CR93" s="56"/>
-      <c r="CS93" s="128"/>
-      <c r="CT93" s="5"/>
+      <c r="CR93" s="76"/>
+      <c r="CS93" s="56"/>
+      <c r="CT93" s="128"/>
       <c r="CU93" s="5"/>
       <c r="CV93" s="5"/>
-    </row>
-    <row r="94" spans="1:100">
-      <c r="A94" s="25"/>
+      <c r="CW93" s="5"/>
+    </row>
+    <row r="94" spans="1:101">
+      <c r="A94" s="169"/>
       <c r="B94" s="4">
         <v>2016</v>
       </c>
@@ -15478,28 +15562,29 @@
         <f t="shared" ref="CI94:CI104" si="30">CC94+CG94</f>
         <v>212583725.76</v>
       </c>
-      <c r="CJ94" s="62">
-        <f t="shared" ref="CJ94:CJ104" si="31">CE94/BX94</f>
+      <c r="CJ94" s="62"/>
+      <c r="CK94" s="62">
+        <f t="shared" ref="CK94:CK104" si="31">CE94/BX94</f>
         <v>0.125536321733229</v>
       </c>
-      <c r="CK94" s="56">
-        <f t="shared" ref="CK94:CK104" si="32">CI94/CA94</f>
+      <c r="CL94" s="56">
+        <f t="shared" ref="CL94:CL104" si="32">CI94/CA94</f>
         <v>0.36992936357911</v>
       </c>
-      <c r="CL94" s="76"/>
       <c r="CM94" s="76"/>
       <c r="CN94" s="76"/>
       <c r="CO94" s="76"/>
       <c r="CP94" s="76"/>
       <c r="CQ94" s="76"/>
-      <c r="CR94" s="56"/>
-      <c r="CS94" s="128"/>
-      <c r="CT94" s="5"/>
+      <c r="CR94" s="76"/>
+      <c r="CS94" s="56"/>
+      <c r="CT94" s="128"/>
       <c r="CU94" s="5"/>
       <c r="CV94" s="5"/>
-    </row>
-    <row r="95" spans="1:100">
-      <c r="A95" s="25"/>
+      <c r="CW94" s="5"/>
+    </row>
+    <row r="95" spans="1:101">
+      <c r="A95" s="169"/>
       <c r="B95" s="4">
         <v>2015</v>
       </c>
@@ -15635,28 +15720,29 @@
         <f t="shared" si="30"/>
         <v>-70411741.65</v>
       </c>
-      <c r="CJ95" s="62">
+      <c r="CJ95" s="62"/>
+      <c r="CK95" s="62">
         <f t="shared" si="31"/>
         <v>-0.0597982763643236</v>
       </c>
-      <c r="CK95" s="56">
+      <c r="CL95" s="56">
         <f t="shared" si="32"/>
         <v>-0.0520770104731752</v>
       </c>
-      <c r="CL95" s="76"/>
       <c r="CM95" s="76"/>
       <c r="CN95" s="76"/>
       <c r="CO95" s="76"/>
       <c r="CP95" s="76"/>
       <c r="CQ95" s="76"/>
-      <c r="CR95" s="56"/>
-      <c r="CS95" s="128"/>
-      <c r="CT95" s="5"/>
+      <c r="CR95" s="76"/>
+      <c r="CS95" s="56"/>
+      <c r="CT95" s="128"/>
       <c r="CU95" s="5"/>
       <c r="CV95" s="5"/>
-    </row>
-    <row r="96" spans="1:100">
-      <c r="A96" s="25"/>
+      <c r="CW95" s="5"/>
+    </row>
+    <row r="96" spans="1:101">
+      <c r="A96" s="169"/>
       <c r="B96" s="4">
         <v>2014</v>
       </c>
@@ -15790,28 +15876,29 @@
         <f t="shared" si="30"/>
         <v>98195523.4</v>
       </c>
-      <c r="CJ96" s="62">
+      <c r="CJ96" s="62"/>
+      <c r="CK96" s="62">
         <f t="shared" si="31"/>
         <v>0.0115219781863221</v>
       </c>
-      <c r="CK96" s="56">
+      <c r="CL96" s="56">
         <f t="shared" si="32"/>
         <v>0.0531091045119653</v>
       </c>
-      <c r="CL96" s="76"/>
       <c r="CM96" s="76"/>
       <c r="CN96" s="76"/>
       <c r="CO96" s="76"/>
       <c r="CP96" s="76"/>
       <c r="CQ96" s="76"/>
-      <c r="CR96" s="56"/>
-      <c r="CS96" s="128"/>
-      <c r="CT96" s="5"/>
+      <c r="CR96" s="76"/>
+      <c r="CS96" s="56"/>
+      <c r="CT96" s="128"/>
       <c r="CU96" s="5"/>
       <c r="CV96" s="5"/>
-    </row>
-    <row r="97" spans="1:100">
-      <c r="A97" s="25"/>
+      <c r="CW96" s="5"/>
+    </row>
+    <row r="97" spans="1:101">
+      <c r="A97" s="169"/>
       <c r="B97" s="4">
         <v>2013</v>
       </c>
@@ -15945,28 +16032,29 @@
         <f t="shared" si="30"/>
         <v>253133303.84</v>
       </c>
-      <c r="CJ97" s="62">
+      <c r="CJ97" s="62"/>
+      <c r="CK97" s="62">
         <f t="shared" si="31"/>
         <v>0.0582111771507154</v>
       </c>
-      <c r="CK97" s="56">
+      <c r="CL97" s="56">
         <f t="shared" si="32"/>
         <v>0.103709804655263</v>
       </c>
-      <c r="CL97" s="76"/>
       <c r="CM97" s="76"/>
       <c r="CN97" s="76"/>
       <c r="CO97" s="76"/>
       <c r="CP97" s="76"/>
       <c r="CQ97" s="76"/>
-      <c r="CR97" s="56"/>
-      <c r="CS97" s="128"/>
-      <c r="CT97" s="5"/>
+      <c r="CR97" s="76"/>
+      <c r="CS97" s="56"/>
+      <c r="CT97" s="128"/>
       <c r="CU97" s="5"/>
       <c r="CV97" s="5"/>
-    </row>
-    <row r="98" spans="1:100">
-      <c r="A98" s="25"/>
+      <c r="CW97" s="5"/>
+    </row>
+    <row r="98" spans="1:101">
+      <c r="A98" s="169"/>
       <c r="B98" s="4">
         <v>2012</v>
       </c>
@@ -16098,28 +16186,29 @@
         <f t="shared" si="30"/>
         <v>248819261.19</v>
       </c>
-      <c r="CJ98" s="62">
+      <c r="CJ98" s="62"/>
+      <c r="CK98" s="62">
         <f t="shared" si="31"/>
         <v>0.0609122154977188</v>
       </c>
-      <c r="CK98" s="56">
+      <c r="CL98" s="56">
         <f t="shared" si="32"/>
         <v>0.097917750407596</v>
       </c>
-      <c r="CL98" s="76"/>
       <c r="CM98" s="76"/>
       <c r="CN98" s="76"/>
       <c r="CO98" s="76"/>
       <c r="CP98" s="76"/>
       <c r="CQ98" s="76"/>
-      <c r="CR98" s="56"/>
-      <c r="CS98" s="128"/>
-      <c r="CT98" s="5"/>
+      <c r="CR98" s="76"/>
+      <c r="CS98" s="56"/>
+      <c r="CT98" s="128"/>
       <c r="CU98" s="5"/>
       <c r="CV98" s="5"/>
-    </row>
-    <row r="99" spans="1:100">
-      <c r="A99" s="25"/>
+      <c r="CW98" s="5"/>
+    </row>
+    <row r="99" spans="1:101">
+      <c r="A99" s="169"/>
       <c r="B99" s="4">
         <v>2011</v>
       </c>
@@ -16250,28 +16339,29 @@
         <f t="shared" si="30"/>
         <v>233665781.36</v>
       </c>
-      <c r="CJ99" s="62">
+      <c r="CJ99" s="62"/>
+      <c r="CK99" s="62">
         <f t="shared" si="31"/>
         <v>0.0815728237789114</v>
       </c>
-      <c r="CK99" s="56">
+      <c r="CL99" s="56">
         <f t="shared" si="32"/>
         <v>0.109427382142123</v>
       </c>
-      <c r="CL99" s="76"/>
       <c r="CM99" s="76"/>
       <c r="CN99" s="76"/>
       <c r="CO99" s="76"/>
       <c r="CP99" s="76"/>
       <c r="CQ99" s="76"/>
-      <c r="CR99" s="56"/>
-      <c r="CS99" s="128"/>
-      <c r="CT99" s="5"/>
+      <c r="CR99" s="76"/>
+      <c r="CS99" s="56"/>
+      <c r="CT99" s="128"/>
       <c r="CU99" s="5"/>
       <c r="CV99" s="5"/>
-    </row>
-    <row r="100" spans="1:100">
-      <c r="A100" s="168" t="s">
+      <c r="CW99" s="5"/>
+    </row>
+    <row r="100" spans="1:101">
+      <c r="A100" s="41" t="s">
         <v>102</v>
       </c>
       <c r="B100" s="27">
@@ -16366,21 +16456,22 @@
       <c r="CH100" s="76"/>
       <c r="CI100" s="76"/>
       <c r="CJ100" s="62"/>
-      <c r="CK100" s="56"/>
-      <c r="CL100" s="76"/>
+      <c r="CK100" s="62"/>
+      <c r="CL100" s="56"/>
       <c r="CM100" s="76"/>
       <c r="CN100" s="76"/>
       <c r="CO100" s="76"/>
       <c r="CP100" s="76"/>
       <c r="CQ100" s="76"/>
-      <c r="CR100" s="56"/>
-      <c r="CS100" s="128"/>
-      <c r="CT100" s="5"/>
+      <c r="CR100" s="76"/>
+      <c r="CS100" s="56"/>
+      <c r="CT100" s="128"/>
       <c r="CU100" s="5"/>
       <c r="CV100" s="5"/>
-    </row>
-    <row r="101" spans="1:100">
-      <c r="A101" s="169"/>
+      <c r="CW100" s="5"/>
+    </row>
+    <row r="101" spans="1:101">
+      <c r="A101" s="42"/>
       <c r="B101" s="4">
         <v>2021</v>
       </c>
@@ -16473,21 +16564,22 @@
       <c r="CH101" s="76"/>
       <c r="CI101" s="76"/>
       <c r="CJ101" s="62"/>
-      <c r="CK101" s="56"/>
-      <c r="CL101" s="76"/>
+      <c r="CK101" s="62"/>
+      <c r="CL101" s="56"/>
       <c r="CM101" s="76"/>
       <c r="CN101" s="76"/>
       <c r="CO101" s="76"/>
       <c r="CP101" s="76"/>
       <c r="CQ101" s="76"/>
-      <c r="CR101" s="56"/>
-      <c r="CS101" s="128"/>
-      <c r="CT101" s="5"/>
+      <c r="CR101" s="76"/>
+      <c r="CS101" s="56"/>
+      <c r="CT101" s="128"/>
       <c r="CU101" s="5"/>
       <c r="CV101" s="5"/>
-    </row>
-    <row r="102" spans="1:100">
-      <c r="A102" s="169"/>
+      <c r="CW101" s="5"/>
+    </row>
+    <row r="102" spans="1:101">
+      <c r="A102" s="42"/>
       <c r="B102" s="4">
         <v>2020</v>
       </c>
@@ -16580,21 +16672,22 @@
       <c r="CH102" s="76"/>
       <c r="CI102" s="76"/>
       <c r="CJ102" s="62"/>
-      <c r="CK102" s="56"/>
-      <c r="CL102" s="76"/>
+      <c r="CK102" s="62"/>
+      <c r="CL102" s="56"/>
       <c r="CM102" s="76"/>
       <c r="CN102" s="76"/>
       <c r="CO102" s="76"/>
       <c r="CP102" s="76"/>
       <c r="CQ102" s="76"/>
-      <c r="CR102" s="56"/>
-      <c r="CS102" s="128"/>
-      <c r="CT102" s="5"/>
+      <c r="CR102" s="76"/>
+      <c r="CS102" s="56"/>
+      <c r="CT102" s="128"/>
       <c r="CU102" s="5"/>
       <c r="CV102" s="5"/>
-    </row>
-    <row r="103" spans="1:100">
-      <c r="A103" s="169"/>
+      <c r="CW102" s="5"/>
+    </row>
+    <row r="103" spans="1:101">
+      <c r="A103" s="42"/>
       <c r="B103" s="4">
         <v>2019</v>
       </c>
@@ -16687,21 +16780,22 @@
       <c r="CH103" s="76"/>
       <c r="CI103" s="76"/>
       <c r="CJ103" s="62"/>
-      <c r="CK103" s="56"/>
-      <c r="CL103" s="76"/>
+      <c r="CK103" s="62"/>
+      <c r="CL103" s="56"/>
       <c r="CM103" s="76"/>
       <c r="CN103" s="76"/>
       <c r="CO103" s="76"/>
       <c r="CP103" s="76"/>
       <c r="CQ103" s="76"/>
-      <c r="CR103" s="56"/>
-      <c r="CS103" s="128"/>
-      <c r="CT103" s="5"/>
+      <c r="CR103" s="76"/>
+      <c r="CS103" s="56"/>
+      <c r="CT103" s="128"/>
       <c r="CU103" s="5"/>
       <c r="CV103" s="5"/>
-    </row>
-    <row r="104" spans="1:100">
-      <c r="A104" s="169"/>
+      <c r="CW103" s="5"/>
+    </row>
+    <row r="104" spans="1:101">
+      <c r="A104" s="42"/>
       <c r="B104" s="4">
         <v>2018</v>
       </c>
@@ -16794,21 +16888,22 @@
       <c r="CH104" s="76"/>
       <c r="CI104" s="76"/>
       <c r="CJ104" s="62"/>
-      <c r="CK104" s="56"/>
-      <c r="CL104" s="76"/>
+      <c r="CK104" s="62"/>
+      <c r="CL104" s="56"/>
       <c r="CM104" s="76"/>
       <c r="CN104" s="76"/>
       <c r="CO104" s="76"/>
       <c r="CP104" s="76"/>
       <c r="CQ104" s="76"/>
-      <c r="CR104" s="56"/>
-      <c r="CS104" s="128"/>
-      <c r="CT104" s="5"/>
+      <c r="CR104" s="76"/>
+      <c r="CS104" s="56"/>
+      <c r="CT104" s="128"/>
       <c r="CU104" s="5"/>
       <c r="CV104" s="5"/>
-    </row>
-    <row r="105" spans="1:100">
-      <c r="A105" s="169"/>
+      <c r="CW104" s="5"/>
+    </row>
+    <row r="105" spans="1:101">
+      <c r="A105" s="42"/>
       <c r="B105" s="4">
         <v>2017</v>
       </c>
@@ -16901,21 +16996,22 @@
       <c r="CH105" s="76"/>
       <c r="CI105" s="76"/>
       <c r="CJ105" s="62"/>
-      <c r="CK105" s="56"/>
-      <c r="CL105" s="76"/>
+      <c r="CK105" s="62"/>
+      <c r="CL105" s="56"/>
       <c r="CM105" s="76"/>
       <c r="CN105" s="76"/>
       <c r="CO105" s="76"/>
       <c r="CP105" s="76"/>
       <c r="CQ105" s="76"/>
-      <c r="CR105" s="56"/>
-      <c r="CS105" s="128"/>
-      <c r="CT105" s="5"/>
+      <c r="CR105" s="76"/>
+      <c r="CS105" s="56"/>
+      <c r="CT105" s="128"/>
       <c r="CU105" s="5"/>
       <c r="CV105" s="5"/>
-    </row>
-    <row r="106" spans="1:100">
-      <c r="A106" s="169"/>
+      <c r="CW105" s="5"/>
+    </row>
+    <row r="106" spans="1:101">
+      <c r="A106" s="42"/>
       <c r="B106" s="4">
         <v>2016</v>
       </c>
@@ -17008,21 +17104,22 @@
       <c r="CH106" s="76"/>
       <c r="CI106" s="76"/>
       <c r="CJ106" s="62"/>
-      <c r="CK106" s="56"/>
-      <c r="CL106" s="76"/>
+      <c r="CK106" s="62"/>
+      <c r="CL106" s="56"/>
       <c r="CM106" s="76"/>
       <c r="CN106" s="76"/>
       <c r="CO106" s="76"/>
       <c r="CP106" s="76"/>
       <c r="CQ106" s="76"/>
-      <c r="CR106" s="56"/>
-      <c r="CS106" s="128"/>
-      <c r="CT106" s="5"/>
+      <c r="CR106" s="76"/>
+      <c r="CS106" s="56"/>
+      <c r="CT106" s="128"/>
       <c r="CU106" s="5"/>
       <c r="CV106" s="5"/>
-    </row>
-    <row r="107" spans="1:100">
-      <c r="A107" s="169"/>
+      <c r="CW106" s="5"/>
+    </row>
+    <row r="107" spans="1:101">
+      <c r="A107" s="42"/>
       <c r="B107" s="4">
         <v>2015</v>
       </c>
@@ -17115,21 +17212,22 @@
       <c r="CH107" s="76"/>
       <c r="CI107" s="76"/>
       <c r="CJ107" s="62"/>
-      <c r="CK107" s="56"/>
-      <c r="CL107" s="76"/>
+      <c r="CK107" s="62"/>
+      <c r="CL107" s="56"/>
       <c r="CM107" s="76"/>
       <c r="CN107" s="76"/>
       <c r="CO107" s="76"/>
       <c r="CP107" s="76"/>
       <c r="CQ107" s="76"/>
-      <c r="CR107" s="56"/>
-      <c r="CS107" s="128"/>
-      <c r="CT107" s="5"/>
+      <c r="CR107" s="76"/>
+      <c r="CS107" s="56"/>
+      <c r="CT107" s="128"/>
       <c r="CU107" s="5"/>
       <c r="CV107" s="5"/>
-    </row>
-    <row r="108" spans="1:100">
-      <c r="A108" s="169"/>
+      <c r="CW107" s="5"/>
+    </row>
+    <row r="108" spans="1:101">
+      <c r="A108" s="42"/>
       <c r="B108" s="4">
         <v>2014</v>
       </c>
@@ -17222,21 +17320,22 @@
       <c r="CH108" s="76"/>
       <c r="CI108" s="76"/>
       <c r="CJ108" s="62"/>
-      <c r="CK108" s="56"/>
-      <c r="CL108" s="76"/>
+      <c r="CK108" s="62"/>
+      <c r="CL108" s="56"/>
       <c r="CM108" s="76"/>
       <c r="CN108" s="76"/>
       <c r="CO108" s="76"/>
       <c r="CP108" s="76"/>
       <c r="CQ108" s="76"/>
-      <c r="CR108" s="56"/>
-      <c r="CS108" s="128"/>
-      <c r="CT108" s="5"/>
+      <c r="CR108" s="76"/>
+      <c r="CS108" s="56"/>
+      <c r="CT108" s="128"/>
       <c r="CU108" s="5"/>
       <c r="CV108" s="5"/>
-    </row>
-    <row r="109" spans="1:100">
-      <c r="A109" s="169"/>
+      <c r="CW108" s="5"/>
+    </row>
+    <row r="109" spans="1:101">
+      <c r="A109" s="42"/>
       <c r="B109" s="4">
         <v>2013</v>
       </c>
@@ -17329,21 +17428,22 @@
       <c r="CH109" s="76"/>
       <c r="CI109" s="76"/>
       <c r="CJ109" s="62"/>
-      <c r="CK109" s="56"/>
-      <c r="CL109" s="76"/>
+      <c r="CK109" s="62"/>
+      <c r="CL109" s="56"/>
       <c r="CM109" s="76"/>
       <c r="CN109" s="76"/>
       <c r="CO109" s="76"/>
       <c r="CP109" s="76"/>
       <c r="CQ109" s="76"/>
-      <c r="CR109" s="56"/>
-      <c r="CS109" s="128"/>
-      <c r="CT109" s="5"/>
+      <c r="CR109" s="76"/>
+      <c r="CS109" s="56"/>
+      <c r="CT109" s="128"/>
       <c r="CU109" s="5"/>
       <c r="CV109" s="5"/>
-    </row>
-    <row r="110" spans="1:100">
-      <c r="A110" s="170"/>
+      <c r="CW109" s="5"/>
+    </row>
+    <row r="110" spans="1:101">
+      <c r="A110" s="44"/>
       <c r="B110" s="4">
         <v>2012</v>
       </c>
@@ -17436,21 +17536,22 @@
       <c r="CH110" s="76"/>
       <c r="CI110" s="76"/>
       <c r="CJ110" s="62"/>
-      <c r="CK110" s="56"/>
-      <c r="CL110" s="76"/>
+      <c r="CK110" s="62"/>
+      <c r="CL110" s="56"/>
       <c r="CM110" s="76"/>
       <c r="CN110" s="76"/>
       <c r="CO110" s="76"/>
       <c r="CP110" s="76"/>
       <c r="CQ110" s="76"/>
-      <c r="CR110" s="56"/>
-      <c r="CS110" s="128"/>
-      <c r="CT110" s="5"/>
+      <c r="CR110" s="76"/>
+      <c r="CS110" s="56"/>
+      <c r="CT110" s="128"/>
       <c r="CU110" s="5"/>
       <c r="CV110" s="5"/>
-    </row>
-    <row r="111" spans="1:100">
-      <c r="A111" s="168" t="s">
+      <c r="CW110" s="5"/>
+    </row>
+    <row r="111" spans="1:101">
+      <c r="A111" s="41" t="s">
         <v>103</v>
       </c>
       <c r="B111" s="27">
@@ -17545,21 +17646,22 @@
       <c r="CH111" s="76"/>
       <c r="CI111" s="76"/>
       <c r="CJ111" s="62"/>
-      <c r="CK111" s="56"/>
-      <c r="CL111" s="76"/>
+      <c r="CK111" s="62"/>
+      <c r="CL111" s="56"/>
       <c r="CM111" s="76"/>
       <c r="CN111" s="76"/>
       <c r="CO111" s="76"/>
       <c r="CP111" s="76"/>
       <c r="CQ111" s="76"/>
-      <c r="CR111" s="56"/>
-      <c r="CS111" s="128"/>
-      <c r="CT111" s="5"/>
+      <c r="CR111" s="76"/>
+      <c r="CS111" s="56"/>
+      <c r="CT111" s="128"/>
       <c r="CU111" s="5"/>
       <c r="CV111" s="5"/>
-    </row>
-    <row r="112" spans="1:100">
-      <c r="A112" s="169"/>
+      <c r="CW111" s="5"/>
+    </row>
+    <row r="112" spans="1:101">
+      <c r="A112" s="42"/>
       <c r="B112" s="4">
         <v>2021</v>
       </c>
@@ -17652,21 +17754,22 @@
       <c r="CH112" s="76"/>
       <c r="CI112" s="76"/>
       <c r="CJ112" s="62"/>
-      <c r="CK112" s="56"/>
-      <c r="CL112" s="76"/>
+      <c r="CK112" s="62"/>
+      <c r="CL112" s="56"/>
       <c r="CM112" s="76"/>
       <c r="CN112" s="76"/>
       <c r="CO112" s="76"/>
       <c r="CP112" s="76"/>
       <c r="CQ112" s="76"/>
-      <c r="CR112" s="56"/>
-      <c r="CS112" s="128"/>
-      <c r="CT112" s="5"/>
+      <c r="CR112" s="76"/>
+      <c r="CS112" s="56"/>
+      <c r="CT112" s="128"/>
       <c r="CU112" s="5"/>
       <c r="CV112" s="5"/>
-    </row>
-    <row r="113" spans="1:100">
-      <c r="A113" s="169"/>
+      <c r="CW112" s="5"/>
+    </row>
+    <row r="113" spans="1:101">
+      <c r="A113" s="42"/>
       <c r="B113" s="4">
         <v>2020</v>
       </c>
@@ -17759,21 +17862,22 @@
       <c r="CH113" s="76"/>
       <c r="CI113" s="76"/>
       <c r="CJ113" s="62"/>
-      <c r="CK113" s="56"/>
-      <c r="CL113" s="76"/>
+      <c r="CK113" s="62"/>
+      <c r="CL113" s="56"/>
       <c r="CM113" s="76"/>
       <c r="CN113" s="76"/>
       <c r="CO113" s="76"/>
       <c r="CP113" s="76"/>
       <c r="CQ113" s="76"/>
-      <c r="CR113" s="56"/>
-      <c r="CS113" s="128"/>
-      <c r="CT113" s="5"/>
+      <c r="CR113" s="76"/>
+      <c r="CS113" s="56"/>
+      <c r="CT113" s="128"/>
       <c r="CU113" s="5"/>
       <c r="CV113" s="5"/>
-    </row>
-    <row r="114" spans="1:100">
-      <c r="A114" s="169"/>
+      <c r="CW113" s="5"/>
+    </row>
+    <row r="114" spans="1:101">
+      <c r="A114" s="42"/>
       <c r="B114" s="4">
         <v>2019</v>
       </c>
@@ -17866,21 +17970,22 @@
       <c r="CH114" s="76"/>
       <c r="CI114" s="76"/>
       <c r="CJ114" s="62"/>
-      <c r="CK114" s="56"/>
-      <c r="CL114" s="76"/>
+      <c r="CK114" s="62"/>
+      <c r="CL114" s="56"/>
       <c r="CM114" s="76"/>
       <c r="CN114" s="76"/>
       <c r="CO114" s="76"/>
       <c r="CP114" s="76"/>
       <c r="CQ114" s="76"/>
-      <c r="CR114" s="56"/>
-      <c r="CS114" s="128"/>
-      <c r="CT114" s="5"/>
+      <c r="CR114" s="76"/>
+      <c r="CS114" s="56"/>
+      <c r="CT114" s="128"/>
       <c r="CU114" s="5"/>
       <c r="CV114" s="5"/>
-    </row>
-    <row r="115" spans="1:100">
-      <c r="A115" s="169"/>
+      <c r="CW114" s="5"/>
+    </row>
+    <row r="115" spans="1:101">
+      <c r="A115" s="42"/>
       <c r="B115" s="4">
         <v>2018</v>
       </c>
@@ -17973,21 +18078,22 @@
       <c r="CH115" s="76"/>
       <c r="CI115" s="76"/>
       <c r="CJ115" s="62"/>
-      <c r="CK115" s="56"/>
-      <c r="CL115" s="76"/>
+      <c r="CK115" s="62"/>
+      <c r="CL115" s="56"/>
       <c r="CM115" s="76"/>
       <c r="CN115" s="76"/>
       <c r="CO115" s="76"/>
       <c r="CP115" s="76"/>
       <c r="CQ115" s="76"/>
-      <c r="CR115" s="56"/>
-      <c r="CS115" s="128"/>
-      <c r="CT115" s="5"/>
+      <c r="CR115" s="76"/>
+      <c r="CS115" s="56"/>
+      <c r="CT115" s="128"/>
       <c r="CU115" s="5"/>
       <c r="CV115" s="5"/>
-    </row>
-    <row r="116" spans="1:100">
-      <c r="A116" s="169"/>
+      <c r="CW115" s="5"/>
+    </row>
+    <row r="116" spans="1:101">
+      <c r="A116" s="42"/>
       <c r="B116" s="4">
         <v>2017</v>
       </c>
@@ -18080,21 +18186,22 @@
       <c r="CH116" s="76"/>
       <c r="CI116" s="76"/>
       <c r="CJ116" s="62"/>
-      <c r="CK116" s="56"/>
-      <c r="CL116" s="76"/>
+      <c r="CK116" s="62"/>
+      <c r="CL116" s="56"/>
       <c r="CM116" s="76"/>
       <c r="CN116" s="76"/>
       <c r="CO116" s="76"/>
       <c r="CP116" s="76"/>
       <c r="CQ116" s="76"/>
-      <c r="CR116" s="56"/>
-      <c r="CS116" s="128"/>
-      <c r="CT116" s="5"/>
+      <c r="CR116" s="76"/>
+      <c r="CS116" s="56"/>
+      <c r="CT116" s="128"/>
       <c r="CU116" s="5"/>
       <c r="CV116" s="5"/>
-    </row>
-    <row r="117" spans="1:100">
-      <c r="A117" s="169"/>
+      <c r="CW116" s="5"/>
+    </row>
+    <row r="117" spans="1:101">
+      <c r="A117" s="42"/>
       <c r="B117" s="4">
         <v>2016</v>
       </c>
@@ -18187,21 +18294,22 @@
       <c r="CH117" s="76"/>
       <c r="CI117" s="76"/>
       <c r="CJ117" s="62"/>
-      <c r="CK117" s="56"/>
-      <c r="CL117" s="76"/>
+      <c r="CK117" s="62"/>
+      <c r="CL117" s="56"/>
       <c r="CM117" s="76"/>
       <c r="CN117" s="76"/>
       <c r="CO117" s="76"/>
       <c r="CP117" s="76"/>
       <c r="CQ117" s="76"/>
-      <c r="CR117" s="56"/>
-      <c r="CS117" s="128"/>
-      <c r="CT117" s="5"/>
+      <c r="CR117" s="76"/>
+      <c r="CS117" s="56"/>
+      <c r="CT117" s="128"/>
       <c r="CU117" s="5"/>
       <c r="CV117" s="5"/>
-    </row>
-    <row r="118" spans="1:100">
-      <c r="A118" s="169"/>
+      <c r="CW117" s="5"/>
+    </row>
+    <row r="118" spans="1:101">
+      <c r="A118" s="42"/>
       <c r="B118" s="4">
         <v>2015</v>
       </c>
@@ -18294,21 +18402,22 @@
       <c r="CH118" s="76"/>
       <c r="CI118" s="76"/>
       <c r="CJ118" s="62"/>
-      <c r="CK118" s="56"/>
-      <c r="CL118" s="76"/>
+      <c r="CK118" s="62"/>
+      <c r="CL118" s="56"/>
       <c r="CM118" s="76"/>
       <c r="CN118" s="76"/>
       <c r="CO118" s="76"/>
       <c r="CP118" s="76"/>
       <c r="CQ118" s="76"/>
-      <c r="CR118" s="56"/>
-      <c r="CS118" s="128"/>
-      <c r="CT118" s="5"/>
+      <c r="CR118" s="76"/>
+      <c r="CS118" s="56"/>
+      <c r="CT118" s="128"/>
       <c r="CU118" s="5"/>
       <c r="CV118" s="5"/>
-    </row>
-    <row r="119" spans="1:100">
-      <c r="A119" s="169"/>
+      <c r="CW118" s="5"/>
+    </row>
+    <row r="119" spans="1:101">
+      <c r="A119" s="42"/>
       <c r="B119" s="4">
         <v>2014</v>
       </c>
@@ -18401,21 +18510,22 @@
       <c r="CH119" s="76"/>
       <c r="CI119" s="76"/>
       <c r="CJ119" s="62"/>
-      <c r="CK119" s="56"/>
-      <c r="CL119" s="76"/>
+      <c r="CK119" s="62"/>
+      <c r="CL119" s="56"/>
       <c r="CM119" s="76"/>
       <c r="CN119" s="76"/>
       <c r="CO119" s="76"/>
       <c r="CP119" s="76"/>
       <c r="CQ119" s="76"/>
-      <c r="CR119" s="56"/>
-      <c r="CS119" s="128"/>
-      <c r="CT119" s="5"/>
+      <c r="CR119" s="76"/>
+      <c r="CS119" s="56"/>
+      <c r="CT119" s="128"/>
       <c r="CU119" s="5"/>
       <c r="CV119" s="5"/>
-    </row>
-    <row r="120" spans="1:100">
-      <c r="A120" s="169"/>
+      <c r="CW119" s="5"/>
+    </row>
+    <row r="120" spans="1:101">
+      <c r="A120" s="42"/>
       <c r="B120" s="4">
         <v>2013</v>
       </c>
@@ -18508,21 +18618,22 @@
       <c r="CH120" s="76"/>
       <c r="CI120" s="76"/>
       <c r="CJ120" s="62"/>
-      <c r="CK120" s="56"/>
-      <c r="CL120" s="76"/>
+      <c r="CK120" s="62"/>
+      <c r="CL120" s="56"/>
       <c r="CM120" s="76"/>
       <c r="CN120" s="76"/>
       <c r="CO120" s="76"/>
       <c r="CP120" s="76"/>
       <c r="CQ120" s="76"/>
-      <c r="CR120" s="56"/>
-      <c r="CS120" s="128"/>
-      <c r="CT120" s="5"/>
+      <c r="CR120" s="76"/>
+      <c r="CS120" s="56"/>
+      <c r="CT120" s="128"/>
       <c r="CU120" s="5"/>
       <c r="CV120" s="5"/>
-    </row>
-    <row r="121" spans="1:100">
-      <c r="A121" s="170"/>
+      <c r="CW120" s="5"/>
+    </row>
+    <row r="121" spans="1:101">
+      <c r="A121" s="44"/>
       <c r="B121" s="4">
         <v>2012</v>
       </c>
@@ -18615,20 +18726,21 @@
       <c r="CH121" s="76"/>
       <c r="CI121" s="76"/>
       <c r="CJ121" s="62"/>
-      <c r="CK121" s="56"/>
-      <c r="CL121" s="76"/>
+      <c r="CK121" s="62"/>
+      <c r="CL121" s="56"/>
       <c r="CM121" s="76"/>
       <c r="CN121" s="76"/>
       <c r="CO121" s="76"/>
       <c r="CP121" s="76"/>
       <c r="CQ121" s="76"/>
-      <c r="CR121" s="56"/>
-      <c r="CS121" s="128"/>
-      <c r="CT121" s="5"/>
+      <c r="CR121" s="76"/>
+      <c r="CS121" s="56"/>
+      <c r="CT121" s="128"/>
       <c r="CU121" s="5"/>
       <c r="CV121" s="5"/>
-    </row>
-    <row r="122" spans="1:100">
+      <c r="CW121" s="5"/>
+    </row>
+    <row r="122" spans="1:101">
       <c r="A122" s="25" t="s">
         <v>104</v>
       </c>
@@ -18772,26 +18884,30 @@
         <v>1895306150.65</v>
       </c>
       <c r="CJ122" s="62">
+        <f>(CI122-CI123)/CI123</f>
+        <v>0.249243302705613</v>
+      </c>
+      <c r="CK122" s="62">
         <f>CE122/BX122</f>
         <v>0.220379298944783</v>
       </c>
-      <c r="CK122" s="56">
+      <c r="CL122" s="56">
         <f>CI122/CA122</f>
         <v>0.604228623625294</v>
       </c>
-      <c r="CL122" s="76"/>
       <c r="CM122" s="76"/>
       <c r="CN122" s="76"/>
       <c r="CO122" s="76"/>
       <c r="CP122" s="76"/>
       <c r="CQ122" s="76"/>
-      <c r="CR122" s="56"/>
-      <c r="CS122" s="128"/>
-      <c r="CT122" s="5"/>
+      <c r="CR122" s="76"/>
+      <c r="CS122" s="56"/>
+      <c r="CT122" s="128"/>
       <c r="CU122" s="5"/>
       <c r="CV122" s="5"/>
-    </row>
-    <row r="123" spans="1:100">
+      <c r="CW122" s="5"/>
+    </row>
+    <row r="123" spans="1:101">
       <c r="A123" s="25"/>
       <c r="B123" s="4">
         <v>2021</v>
@@ -18935,26 +19051,30 @@
         <v>1517163347.24</v>
       </c>
       <c r="CJ123" s="62">
+        <f>(CI123-CI124)/CI124</f>
+        <v>0.466751678742299</v>
+      </c>
+      <c r="CK123" s="62">
         <f>CE123/BX123</f>
         <v>0.303811185764005</v>
       </c>
-      <c r="CK123" s="163">
+      <c r="CL123" s="164">
         <f>CI123/CA123</f>
         <v>0.957052236893516</v>
       </c>
-      <c r="CL123" s="76"/>
       <c r="CM123" s="76"/>
       <c r="CN123" s="76"/>
       <c r="CO123" s="76"/>
       <c r="CP123" s="76"/>
       <c r="CQ123" s="76"/>
-      <c r="CR123" s="56"/>
-      <c r="CS123" s="128"/>
-      <c r="CT123" s="5"/>
+      <c r="CR123" s="76"/>
+      <c r="CS123" s="56"/>
+      <c r="CT123" s="128"/>
       <c r="CU123" s="5"/>
       <c r="CV123" s="5"/>
-    </row>
-    <row r="124" spans="1:100">
+      <c r="CW123" s="5"/>
+    </row>
+    <row r="124" spans="1:101">
       <c r="A124" s="25"/>
       <c r="B124" s="4">
         <v>2020</v>
@@ -19102,26 +19222,30 @@
         <v>1034369600</v>
       </c>
       <c r="CJ124" s="62">
+        <f>(CI124-CI125)/CI125</f>
+        <v>0.423444142487313</v>
+      </c>
+      <c r="CK124" s="62">
         <f>CE124/BX124</f>
         <v>0.442769422642727</v>
       </c>
-      <c r="CK124" s="163">
+      <c r="CL124" s="164">
         <f>CI124/CA124</f>
         <v>1.08835608892838</v>
       </c>
-      <c r="CL124" s="76"/>
       <c r="CM124" s="76"/>
       <c r="CN124" s="76"/>
       <c r="CO124" s="76"/>
       <c r="CP124" s="76"/>
       <c r="CQ124" s="76"/>
-      <c r="CR124" s="56"/>
-      <c r="CS124" s="128"/>
-      <c r="CT124" s="5"/>
+      <c r="CR124" s="76"/>
+      <c r="CS124" s="56"/>
+      <c r="CT124" s="128"/>
       <c r="CU124" s="5"/>
       <c r="CV124" s="5"/>
-    </row>
-    <row r="125" spans="1:100">
+      <c r="CW124" s="5"/>
+    </row>
+    <row r="125" spans="1:101">
       <c r="A125" s="25"/>
       <c r="B125" s="4">
         <v>2019</v>
@@ -19266,26 +19390,30 @@
         <v>726666800</v>
       </c>
       <c r="CJ125" s="62">
+        <f>(CI125-CI126)/CI126</f>
+        <v>1.59533589652469</v>
+      </c>
+      <c r="CK125" s="62">
         <f>CE125/BX125</f>
         <v>0.39132891855125</v>
       </c>
-      <c r="CK125" s="163">
+      <c r="CL125" s="164">
         <f>CI125/CA125</f>
         <v>0.900498934148177</v>
       </c>
-      <c r="CL125" s="76"/>
       <c r="CM125" s="76"/>
       <c r="CN125" s="76"/>
       <c r="CO125" s="76"/>
       <c r="CP125" s="76"/>
       <c r="CQ125" s="76"/>
-      <c r="CR125" s="56"/>
-      <c r="CS125" s="128"/>
-      <c r="CT125" s="5"/>
+      <c r="CR125" s="76"/>
+      <c r="CS125" s="56"/>
+      <c r="CT125" s="128"/>
       <c r="CU125" s="5"/>
       <c r="CV125" s="5"/>
-    </row>
-    <row r="126" spans="1:100">
+      <c r="CW125" s="5"/>
+    </row>
+    <row r="126" spans="1:101">
       <c r="A126" s="25"/>
       <c r="B126" s="4">
         <v>2018</v>
@@ -19423,27 +19551,28 @@
         <f>CC126+CG126</f>
         <v>279989500</v>
       </c>
-      <c r="CJ126" s="62">
+      <c r="CJ126" s="62"/>
+      <c r="CK126" s="62">
         <f>CE126/BX126</f>
         <v>0.211596388690062</v>
       </c>
-      <c r="CK126" s="56">
+      <c r="CL126" s="56">
         <f>CI126/CA126</f>
         <v>0.293968650007538</v>
       </c>
-      <c r="CL126" s="76"/>
       <c r="CM126" s="76"/>
       <c r="CN126" s="76"/>
       <c r="CO126" s="76"/>
       <c r="CP126" s="76"/>
       <c r="CQ126" s="76"/>
-      <c r="CR126" s="56"/>
-      <c r="CS126" s="128"/>
-      <c r="CT126" s="5"/>
+      <c r="CR126" s="76"/>
+      <c r="CS126" s="56"/>
+      <c r="CT126" s="128"/>
       <c r="CU126" s="5"/>
       <c r="CV126" s="5"/>
-    </row>
-    <row r="127" spans="1:100">
+      <c r="CW126" s="5"/>
+    </row>
+    <row r="127" spans="1:101">
       <c r="A127" s="25"/>
       <c r="B127" s="4">
         <v>2017</v>
@@ -19537,20 +19666,21 @@
       <c r="CH127" s="76"/>
       <c r="CI127" s="76"/>
       <c r="CJ127" s="62"/>
-      <c r="CK127" s="56"/>
-      <c r="CL127" s="76"/>
+      <c r="CK127" s="62"/>
+      <c r="CL127" s="56"/>
       <c r="CM127" s="76"/>
       <c r="CN127" s="76"/>
       <c r="CO127" s="76"/>
       <c r="CP127" s="76"/>
       <c r="CQ127" s="76"/>
-      <c r="CR127" s="56"/>
-      <c r="CS127" s="128"/>
-      <c r="CT127" s="5"/>
+      <c r="CR127" s="76"/>
+      <c r="CS127" s="56"/>
+      <c r="CT127" s="128"/>
       <c r="CU127" s="5"/>
       <c r="CV127" s="5"/>
-    </row>
-    <row r="128" spans="1:100">
+      <c r="CW127" s="5"/>
+    </row>
+    <row r="128" spans="1:101">
       <c r="A128" s="25"/>
       <c r="B128" s="4">
         <v>2016</v>
@@ -19644,20 +19774,21 @@
       <c r="CH128" s="76"/>
       <c r="CI128" s="76"/>
       <c r="CJ128" s="62"/>
-      <c r="CK128" s="56"/>
-      <c r="CL128" s="76"/>
+      <c r="CK128" s="62"/>
+      <c r="CL128" s="56"/>
       <c r="CM128" s="76"/>
       <c r="CN128" s="76"/>
       <c r="CO128" s="76"/>
       <c r="CP128" s="76"/>
       <c r="CQ128" s="76"/>
-      <c r="CR128" s="56"/>
-      <c r="CS128" s="128"/>
-      <c r="CT128" s="5"/>
+      <c r="CR128" s="76"/>
+      <c r="CS128" s="56"/>
+      <c r="CT128" s="128"/>
       <c r="CU128" s="5"/>
       <c r="CV128" s="5"/>
-    </row>
-    <row r="129" spans="1:100">
+      <c r="CW128" s="5"/>
+    </row>
+    <row r="129" spans="1:101">
       <c r="A129" s="25"/>
       <c r="B129" s="4">
         <v>2015</v>
@@ -19751,20 +19882,21 @@
       <c r="CH129" s="76"/>
       <c r="CI129" s="76"/>
       <c r="CJ129" s="62"/>
-      <c r="CK129" s="56"/>
-      <c r="CL129" s="76"/>
+      <c r="CK129" s="62"/>
+      <c r="CL129" s="56"/>
       <c r="CM129" s="76"/>
       <c r="CN129" s="76"/>
       <c r="CO129" s="76"/>
       <c r="CP129" s="76"/>
       <c r="CQ129" s="76"/>
-      <c r="CR129" s="56"/>
-      <c r="CS129" s="128"/>
-      <c r="CT129" s="5"/>
+      <c r="CR129" s="76"/>
+      <c r="CS129" s="56"/>
+      <c r="CT129" s="128"/>
       <c r="CU129" s="5"/>
       <c r="CV129" s="5"/>
-    </row>
-    <row r="130" spans="1:100">
+      <c r="CW129" s="5"/>
+    </row>
+    <row r="130" spans="1:101">
       <c r="A130" s="25"/>
       <c r="B130" s="4">
         <v>2014</v>
@@ -19858,20 +19990,21 @@
       <c r="CH130" s="76"/>
       <c r="CI130" s="76"/>
       <c r="CJ130" s="62"/>
-      <c r="CK130" s="56"/>
-      <c r="CL130" s="76"/>
+      <c r="CK130" s="62"/>
+      <c r="CL130" s="56"/>
       <c r="CM130" s="76"/>
       <c r="CN130" s="76"/>
       <c r="CO130" s="76"/>
       <c r="CP130" s="76"/>
       <c r="CQ130" s="76"/>
-      <c r="CR130" s="56"/>
-      <c r="CS130" s="128"/>
-      <c r="CT130" s="5"/>
+      <c r="CR130" s="76"/>
+      <c r="CS130" s="56"/>
+      <c r="CT130" s="128"/>
       <c r="CU130" s="5"/>
       <c r="CV130" s="5"/>
-    </row>
-    <row r="131" spans="1:100">
+      <c r="CW130" s="5"/>
+    </row>
+    <row r="131" spans="1:101">
       <c r="A131" s="25"/>
       <c r="B131" s="4">
         <v>2013</v>
@@ -19965,20 +20098,21 @@
       <c r="CH131" s="76"/>
       <c r="CI131" s="76"/>
       <c r="CJ131" s="62"/>
-      <c r="CK131" s="56"/>
-      <c r="CL131" s="76"/>
+      <c r="CK131" s="62"/>
+      <c r="CL131" s="56"/>
       <c r="CM131" s="76"/>
       <c r="CN131" s="76"/>
       <c r="CO131" s="76"/>
       <c r="CP131" s="76"/>
       <c r="CQ131" s="76"/>
-      <c r="CR131" s="56"/>
-      <c r="CS131" s="128"/>
-      <c r="CT131" s="5"/>
+      <c r="CR131" s="76"/>
+      <c r="CS131" s="56"/>
+      <c r="CT131" s="128"/>
       <c r="CU131" s="5"/>
       <c r="CV131" s="5"/>
-    </row>
-    <row r="132" spans="1:100">
+      <c r="CW131" s="5"/>
+    </row>
+    <row r="132" spans="1:101">
       <c r="A132" s="25"/>
       <c r="B132" s="4">
         <v>2012</v>
@@ -20072,21 +20206,22 @@
       <c r="CH132" s="76"/>
       <c r="CI132" s="76"/>
       <c r="CJ132" s="62"/>
-      <c r="CK132" s="56"/>
-      <c r="CL132" s="76"/>
+      <c r="CK132" s="62"/>
+      <c r="CL132" s="56"/>
       <c r="CM132" s="76"/>
       <c r="CN132" s="76"/>
       <c r="CO132" s="76"/>
       <c r="CP132" s="76"/>
       <c r="CQ132" s="76"/>
-      <c r="CR132" s="56"/>
-      <c r="CS132" s="128"/>
-      <c r="CT132" s="5"/>
+      <c r="CR132" s="76"/>
+      <c r="CS132" s="56"/>
+      <c r="CT132" s="128"/>
       <c r="CU132" s="5"/>
       <c r="CV132" s="5"/>
-    </row>
-    <row r="133" spans="1:100">
-      <c r="A133" s="175" t="s">
+      <c r="CW132" s="5"/>
+    </row>
+    <row r="133" spans="1:101">
+      <c r="A133" s="27" t="s">
         <v>105</v>
       </c>
       <c r="B133" s="4">
@@ -20102,7 +20237,7 @@
         <v>3812738019.4</v>
       </c>
       <c r="J133" s="62"/>
-      <c r="K133" s="182">
+      <c r="K133" s="179">
         <v>2793705645.6</v>
       </c>
       <c r="L133" s="62"/>
@@ -20223,28 +20358,29 @@
         <f>CC133+CG133</f>
         <v>757574888.13</v>
       </c>
-      <c r="CJ133" s="62">
+      <c r="CJ133" s="62"/>
+      <c r="CK133" s="62">
         <f>CE133/BX133</f>
         <v>0.284389968532052</v>
       </c>
-      <c r="CK133" s="209">
+      <c r="CL133" s="206">
         <f>CI133/CA133</f>
         <v>-3.8621644418303</v>
       </c>
-      <c r="CL133" s="76"/>
       <c r="CM133" s="76"/>
       <c r="CN133" s="76"/>
       <c r="CO133" s="76"/>
       <c r="CP133" s="76"/>
       <c r="CQ133" s="76"/>
-      <c r="CR133" s="56"/>
-      <c r="CS133" s="128"/>
-      <c r="CT133" s="5"/>
+      <c r="CR133" s="76"/>
+      <c r="CS133" s="56"/>
+      <c r="CT133" s="128"/>
       <c r="CU133" s="5"/>
       <c r="CV133" s="5"/>
-    </row>
-    <row r="134" spans="1:100">
-      <c r="A134" s="175"/>
+      <c r="CW133" s="5"/>
+    </row>
+    <row r="134" spans="1:101">
+      <c r="A134" s="27"/>
       <c r="B134" s="4">
         <v>2021</v>
       </c>
@@ -20258,7 +20394,7 @@
         <v>3508334611.06</v>
       </c>
       <c r="J134" s="62"/>
-      <c r="K134" s="182">
+      <c r="K134" s="179">
         <v>2392060812.5</v>
       </c>
       <c r="L134" s="62"/>
@@ -20361,7 +20497,7 @@
         <v>751497261.04</v>
       </c>
       <c r="CD134" s="62">
-        <f t="shared" ref="CD134:CD139" si="41">(CC134-CC135)/CC135</f>
+        <f t="shared" ref="CD134:CD143" si="41">(CC134-CC135)/CC135</f>
         <v>0.285211658464694</v>
       </c>
       <c r="CE134" s="77">
@@ -20379,28 +20515,29 @@
         <f t="shared" ref="CI134:CI143" si="43">CC134+CG134</f>
         <v>710940939.53</v>
       </c>
-      <c r="CJ134" s="62">
-        <f t="shared" ref="CJ134:CJ143" si="44">CE134/BX134</f>
+      <c r="CJ134" s="62"/>
+      <c r="CK134" s="62">
+        <f t="shared" ref="CK134:CK143" si="44">CE134/BX134</f>
         <v>0.314634702908499</v>
       </c>
-      <c r="CK134" s="209">
-        <f t="shared" ref="CK134:CK143" si="45">CI134/CA134</f>
+      <c r="CL134" s="206">
+        <f t="shared" ref="CL134:CL143" si="45">CI134/CA134</f>
         <v>-3.31325313988516</v>
       </c>
-      <c r="CL134" s="76"/>
       <c r="CM134" s="76"/>
       <c r="CN134" s="76"/>
       <c r="CO134" s="76"/>
       <c r="CP134" s="76"/>
       <c r="CQ134" s="76"/>
-      <c r="CR134" s="56"/>
-      <c r="CS134" s="128"/>
-      <c r="CT134" s="5"/>
+      <c r="CR134" s="76"/>
+      <c r="CS134" s="56"/>
+      <c r="CT134" s="128"/>
       <c r="CU134" s="5"/>
       <c r="CV134" s="5"/>
-    </row>
-    <row r="135" spans="1:100">
-      <c r="A135" s="175"/>
+      <c r="CW134" s="5"/>
+    </row>
+    <row r="135" spans="1:101">
+      <c r="A135" s="27"/>
       <c r="B135" s="4">
         <v>2020</v>
       </c>
@@ -20535,28 +20672,29 @@
         <f t="shared" si="43"/>
         <v>552342782.63</v>
       </c>
-      <c r="CJ135" s="62">
+      <c r="CJ135" s="62"/>
+      <c r="CK135" s="62">
         <f t="shared" si="44"/>
         <v>0.261369001560118</v>
       </c>
-      <c r="CK135" s="209">
+      <c r="CL135" s="206">
         <f t="shared" si="45"/>
         <v>-5.19454836573275</v>
       </c>
-      <c r="CL135" s="76"/>
       <c r="CM135" s="76"/>
       <c r="CN135" s="76"/>
       <c r="CO135" s="76"/>
       <c r="CP135" s="76"/>
       <c r="CQ135" s="76"/>
-      <c r="CR135" s="56"/>
-      <c r="CS135" s="128"/>
-      <c r="CT135" s="5"/>
+      <c r="CR135" s="76"/>
+      <c r="CS135" s="56"/>
+      <c r="CT135" s="128"/>
       <c r="CU135" s="5"/>
       <c r="CV135" s="5"/>
-    </row>
-    <row r="136" spans="1:100">
-      <c r="A136" s="175"/>
+      <c r="CW135" s="5"/>
+    </row>
+    <row r="136" spans="1:101">
+      <c r="A136" s="27"/>
       <c r="B136" s="4">
         <v>2019</v>
       </c>
@@ -20693,28 +20831,29 @@
         <f t="shared" si="43"/>
         <v>596535836.66</v>
       </c>
-      <c r="CJ136" s="62">
+      <c r="CJ136" s="62"/>
+      <c r="CK136" s="62">
         <f t="shared" si="44"/>
         <v>0.30440238322127</v>
       </c>
-      <c r="CK136" s="209">
+      <c r="CL136" s="206">
         <f t="shared" si="45"/>
         <v>-3.39842523463837</v>
       </c>
-      <c r="CL136" s="76"/>
       <c r="CM136" s="76"/>
       <c r="CN136" s="76"/>
       <c r="CO136" s="76"/>
       <c r="CP136" s="76"/>
       <c r="CQ136" s="76"/>
-      <c r="CR136" s="56"/>
-      <c r="CS136" s="128"/>
-      <c r="CT136" s="5"/>
+      <c r="CR136" s="76"/>
+      <c r="CS136" s="56"/>
+      <c r="CT136" s="128"/>
       <c r="CU136" s="5"/>
       <c r="CV136" s="5"/>
-    </row>
-    <row r="137" spans="1:100">
-      <c r="A137" s="175"/>
+      <c r="CW136" s="5"/>
+    </row>
+    <row r="137" spans="1:101">
+      <c r="A137" s="27"/>
       <c r="B137" s="4">
         <v>2018</v>
       </c>
@@ -20821,7 +20960,7 @@
         <v>-0.0376919621245688</v>
       </c>
       <c r="BZ137" s="62"/>
-      <c r="CA137" s="173">
+      <c r="CA137" s="172">
         <f t="shared" si="39"/>
         <v>24669959.8999999</v>
       </c>
@@ -20851,28 +20990,29 @@
         <f t="shared" si="43"/>
         <v>522661220.35</v>
       </c>
-      <c r="CJ137" s="62">
+      <c r="CJ137" s="62"/>
+      <c r="CK137" s="62">
         <f t="shared" si="44"/>
         <v>0.280708914875238</v>
       </c>
-      <c r="CK137" s="56">
+      <c r="CL137" s="56">
         <f t="shared" si="45"/>
         <v>21.1861398424893</v>
       </c>
-      <c r="CL137" s="76"/>
       <c r="CM137" s="76"/>
       <c r="CN137" s="76"/>
       <c r="CO137" s="76"/>
       <c r="CP137" s="76"/>
       <c r="CQ137" s="76"/>
-      <c r="CR137" s="56"/>
-      <c r="CS137" s="128"/>
-      <c r="CT137" s="5"/>
+      <c r="CR137" s="76"/>
+      <c r="CS137" s="56"/>
+      <c r="CT137" s="128"/>
       <c r="CU137" s="5"/>
       <c r="CV137" s="5"/>
-    </row>
-    <row r="138" spans="1:100">
-      <c r="A138" s="175"/>
+      <c r="CW137" s="5"/>
+    </row>
+    <row r="138" spans="1:101">
+      <c r="A138" s="27"/>
       <c r="B138" s="4">
         <v>2017</v>
       </c>
@@ -21009,28 +21149,29 @@
         <f t="shared" si="43"/>
         <v>541327974.08</v>
       </c>
-      <c r="CJ138" s="62">
+      <c r="CJ138" s="62"/>
+      <c r="CK138" s="62">
         <f t="shared" si="44"/>
         <v>0.275697244811434</v>
       </c>
-      <c r="CK138" s="56">
+      <c r="CL138" s="56">
         <f t="shared" si="45"/>
         <v>4.46399633900561</v>
       </c>
-      <c r="CL138" s="76"/>
       <c r="CM138" s="76"/>
       <c r="CN138" s="76"/>
       <c r="CO138" s="76"/>
       <c r="CP138" s="76"/>
       <c r="CQ138" s="76"/>
-      <c r="CR138" s="56"/>
-      <c r="CS138" s="128"/>
-      <c r="CT138" s="5"/>
+      <c r="CR138" s="76"/>
+      <c r="CS138" s="56"/>
+      <c r="CT138" s="128"/>
       <c r="CU138" s="5"/>
       <c r="CV138" s="5"/>
-    </row>
-    <row r="139" spans="1:100">
-      <c r="A139" s="175"/>
+      <c r="CW138" s="5"/>
+    </row>
+    <row r="139" spans="1:101">
+      <c r="A139" s="27"/>
       <c r="B139" s="4">
         <v>2016</v>
       </c>
@@ -21167,28 +21308,29 @@
         <f t="shared" si="43"/>
         <v>591681363.37</v>
       </c>
-      <c r="CJ139" s="62">
+      <c r="CJ139" s="62"/>
+      <c r="CK139" s="62">
         <f t="shared" si="44"/>
         <v>0.303202257552193</v>
       </c>
-      <c r="CK139" s="209">
+      <c r="CL139" s="206">
         <f t="shared" si="45"/>
         <v>-3.63664645020813</v>
       </c>
-      <c r="CL139" s="76"/>
       <c r="CM139" s="76"/>
       <c r="CN139" s="76"/>
       <c r="CO139" s="76"/>
       <c r="CP139" s="76"/>
       <c r="CQ139" s="76"/>
-      <c r="CR139" s="56"/>
-      <c r="CS139" s="128"/>
-      <c r="CT139" s="5"/>
+      <c r="CR139" s="76"/>
+      <c r="CS139" s="56"/>
+      <c r="CT139" s="128"/>
       <c r="CU139" s="5"/>
       <c r="CV139" s="5"/>
-    </row>
-    <row r="140" spans="1:100">
-      <c r="A140" s="175"/>
+      <c r="CW139" s="5"/>
+    </row>
+    <row r="140" spans="1:101">
+      <c r="A140" s="27"/>
       <c r="B140" s="4">
         <v>2015</v>
       </c>
@@ -21307,7 +21449,7 @@
         <v>613350632.84</v>
       </c>
       <c r="CD140" s="62">
-        <f>(CC140-CC141)/CC141</f>
+        <f t="shared" si="41"/>
         <v>0.0483674452133285</v>
       </c>
       <c r="CE140" s="77">
@@ -21325,28 +21467,29 @@
         <f t="shared" si="43"/>
         <v>594710341.16</v>
       </c>
-      <c r="CJ140" s="62">
+      <c r="CJ140" s="62"/>
+      <c r="CK140" s="62">
         <f t="shared" si="44"/>
         <v>0.366161570568032</v>
       </c>
-      <c r="CK140" s="56">
+      <c r="CL140" s="56">
         <f t="shared" si="45"/>
         <v>3.09518845025957</v>
       </c>
-      <c r="CL140" s="76"/>
       <c r="CM140" s="76"/>
       <c r="CN140" s="76"/>
       <c r="CO140" s="76"/>
       <c r="CP140" s="76"/>
       <c r="CQ140" s="76"/>
-      <c r="CR140" s="56"/>
-      <c r="CS140" s="128"/>
-      <c r="CT140" s="5"/>
+      <c r="CR140" s="76"/>
+      <c r="CS140" s="56"/>
+      <c r="CT140" s="128"/>
       <c r="CU140" s="5"/>
       <c r="CV140" s="5"/>
-    </row>
-    <row r="141" spans="1:100">
-      <c r="A141" s="175"/>
+      <c r="CW140" s="5"/>
+    </row>
+    <row r="141" spans="1:101">
+      <c r="A141" s="27"/>
       <c r="B141" s="4">
         <v>2014</v>
       </c>
@@ -21465,7 +21608,7 @@
         <v>585053108.66</v>
       </c>
       <c r="CD141" s="62">
-        <f>(CC141-CC142)/CC142</f>
+        <f t="shared" si="41"/>
         <v>0.31817293700364</v>
       </c>
       <c r="CE141" s="77">
@@ -21483,28 +21626,29 @@
         <f t="shared" si="43"/>
         <v>571981294.41</v>
       </c>
-      <c r="CJ141" s="62">
+      <c r="CJ141" s="62"/>
+      <c r="CK141" s="62">
         <f t="shared" si="44"/>
         <v>0.44656846772873</v>
       </c>
-      <c r="CK141" s="56">
+      <c r="CL141" s="56">
         <f t="shared" si="45"/>
         <v>1.22954245593874</v>
       </c>
-      <c r="CL141" s="76"/>
       <c r="CM141" s="76"/>
       <c r="CN141" s="76"/>
       <c r="CO141" s="76"/>
       <c r="CP141" s="76"/>
       <c r="CQ141" s="76"/>
-      <c r="CR141" s="56"/>
-      <c r="CS141" s="128"/>
-      <c r="CT141" s="5"/>
+      <c r="CR141" s="76"/>
+      <c r="CS141" s="56"/>
+      <c r="CT141" s="128"/>
       <c r="CU141" s="5"/>
       <c r="CV141" s="5"/>
-    </row>
-    <row r="142" spans="1:100">
-      <c r="A142" s="175"/>
+      <c r="CW141" s="5"/>
+    </row>
+    <row r="142" spans="1:101">
+      <c r="A142" s="27"/>
       <c r="B142" s="4">
         <v>2013</v>
       </c>
@@ -21623,7 +21767,7 @@
         <v>443836383.1</v>
       </c>
       <c r="CD142" s="62">
-        <f>(CC142-CC143)/CC143</f>
+        <f t="shared" si="41"/>
         <v>0.449049420748774</v>
       </c>
       <c r="CE142" s="77">
@@ -21641,28 +21785,29 @@
         <f t="shared" si="43"/>
         <v>434679968.41</v>
       </c>
-      <c r="CJ142" s="62">
+      <c r="CJ142" s="62"/>
+      <c r="CK142" s="62">
         <f t="shared" si="44"/>
         <v>0.441823541616437</v>
       </c>
-      <c r="CK142" s="56">
+      <c r="CL142" s="56">
         <f t="shared" si="45"/>
         <v>1.38420981943489</v>
       </c>
-      <c r="CL142" s="76"/>
       <c r="CM142" s="76"/>
       <c r="CN142" s="76"/>
       <c r="CO142" s="76"/>
       <c r="CP142" s="76"/>
       <c r="CQ142" s="76"/>
-      <c r="CR142" s="56"/>
-      <c r="CS142" s="128"/>
-      <c r="CT142" s="5"/>
+      <c r="CR142" s="76"/>
+      <c r="CS142" s="56"/>
+      <c r="CT142" s="128"/>
       <c r="CU142" s="5"/>
       <c r="CV142" s="5"/>
-    </row>
-    <row r="143" spans="1:100">
-      <c r="A143" s="175"/>
+      <c r="CW142" s="5"/>
+    </row>
+    <row r="143" spans="1:101">
+      <c r="A143" s="27"/>
       <c r="B143" s="4">
         <v>2012</v>
       </c>
@@ -21776,7 +21921,7 @@
         <v>306294855.61</v>
       </c>
       <c r="CD143" s="62" t="e">
-        <f>(CC143-CC144)/CC144</f>
+        <f t="shared" si="41"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE143" s="77">
@@ -21794,27 +21939,28 @@
         <f t="shared" si="43"/>
         <v>300593406.64</v>
       </c>
-      <c r="CJ143" s="62">
+      <c r="CJ143" s="62"/>
+      <c r="CK143" s="62">
         <f t="shared" si="44"/>
         <v>0.378515336006793</v>
       </c>
-      <c r="CK143" s="56">
+      <c r="CL143" s="56">
         <f t="shared" si="45"/>
         <v>1.15421526850446</v>
       </c>
-      <c r="CL143" s="76"/>
       <c r="CM143" s="76"/>
       <c r="CN143" s="76"/>
       <c r="CO143" s="76"/>
       <c r="CP143" s="76"/>
       <c r="CQ143" s="76"/>
-      <c r="CR143" s="56"/>
-      <c r="CS143" s="128"/>
-      <c r="CT143" s="5"/>
+      <c r="CR143" s="76"/>
+      <c r="CS143" s="56"/>
+      <c r="CT143" s="128"/>
       <c r="CU143" s="5"/>
       <c r="CV143" s="5"/>
-    </row>
-    <row r="144" spans="1:100">
+      <c r="CW143" s="5"/>
+    </row>
+    <row r="144" spans="1:101">
       <c r="A144" s="25" t="s">
         <v>106</v>
       </c>
@@ -21910,20 +22056,21 @@
       <c r="CH144" s="76"/>
       <c r="CI144" s="76"/>
       <c r="CJ144" s="62"/>
-      <c r="CK144" s="56"/>
-      <c r="CL144" s="76"/>
+      <c r="CK144" s="62"/>
+      <c r="CL144" s="56"/>
       <c r="CM144" s="76"/>
       <c r="CN144" s="76"/>
       <c r="CO144" s="76"/>
       <c r="CP144" s="76"/>
       <c r="CQ144" s="76"/>
-      <c r="CR144" s="56"/>
-      <c r="CS144" s="128"/>
-      <c r="CT144" s="5"/>
+      <c r="CR144" s="76"/>
+      <c r="CS144" s="56"/>
+      <c r="CT144" s="128"/>
       <c r="CU144" s="5"/>
       <c r="CV144" s="5"/>
-    </row>
-    <row r="145" spans="1:100">
+      <c r="CW144" s="5"/>
+    </row>
+    <row r="145" spans="1:101">
       <c r="A145" s="25"/>
       <c r="B145" s="4">
         <v>2021</v>
@@ -22017,20 +22164,21 @@
       <c r="CH145" s="76"/>
       <c r="CI145" s="76"/>
       <c r="CJ145" s="62"/>
-      <c r="CK145" s="56"/>
-      <c r="CL145" s="76"/>
+      <c r="CK145" s="62"/>
+      <c r="CL145" s="56"/>
       <c r="CM145" s="76"/>
       <c r="CN145" s="76"/>
       <c r="CO145" s="76"/>
       <c r="CP145" s="76"/>
       <c r="CQ145" s="76"/>
-      <c r="CR145" s="56"/>
-      <c r="CS145" s="128"/>
-      <c r="CT145" s="5"/>
+      <c r="CR145" s="76"/>
+      <c r="CS145" s="56"/>
+      <c r="CT145" s="128"/>
       <c r="CU145" s="5"/>
       <c r="CV145" s="5"/>
-    </row>
-    <row r="146" spans="1:100">
+      <c r="CW145" s="5"/>
+    </row>
+    <row r="146" spans="1:101">
       <c r="A146" s="25"/>
       <c r="B146" s="4">
         <v>2020</v>
@@ -22124,20 +22272,21 @@
       <c r="CH146" s="76"/>
       <c r="CI146" s="76"/>
       <c r="CJ146" s="62"/>
-      <c r="CK146" s="56"/>
-      <c r="CL146" s="76"/>
+      <c r="CK146" s="62"/>
+      <c r="CL146" s="56"/>
       <c r="CM146" s="76"/>
       <c r="CN146" s="76"/>
       <c r="CO146" s="76"/>
       <c r="CP146" s="76"/>
       <c r="CQ146" s="76"/>
-      <c r="CR146" s="56"/>
-      <c r="CS146" s="128"/>
-      <c r="CT146" s="5"/>
+      <c r="CR146" s="76"/>
+      <c r="CS146" s="56"/>
+      <c r="CT146" s="128"/>
       <c r="CU146" s="5"/>
       <c r="CV146" s="5"/>
-    </row>
-    <row r="147" spans="1:100">
+      <c r="CW146" s="5"/>
+    </row>
+    <row r="147" spans="1:101">
       <c r="A147" s="25"/>
       <c r="B147" s="4">
         <v>2019</v>
@@ -22231,20 +22380,21 @@
       <c r="CH147" s="76"/>
       <c r="CI147" s="76"/>
       <c r="CJ147" s="62"/>
-      <c r="CK147" s="56"/>
-      <c r="CL147" s="76"/>
+      <c r="CK147" s="62"/>
+      <c r="CL147" s="56"/>
       <c r="CM147" s="76"/>
       <c r="CN147" s="76"/>
       <c r="CO147" s="76"/>
       <c r="CP147" s="76"/>
       <c r="CQ147" s="76"/>
-      <c r="CR147" s="56"/>
-      <c r="CS147" s="128"/>
-      <c r="CT147" s="5"/>
+      <c r="CR147" s="76"/>
+      <c r="CS147" s="56"/>
+      <c r="CT147" s="128"/>
       <c r="CU147" s="5"/>
       <c r="CV147" s="5"/>
-    </row>
-    <row r="148" spans="1:100">
+      <c r="CW147" s="5"/>
+    </row>
+    <row r="148" spans="1:101">
       <c r="A148" s="25"/>
       <c r="B148" s="4">
         <v>2018</v>
@@ -22338,20 +22488,21 @@
       <c r="CH148" s="76"/>
       <c r="CI148" s="76"/>
       <c r="CJ148" s="62"/>
-      <c r="CK148" s="56"/>
-      <c r="CL148" s="76"/>
+      <c r="CK148" s="62"/>
+      <c r="CL148" s="56"/>
       <c r="CM148" s="76"/>
       <c r="CN148" s="76"/>
       <c r="CO148" s="76"/>
       <c r="CP148" s="76"/>
       <c r="CQ148" s="76"/>
-      <c r="CR148" s="56"/>
-      <c r="CS148" s="128"/>
-      <c r="CT148" s="5"/>
+      <c r="CR148" s="76"/>
+      <c r="CS148" s="56"/>
+      <c r="CT148" s="128"/>
       <c r="CU148" s="5"/>
       <c r="CV148" s="5"/>
-    </row>
-    <row r="149" spans="1:100">
+      <c r="CW148" s="5"/>
+    </row>
+    <row r="149" spans="1:101">
       <c r="A149" s="25"/>
       <c r="B149" s="4">
         <v>2017</v>
@@ -22445,20 +22596,21 @@
       <c r="CH149" s="76"/>
       <c r="CI149" s="76"/>
       <c r="CJ149" s="62"/>
-      <c r="CK149" s="56"/>
-      <c r="CL149" s="76"/>
+      <c r="CK149" s="62"/>
+      <c r="CL149" s="56"/>
       <c r="CM149" s="76"/>
       <c r="CN149" s="76"/>
       <c r="CO149" s="76"/>
       <c r="CP149" s="76"/>
       <c r="CQ149" s="76"/>
-      <c r="CR149" s="56"/>
-      <c r="CS149" s="128"/>
-      <c r="CT149" s="5"/>
+      <c r="CR149" s="76"/>
+      <c r="CS149" s="56"/>
+      <c r="CT149" s="128"/>
       <c r="CU149" s="5"/>
       <c r="CV149" s="5"/>
-    </row>
-    <row r="150" spans="1:100">
+      <c r="CW149" s="5"/>
+    </row>
+    <row r="150" spans="1:101">
       <c r="A150" s="25"/>
       <c r="B150" s="4">
         <v>2016</v>
@@ -22552,20 +22704,21 @@
       <c r="CH150" s="76"/>
       <c r="CI150" s="76"/>
       <c r="CJ150" s="62"/>
-      <c r="CK150" s="56"/>
-      <c r="CL150" s="76"/>
+      <c r="CK150" s="62"/>
+      <c r="CL150" s="56"/>
       <c r="CM150" s="76"/>
       <c r="CN150" s="76"/>
       <c r="CO150" s="76"/>
       <c r="CP150" s="76"/>
       <c r="CQ150" s="76"/>
-      <c r="CR150" s="56"/>
-      <c r="CS150" s="128"/>
-      <c r="CT150" s="5"/>
+      <c r="CR150" s="76"/>
+      <c r="CS150" s="56"/>
+      <c r="CT150" s="128"/>
       <c r="CU150" s="5"/>
       <c r="CV150" s="5"/>
-    </row>
-    <row r="151" spans="1:100">
+      <c r="CW150" s="5"/>
+    </row>
+    <row r="151" spans="1:101">
       <c r="A151" s="25"/>
       <c r="B151" s="4">
         <v>2015</v>
@@ -22659,20 +22812,21 @@
       <c r="CH151" s="76"/>
       <c r="CI151" s="76"/>
       <c r="CJ151" s="62"/>
-      <c r="CK151" s="56"/>
-      <c r="CL151" s="76"/>
+      <c r="CK151" s="62"/>
+      <c r="CL151" s="56"/>
       <c r="CM151" s="76"/>
       <c r="CN151" s="76"/>
       <c r="CO151" s="76"/>
       <c r="CP151" s="76"/>
       <c r="CQ151" s="76"/>
-      <c r="CR151" s="56"/>
-      <c r="CS151" s="128"/>
-      <c r="CT151" s="5"/>
+      <c r="CR151" s="76"/>
+      <c r="CS151" s="56"/>
+      <c r="CT151" s="128"/>
       <c r="CU151" s="5"/>
       <c r="CV151" s="5"/>
-    </row>
-    <row r="152" spans="1:100">
+      <c r="CW151" s="5"/>
+    </row>
+    <row r="152" spans="1:101">
       <c r="A152" s="25"/>
       <c r="B152" s="4">
         <v>2014</v>
@@ -22766,20 +22920,21 @@
       <c r="CH152" s="76"/>
       <c r="CI152" s="76"/>
       <c r="CJ152" s="62"/>
-      <c r="CK152" s="56"/>
-      <c r="CL152" s="76"/>
+      <c r="CK152" s="62"/>
+      <c r="CL152" s="56"/>
       <c r="CM152" s="76"/>
       <c r="CN152" s="76"/>
       <c r="CO152" s="76"/>
       <c r="CP152" s="76"/>
       <c r="CQ152" s="76"/>
-      <c r="CR152" s="56"/>
-      <c r="CS152" s="128"/>
-      <c r="CT152" s="5"/>
+      <c r="CR152" s="76"/>
+      <c r="CS152" s="56"/>
+      <c r="CT152" s="128"/>
       <c r="CU152" s="5"/>
       <c r="CV152" s="5"/>
-    </row>
-    <row r="153" spans="1:100">
+      <c r="CW152" s="5"/>
+    </row>
+    <row r="153" spans="1:101">
       <c r="A153" s="25"/>
       <c r="B153" s="4">
         <v>2013</v>
@@ -22873,20 +23028,21 @@
       <c r="CH153" s="76"/>
       <c r="CI153" s="76"/>
       <c r="CJ153" s="62"/>
-      <c r="CK153" s="56"/>
-      <c r="CL153" s="76"/>
+      <c r="CK153" s="62"/>
+      <c r="CL153" s="56"/>
       <c r="CM153" s="76"/>
       <c r="CN153" s="76"/>
       <c r="CO153" s="76"/>
       <c r="CP153" s="76"/>
       <c r="CQ153" s="76"/>
-      <c r="CR153" s="56"/>
-      <c r="CS153" s="128"/>
-      <c r="CT153" s="5"/>
+      <c r="CR153" s="76"/>
+      <c r="CS153" s="56"/>
+      <c r="CT153" s="128"/>
       <c r="CU153" s="5"/>
       <c r="CV153" s="5"/>
-    </row>
-    <row r="154" spans="1:100">
+      <c r="CW153" s="5"/>
+    </row>
+    <row r="154" spans="1:101">
       <c r="A154" s="25"/>
       <c r="B154" s="4">
         <v>2012</v>
@@ -22980,21 +23136,22 @@
       <c r="CH154" s="76"/>
       <c r="CI154" s="76"/>
       <c r="CJ154" s="62"/>
-      <c r="CK154" s="56"/>
-      <c r="CL154" s="76"/>
+      <c r="CK154" s="62"/>
+      <c r="CL154" s="56"/>
       <c r="CM154" s="76"/>
       <c r="CN154" s="76"/>
       <c r="CO154" s="76"/>
       <c r="CP154" s="76"/>
       <c r="CQ154" s="76"/>
-      <c r="CR154" s="56"/>
-      <c r="CS154" s="128"/>
-      <c r="CT154" s="5"/>
+      <c r="CR154" s="76"/>
+      <c r="CS154" s="56"/>
+      <c r="CT154" s="128"/>
       <c r="CU154" s="5"/>
       <c r="CV154" s="5"/>
-    </row>
-    <row r="155" spans="1:100">
-      <c r="A155" s="175" t="s">
+      <c r="CW154" s="5"/>
+    </row>
+    <row r="155" spans="1:101">
+      <c r="A155" s="27" t="s">
         <v>107</v>
       </c>
       <c r="B155" s="4">
@@ -23145,28 +23302,29 @@
         <f t="shared" ref="CI155:CI161" si="51">CC155+CG155</f>
         <v>10605370084.47</v>
       </c>
-      <c r="CJ155" s="62">
-        <f t="shared" ref="CJ155:CJ161" si="52">CE155/BX155</f>
+      <c r="CJ155" s="62"/>
+      <c r="CK155" s="62">
+        <f t="shared" ref="CK155:CK161" si="52">CE155/BX155</f>
         <v>0</v>
       </c>
-      <c r="CK155" s="56">
-        <f t="shared" ref="CK155:CK161" si="53">CI155/CA155</f>
+      <c r="CL155" s="56">
+        <f t="shared" ref="CL155:CL161" si="53">CI155/CA155</f>
         <v>1.00242695249879</v>
       </c>
-      <c r="CL155" s="76"/>
       <c r="CM155" s="76"/>
       <c r="CN155" s="76"/>
       <c r="CO155" s="76"/>
       <c r="CP155" s="76"/>
       <c r="CQ155" s="76"/>
-      <c r="CR155" s="56"/>
-      <c r="CS155" s="128"/>
-      <c r="CT155" s="5"/>
+      <c r="CR155" s="76"/>
+      <c r="CS155" s="56"/>
+      <c r="CT155" s="128"/>
       <c r="CU155" s="5"/>
       <c r="CV155" s="5"/>
-    </row>
-    <row r="156" spans="1:100">
-      <c r="A156" s="175"/>
+      <c r="CW155" s="5"/>
+    </row>
+    <row r="156" spans="1:101">
+      <c r="A156" s="27"/>
       <c r="B156" s="4">
         <v>2021</v>
       </c>
@@ -23315,28 +23473,29 @@
         <f t="shared" si="51"/>
         <v>10201152011.99</v>
       </c>
-      <c r="CJ156" s="62">
+      <c r="CJ156" s="62"/>
+      <c r="CK156" s="62">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="CK156" s="56">
+      <c r="CL156" s="56">
         <f t="shared" si="53"/>
         <v>1.31121993788473</v>
       </c>
-      <c r="CL156" s="76"/>
       <c r="CM156" s="76"/>
       <c r="CN156" s="76"/>
       <c r="CO156" s="76"/>
       <c r="CP156" s="76"/>
       <c r="CQ156" s="76"/>
-      <c r="CR156" s="56"/>
-      <c r="CS156" s="128"/>
-      <c r="CT156" s="5"/>
+      <c r="CR156" s="76"/>
+      <c r="CS156" s="56"/>
+      <c r="CT156" s="128"/>
       <c r="CU156" s="5"/>
       <c r="CV156" s="5"/>
-    </row>
-    <row r="157" spans="1:100">
-      <c r="A157" s="175"/>
+      <c r="CW156" s="5"/>
+    </row>
+    <row r="157" spans="1:101">
+      <c r="A157" s="27"/>
       <c r="B157" s="4">
         <v>2020</v>
       </c>
@@ -23481,28 +23640,29 @@
         <f t="shared" si="51"/>
         <v>8746321670.57</v>
       </c>
-      <c r="CJ157" s="62">
+      <c r="CJ157" s="62"/>
+      <c r="CK157" s="62">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="CK157" s="56">
+      <c r="CL157" s="56">
         <f t="shared" si="53"/>
         <v>0.785562834149919</v>
       </c>
-      <c r="CL157" s="76"/>
       <c r="CM157" s="76"/>
       <c r="CN157" s="76"/>
       <c r="CO157" s="76"/>
       <c r="CP157" s="76"/>
       <c r="CQ157" s="76"/>
-      <c r="CR157" s="56"/>
-      <c r="CS157" s="128"/>
-      <c r="CT157" s="5"/>
+      <c r="CR157" s="76"/>
+      <c r="CS157" s="56"/>
+      <c r="CT157" s="128"/>
       <c r="CU157" s="5"/>
       <c r="CV157" s="5"/>
-    </row>
-    <row r="158" spans="1:100">
-      <c r="A158" s="175"/>
+      <c r="CW157" s="5"/>
+    </row>
+    <row r="158" spans="1:101">
+      <c r="A158" s="27"/>
       <c r="B158" s="4">
         <v>2019</v>
       </c>
@@ -23645,125 +23805,126 @@
         <f t="shared" si="51"/>
         <v>8288319109.06</v>
       </c>
-      <c r="CJ158" s="62">
+      <c r="CJ158" s="62"/>
+      <c r="CK158" s="62">
         <f t="shared" si="52"/>
         <v>0</v>
       </c>
-      <c r="CK158" s="56">
+      <c r="CL158" s="56">
         <f t="shared" si="53"/>
         <v>0.769249008451605</v>
       </c>
-      <c r="CL158" s="76"/>
       <c r="CM158" s="76"/>
       <c r="CN158" s="76"/>
       <c r="CO158" s="76"/>
       <c r="CP158" s="76"/>
       <c r="CQ158" s="76"/>
-      <c r="CR158" s="56"/>
-      <c r="CS158" s="128"/>
-      <c r="CT158" s="5"/>
+      <c r="CR158" s="76"/>
+      <c r="CS158" s="56"/>
+      <c r="CT158" s="128"/>
       <c r="CU158" s="5"/>
       <c r="CV158" s="5"/>
-    </row>
-    <row r="159" spans="1:100">
-      <c r="A159" s="168"/>
+      <c r="CW158" s="5"/>
+    </row>
+    <row r="159" spans="1:101">
+      <c r="A159" s="41"/>
       <c r="B159" s="17">
         <v>2018</v>
       </c>
-      <c r="C159" s="176"/>
+      <c r="C159" s="174"/>
       <c r="D159" s="41"/>
       <c r="E159" s="41"/>
       <c r="F159" s="41"/>
       <c r="G159" s="41"/>
       <c r="H159" s="41"/>
-      <c r="I159" s="176">
+      <c r="I159" s="174">
         <v>47606204460.43</v>
       </c>
-      <c r="J159" s="183"/>
-      <c r="K159" s="184">
+      <c r="J159" s="180"/>
+      <c r="K159" s="181">
         <v>28037221920.44</v>
       </c>
-      <c r="L159" s="185"/>
-      <c r="M159" s="184"/>
-      <c r="N159" s="185"/>
-      <c r="O159" s="184"/>
-      <c r="P159" s="184">
+      <c r="L159" s="182"/>
+      <c r="M159" s="181"/>
+      <c r="N159" s="182"/>
+      <c r="O159" s="181"/>
+      <c r="P159" s="181">
         <v>289000</v>
       </c>
-      <c r="Q159" s="184"/>
-      <c r="R159" s="184"/>
-      <c r="S159" s="184">
+      <c r="Q159" s="181"/>
+      <c r="R159" s="181"/>
+      <c r="S159" s="181">
         <v>133664814.17</v>
       </c>
       <c r="T159" s="72">
         <v>1523000000</v>
       </c>
-      <c r="U159" s="184"/>
-      <c r="V159" s="184"/>
-      <c r="W159" s="184"/>
-      <c r="X159" s="184"/>
-      <c r="Y159" s="184"/>
-      <c r="Z159" s="184"/>
-      <c r="AA159" s="184"/>
-      <c r="AB159" s="184">
+      <c r="U159" s="181"/>
+      <c r="V159" s="181"/>
+      <c r="W159" s="181"/>
+      <c r="X159" s="181"/>
+      <c r="Y159" s="181"/>
+      <c r="Z159" s="181"/>
+      <c r="AA159" s="181"/>
+      <c r="AB159" s="181">
         <v>831010989.62</v>
       </c>
-      <c r="AC159" s="184"/>
-      <c r="AD159" s="184">
+      <c r="AC159" s="181"/>
+      <c r="AD159" s="181">
         <v>1909387113.45</v>
       </c>
-      <c r="AE159" s="184"/>
-      <c r="AF159" s="192"/>
-      <c r="AG159" s="192"/>
-      <c r="AH159" s="192">
+      <c r="AE159" s="181"/>
+      <c r="AF159" s="189"/>
+      <c r="AG159" s="189"/>
+      <c r="AH159" s="189">
         <v>11051003654.02</v>
       </c>
-      <c r="AI159" s="192"/>
-      <c r="AJ159" s="192"/>
-      <c r="AK159" s="192"/>
-      <c r="AL159" s="192">
+      <c r="AI159" s="189"/>
+      <c r="AJ159" s="189"/>
+      <c r="AK159" s="189"/>
+      <c r="AL159" s="189">
         <v>498843.46</v>
       </c>
       <c r="AM159" s="77">
         <f t="shared" si="33"/>
         <v>13791900600.55</v>
       </c>
-      <c r="AN159" s="192"/>
-      <c r="AO159" s="185"/>
-      <c r="AP159" s="185"/>
-      <c r="AQ159" s="192"/>
-      <c r="AR159" s="185"/>
-      <c r="AS159" s="185"/>
-      <c r="AT159" s="192"/>
-      <c r="AU159" s="192"/>
-      <c r="AV159" s="192"/>
-      <c r="AW159" s="192"/>
-      <c r="AX159" s="192"/>
-      <c r="AY159" s="192"/>
-      <c r="AZ159" s="192"/>
-      <c r="BA159" s="192"/>
-      <c r="BB159" s="196"/>
-      <c r="BC159" s="197"/>
-      <c r="BD159" s="196"/>
-      <c r="BE159" s="196"/>
-      <c r="BF159" s="202"/>
-      <c r="BG159" s="202"/>
-      <c r="BH159" s="202"/>
-      <c r="BI159" s="202"/>
-      <c r="BJ159" s="202"/>
-      <c r="BK159" s="202"/>
-      <c r="BL159" s="202"/>
-      <c r="BM159" s="196"/>
-      <c r="BN159" s="196"/>
-      <c r="BO159" s="205"/>
-      <c r="BP159" s="205"/>
-      <c r="BQ159" s="205"/>
-      <c r="BR159" s="205"/>
-      <c r="BS159" s="205"/>
-      <c r="BT159" s="205"/>
-      <c r="BU159" s="205"/>
-      <c r="BV159" s="205"/>
-      <c r="BW159" s="205"/>
+      <c r="AN159" s="189"/>
+      <c r="AO159" s="182"/>
+      <c r="AP159" s="182"/>
+      <c r="AQ159" s="189"/>
+      <c r="AR159" s="182"/>
+      <c r="AS159" s="182"/>
+      <c r="AT159" s="189"/>
+      <c r="AU159" s="189"/>
+      <c r="AV159" s="189"/>
+      <c r="AW159" s="189"/>
+      <c r="AX159" s="189"/>
+      <c r="AY159" s="189"/>
+      <c r="AZ159" s="189"/>
+      <c r="BA159" s="189"/>
+      <c r="BB159" s="193"/>
+      <c r="BC159" s="194"/>
+      <c r="BD159" s="193"/>
+      <c r="BE159" s="193"/>
+      <c r="BF159" s="199"/>
+      <c r="BG159" s="199"/>
+      <c r="BH159" s="199"/>
+      <c r="BI159" s="199"/>
+      <c r="BJ159" s="199"/>
+      <c r="BK159" s="199"/>
+      <c r="BL159" s="199"/>
+      <c r="BM159" s="193"/>
+      <c r="BN159" s="193"/>
+      <c r="BO159" s="202"/>
+      <c r="BP159" s="202"/>
+      <c r="BQ159" s="202"/>
+      <c r="BR159" s="202"/>
+      <c r="BS159" s="202"/>
+      <c r="BT159" s="202"/>
+      <c r="BU159" s="202"/>
+      <c r="BV159" s="202"/>
+      <c r="BW159" s="202"/>
       <c r="BX159" s="103">
         <f t="shared" si="46"/>
         <v>28037221920.44</v>
@@ -23781,18 +23942,18 @@
         <f t="shared" si="49"/>
         <v>13.2489314642181</v>
       </c>
-      <c r="CC159" s="207">
+      <c r="CC159" s="204">
         <v>7690828964.17</v>
       </c>
       <c r="CD159" s="62">
         <f t="shared" si="54"/>
         <v>0.0807932779864668</v>
       </c>
-      <c r="CE159" s="192">
+      <c r="CE159" s="189">
         <v>7577632378.18</v>
       </c>
-      <c r="CF159" s="192"/>
-      <c r="CG159" s="192">
+      <c r="CF159" s="189"/>
+      <c r="CG159" s="189">
         <v>-60271167.99</v>
       </c>
       <c r="CH159" s="76">
@@ -23803,113 +23964,114 @@
         <f t="shared" si="51"/>
         <v>7630557796.18</v>
       </c>
-      <c r="CJ159" s="62">
+      <c r="CJ159" s="62"/>
+      <c r="CK159" s="62">
         <f t="shared" si="52"/>
         <v>0.270270442616701</v>
       </c>
-      <c r="CK159" s="56">
+      <c r="CL159" s="56">
         <f t="shared" si="53"/>
         <v>0.535653610391073</v>
       </c>
-      <c r="CL159" s="184"/>
-      <c r="CM159" s="184"/>
-      <c r="CN159" s="184"/>
-      <c r="CO159" s="184"/>
-      <c r="CP159" s="184"/>
-      <c r="CQ159" s="184"/>
-      <c r="CR159" s="211"/>
-      <c r="CS159" s="213"/>
-      <c r="CT159" s="205"/>
-      <c r="CU159" s="205"/>
-      <c r="CV159" s="205"/>
-    </row>
-    <row r="160" s="115" customFormat="1" spans="1:97">
-      <c r="A160" s="177"/>
-      <c r="B160" s="178">
+      <c r="CM159" s="181"/>
+      <c r="CN159" s="181"/>
+      <c r="CO159" s="181"/>
+      <c r="CP159" s="181"/>
+      <c r="CQ159" s="181"/>
+      <c r="CR159" s="181"/>
+      <c r="CS159" s="208"/>
+      <c r="CT159" s="209"/>
+      <c r="CU159" s="202"/>
+      <c r="CV159" s="202"/>
+      <c r="CW159" s="202"/>
+    </row>
+    <row r="160" s="115" customFormat="1" spans="1:98">
+      <c r="A160" s="175"/>
+      <c r="B160" s="176">
         <v>2017</v>
       </c>
-      <c r="C160" s="179"/>
-      <c r="D160" s="180"/>
-      <c r="E160" s="180"/>
-      <c r="F160" s="180"/>
-      <c r="G160" s="180"/>
-      <c r="H160" s="180"/>
-      <c r="I160" s="179">
+      <c r="C160" s="177"/>
+      <c r="D160" s="175"/>
+      <c r="E160" s="175"/>
+      <c r="F160" s="175"/>
+      <c r="G160" s="175"/>
+      <c r="H160" s="175"/>
+      <c r="I160" s="177">
         <v>49300355318.14</v>
       </c>
-      <c r="J160" s="186"/>
-      <c r="K160" s="187">
+      <c r="J160" s="183"/>
+      <c r="K160" s="184">
         <v>25239817505.22</v>
       </c>
-      <c r="L160" s="188"/>
-      <c r="M160" s="187"/>
-      <c r="N160" s="188"/>
-      <c r="O160" s="187"/>
-      <c r="P160" s="187">
+      <c r="L160" s="185"/>
+      <c r="M160" s="184"/>
+      <c r="N160" s="185"/>
+      <c r="O160" s="184"/>
+      <c r="P160" s="184">
         <v>289000</v>
       </c>
-      <c r="Q160" s="187"/>
-      <c r="R160" s="187"/>
-      <c r="S160" s="187">
+      <c r="Q160" s="184"/>
+      <c r="R160" s="184"/>
+      <c r="S160" s="184">
         <v>64037282.56</v>
       </c>
-      <c r="T160" s="184">
+      <c r="T160" s="181">
         <v>7860000000</v>
       </c>
-      <c r="U160" s="187"/>
-      <c r="V160" s="187"/>
-      <c r="W160" s="187"/>
-      <c r="X160" s="187"/>
-      <c r="Y160" s="187"/>
-      <c r="Z160" s="187"/>
-      <c r="AA160" s="187"/>
-      <c r="AB160" s="187">
+      <c r="U160" s="184"/>
+      <c r="V160" s="184"/>
+      <c r="W160" s="184"/>
+      <c r="X160" s="184"/>
+      <c r="Y160" s="184"/>
+      <c r="Z160" s="184"/>
+      <c r="AA160" s="184"/>
+      <c r="AB160" s="184">
         <v>651819595.43</v>
       </c>
-      <c r="AD160" s="187">
+      <c r="AD160" s="184">
         <v>1765185096.75</v>
       </c>
-      <c r="AE160" s="187"/>
-      <c r="AF160" s="193"/>
-      <c r="AG160" s="193"/>
-      <c r="AH160" s="194">
+      <c r="AE160" s="184"/>
+      <c r="AF160" s="190"/>
+      <c r="AG160" s="190"/>
+      <c r="AH160" s="191">
         <v>21823066175.5</v>
       </c>
-      <c r="AI160" s="193"/>
-      <c r="AJ160" s="193"/>
-      <c r="AK160" s="193"/>
-      <c r="AL160" s="193"/>
+      <c r="AI160" s="190"/>
+      <c r="AJ160" s="190"/>
+      <c r="AK160" s="190"/>
+      <c r="AL160" s="190"/>
       <c r="AM160" s="77">
         <f t="shared" si="33"/>
         <v>24240070867.68</v>
       </c>
-      <c r="AN160" s="193"/>
-      <c r="AO160" s="188"/>
-      <c r="AP160" s="188"/>
-      <c r="AQ160" s="193"/>
-      <c r="AR160" s="188"/>
-      <c r="AS160" s="188"/>
-      <c r="AT160" s="193"/>
-      <c r="AU160" s="193"/>
-      <c r="AV160" s="193"/>
-      <c r="AW160" s="193"/>
-      <c r="AX160" s="193"/>
-      <c r="AY160" s="193"/>
-      <c r="AZ160" s="193"/>
-      <c r="BA160" s="193"/>
-      <c r="BB160" s="198"/>
-      <c r="BC160" s="199"/>
-      <c r="BD160" s="198"/>
-      <c r="BE160" s="198"/>
-      <c r="BF160" s="203"/>
-      <c r="BG160" s="203"/>
-      <c r="BH160" s="203"/>
-      <c r="BI160" s="203"/>
-      <c r="BJ160" s="203"/>
-      <c r="BK160" s="203"/>
-      <c r="BL160" s="203"/>
-      <c r="BM160" s="198"/>
-      <c r="BN160" s="198"/>
+      <c r="AN160" s="190"/>
+      <c r="AO160" s="185"/>
+      <c r="AP160" s="185"/>
+      <c r="AQ160" s="190"/>
+      <c r="AR160" s="185"/>
+      <c r="AS160" s="185"/>
+      <c r="AT160" s="190"/>
+      <c r="AU160" s="190"/>
+      <c r="AV160" s="190"/>
+      <c r="AW160" s="190"/>
+      <c r="AX160" s="190"/>
+      <c r="AY160" s="190"/>
+      <c r="AZ160" s="190"/>
+      <c r="BA160" s="190"/>
+      <c r="BB160" s="195"/>
+      <c r="BC160" s="196"/>
+      <c r="BD160" s="195"/>
+      <c r="BE160" s="195"/>
+      <c r="BF160" s="200"/>
+      <c r="BG160" s="200"/>
+      <c r="BH160" s="200"/>
+      <c r="BI160" s="200"/>
+      <c r="BJ160" s="200"/>
+      <c r="BK160" s="200"/>
+      <c r="BL160" s="200"/>
+      <c r="BM160" s="195"/>
+      <c r="BN160" s="195"/>
       <c r="BX160" s="103">
         <f t="shared" si="46"/>
         <v>25239817505.22</v>
@@ -23927,18 +24089,18 @@
         <f t="shared" si="49"/>
         <v>-0.860541378081072</v>
       </c>
-      <c r="CC160" s="194">
+      <c r="CC160" s="191">
         <v>7115911174.52</v>
       </c>
       <c r="CD160" s="62">
         <f t="shared" si="54"/>
         <v>0.288150839386482</v>
       </c>
-      <c r="CE160" s="208">
+      <c r="CE160" s="205">
         <v>7073973345.81</v>
       </c>
-      <c r="CF160" s="193"/>
-      <c r="CG160" s="208">
+      <c r="CF160" s="190"/>
+      <c r="CG160" s="205">
         <v>113485343.63</v>
       </c>
       <c r="CH160" s="76">
@@ -23949,108 +24111,109 @@
         <f t="shared" si="51"/>
         <v>7229396518.15</v>
       </c>
-      <c r="CJ160" s="62">
+      <c r="CJ160" s="62"/>
+      <c r="CK160" s="62">
         <f t="shared" si="52"/>
         <v>0.2802703840607</v>
       </c>
-      <c r="CK160" s="56">
+      <c r="CL160" s="56">
         <f t="shared" si="53"/>
         <v>7.23122864002705</v>
       </c>
-      <c r="CL160" s="187"/>
-      <c r="CM160" s="187"/>
-      <c r="CN160" s="187"/>
-      <c r="CO160" s="187"/>
-      <c r="CP160" s="187"/>
-      <c r="CQ160" s="187"/>
-      <c r="CR160" s="212"/>
-      <c r="CS160" s="214"/>
-    </row>
-    <row r="161" s="115" customFormat="1" spans="1:97">
-      <c r="A161" s="177"/>
-      <c r="B161" s="178">
+      <c r="CM160" s="184"/>
+      <c r="CN160" s="184"/>
+      <c r="CO160" s="184"/>
+      <c r="CP160" s="184"/>
+      <c r="CQ160" s="184"/>
+      <c r="CR160" s="184"/>
+      <c r="CS160" s="210"/>
+      <c r="CT160" s="211"/>
+    </row>
+    <row r="161" s="115" customFormat="1" spans="1:98">
+      <c r="A161" s="175"/>
+      <c r="B161" s="176">
         <v>2016</v>
       </c>
-      <c r="C161" s="179"/>
-      <c r="D161" s="180"/>
-      <c r="E161" s="180"/>
-      <c r="F161" s="180"/>
-      <c r="G161" s="180"/>
-      <c r="H161" s="180"/>
-      <c r="I161" s="179">
+      <c r="C161" s="177"/>
+      <c r="D161" s="175"/>
+      <c r="E161" s="175"/>
+      <c r="F161" s="175"/>
+      <c r="G161" s="175"/>
+      <c r="H161" s="175"/>
+      <c r="I161" s="177">
         <v>39262272885.74</v>
       </c>
-      <c r="J161" s="186"/>
-      <c r="K161" s="187">
+      <c r="J161" s="183"/>
+      <c r="K161" s="184">
         <v>23235887876.51</v>
       </c>
-      <c r="L161" s="188"/>
-      <c r="M161" s="187"/>
-      <c r="N161" s="188"/>
-      <c r="O161" s="187"/>
-      <c r="P161" s="187">
+      <c r="L161" s="185"/>
+      <c r="M161" s="184"/>
+      <c r="N161" s="185"/>
+      <c r="O161" s="184"/>
+      <c r="P161" s="184">
         <v>289000</v>
       </c>
-      <c r="Q161" s="187"/>
-      <c r="R161" s="187"/>
-      <c r="S161" s="187"/>
-      <c r="T161" s="187">
+      <c r="Q161" s="184"/>
+      <c r="R161" s="184"/>
+      <c r="S161" s="184"/>
+      <c r="T161" s="184">
         <v>150000000</v>
       </c>
-      <c r="U161" s="187"/>
-      <c r="V161" s="187"/>
-      <c r="W161" s="187"/>
-      <c r="X161" s="187"/>
-      <c r="Y161" s="187"/>
-      <c r="Z161" s="187"/>
-      <c r="AA161" s="187"/>
-      <c r="AB161" s="187">
+      <c r="U161" s="184"/>
+      <c r="V161" s="184"/>
+      <c r="W161" s="184"/>
+      <c r="X161" s="184"/>
+      <c r="Y161" s="184"/>
+      <c r="Z161" s="184"/>
+      <c r="AA161" s="184"/>
+      <c r="AB161" s="184">
         <v>612364316.3</v>
       </c>
-      <c r="AD161" s="194">
+      <c r="AD161" s="191">
         <v>1631100350.13</v>
       </c>
-      <c r="AE161" s="187"/>
-      <c r="AF161" s="193"/>
-      <c r="AG161" s="193"/>
-      <c r="AH161" s="193">
+      <c r="AE161" s="184"/>
+      <c r="AF161" s="190"/>
+      <c r="AG161" s="190"/>
+      <c r="AH161" s="190">
         <v>13823654267.84</v>
       </c>
-      <c r="AI161" s="193"/>
-      <c r="AJ161" s="193"/>
-      <c r="AK161" s="193"/>
-      <c r="AL161" s="193"/>
+      <c r="AI161" s="190"/>
+      <c r="AJ161" s="190"/>
+      <c r="AK161" s="190"/>
+      <c r="AL161" s="190"/>
       <c r="AM161" s="77">
         <f t="shared" si="33"/>
         <v>16067118934.27</v>
       </c>
-      <c r="AN161" s="193"/>
-      <c r="AO161" s="188"/>
-      <c r="AP161" s="188"/>
-      <c r="AQ161" s="193"/>
-      <c r="AR161" s="188"/>
-      <c r="AS161" s="188"/>
-      <c r="AT161" s="193"/>
-      <c r="AU161" s="193"/>
-      <c r="AV161" s="193"/>
-      <c r="AW161" s="193"/>
-      <c r="AX161" s="193"/>
-      <c r="AY161" s="193"/>
-      <c r="AZ161" s="193"/>
-      <c r="BA161" s="193"/>
-      <c r="BB161" s="198"/>
-      <c r="BC161" s="199"/>
-      <c r="BD161" s="198"/>
-      <c r="BE161" s="198"/>
-      <c r="BF161" s="203"/>
-      <c r="BG161" s="203"/>
-      <c r="BH161" s="203"/>
-      <c r="BI161" s="203"/>
-      <c r="BJ161" s="203"/>
-      <c r="BK161" s="203"/>
-      <c r="BL161" s="203"/>
-      <c r="BM161" s="198"/>
-      <c r="BN161" s="198"/>
+      <c r="AN161" s="190"/>
+      <c r="AO161" s="185"/>
+      <c r="AP161" s="185"/>
+      <c r="AQ161" s="190"/>
+      <c r="AR161" s="185"/>
+      <c r="AS161" s="185"/>
+      <c r="AT161" s="190"/>
+      <c r="AU161" s="190"/>
+      <c r="AV161" s="190"/>
+      <c r="AW161" s="190"/>
+      <c r="AX161" s="190"/>
+      <c r="AY161" s="190"/>
+      <c r="AZ161" s="190"/>
+      <c r="BA161" s="190"/>
+      <c r="BB161" s="195"/>
+      <c r="BC161" s="196"/>
+      <c r="BD161" s="195"/>
+      <c r="BE161" s="195"/>
+      <c r="BF161" s="200"/>
+      <c r="BG161" s="200"/>
+      <c r="BH161" s="200"/>
+      <c r="BI161" s="200"/>
+      <c r="BJ161" s="200"/>
+      <c r="BK161" s="200"/>
+      <c r="BL161" s="200"/>
+      <c r="BM161" s="195"/>
+      <c r="BN161" s="195"/>
       <c r="BX161" s="103">
         <f t="shared" si="46"/>
         <v>23235887876.51</v>
@@ -24065,18 +24228,18 @@
         <v>7168768942.24</v>
       </c>
       <c r="CB161" s="61"/>
-      <c r="CC161" s="194">
+      <c r="CC161" s="191">
         <v>5524128818.57</v>
       </c>
       <c r="CD161" s="62" t="e">
         <f t="shared" si="54"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CE161" s="208">
+      <c r="CE161" s="205">
         <v>6632072003.91</v>
       </c>
-      <c r="CF161" s="193"/>
-      <c r="CG161" s="208">
+      <c r="CF161" s="190"/>
+      <c r="CG161" s="205">
         <v>23879679.28</v>
       </c>
       <c r="CH161" s="76">
@@ -24087,132 +24250,134 @@
         <f t="shared" si="51"/>
         <v>5548008497.85</v>
       </c>
-      <c r="CJ161" s="62">
+      <c r="CJ161" s="62"/>
+      <c r="CK161" s="62">
         <f t="shared" si="52"/>
         <v>0.285423653236621</v>
       </c>
-      <c r="CK161" s="56">
+      <c r="CL161" s="56">
         <f t="shared" si="53"/>
         <v>0.773913700183568</v>
       </c>
-      <c r="CL161" s="187"/>
-      <c r="CM161" s="187"/>
-      <c r="CN161" s="187"/>
-      <c r="CO161" s="187"/>
-      <c r="CP161" s="187"/>
-      <c r="CQ161" s="187"/>
-      <c r="CR161" s="212"/>
-      <c r="CS161" s="214"/>
-    </row>
-    <row r="162" spans="1:100">
-      <c r="A162" s="170"/>
+      <c r="CM161" s="184"/>
+      <c r="CN161" s="184"/>
+      <c r="CO161" s="184"/>
+      <c r="CP161" s="184"/>
+      <c r="CQ161" s="184"/>
+      <c r="CR161" s="184"/>
+      <c r="CS161" s="210"/>
+      <c r="CT161" s="211"/>
+    </row>
+    <row r="162" spans="1:101">
+      <c r="A162" s="44"/>
       <c r="B162" s="19">
         <v>2015</v>
       </c>
-      <c r="C162" s="181"/>
+      <c r="C162" s="178"/>
       <c r="D162" s="44"/>
       <c r="E162" s="44"/>
       <c r="F162" s="44"/>
       <c r="G162" s="44"/>
       <c r="H162" s="44"/>
-      <c r="I162" s="181"/>
-      <c r="J162" s="189"/>
-      <c r="K162" s="190"/>
-      <c r="L162" s="191"/>
-      <c r="M162" s="190"/>
-      <c r="N162" s="191"/>
-      <c r="O162" s="190"/>
-      <c r="P162" s="190"/>
-      <c r="Q162" s="190"/>
-      <c r="R162" s="190"/>
-      <c r="S162" s="190"/>
-      <c r="T162" s="190"/>
-      <c r="U162" s="190"/>
-      <c r="V162" s="190"/>
-      <c r="W162" s="190"/>
-      <c r="X162" s="190"/>
-      <c r="Y162" s="190"/>
-      <c r="Z162" s="190"/>
-      <c r="AA162" s="190"/>
-      <c r="AB162" s="190"/>
-      <c r="AC162" s="190"/>
-      <c r="AD162" s="190"/>
-      <c r="AE162" s="190"/>
-      <c r="AF162" s="195"/>
-      <c r="AG162" s="195"/>
-      <c r="AH162" s="195"/>
-      <c r="AI162" s="195"/>
-      <c r="AJ162" s="195"/>
-      <c r="AK162" s="195"/>
-      <c r="AL162" s="195"/>
+      <c r="I162" s="178"/>
+      <c r="J162" s="186"/>
+      <c r="K162" s="187"/>
+      <c r="L162" s="188"/>
+      <c r="M162" s="187"/>
+      <c r="N162" s="188"/>
+      <c r="O162" s="187"/>
+      <c r="P162" s="187"/>
+      <c r="Q162" s="187"/>
+      <c r="R162" s="187"/>
+      <c r="S162" s="187"/>
+      <c r="T162" s="187"/>
+      <c r="U162" s="187"/>
+      <c r="V162" s="187"/>
+      <c r="W162" s="187"/>
+      <c r="X162" s="187"/>
+      <c r="Y162" s="187"/>
+      <c r="Z162" s="187"/>
+      <c r="AA162" s="187"/>
+      <c r="AB162" s="187"/>
+      <c r="AC162" s="187"/>
+      <c r="AD162" s="187"/>
+      <c r="AE162" s="187"/>
+      <c r="AF162" s="192"/>
+      <c r="AG162" s="192"/>
+      <c r="AH162" s="192"/>
+      <c r="AI162" s="192"/>
+      <c r="AJ162" s="192"/>
+      <c r="AK162" s="192"/>
+      <c r="AL162" s="192"/>
       <c r="AM162" s="77">
         <f t="shared" si="33"/>
         <v>0</v>
       </c>
-      <c r="AN162" s="195"/>
-      <c r="AO162" s="191"/>
-      <c r="AP162" s="191"/>
-      <c r="AQ162" s="195"/>
-      <c r="AR162" s="191"/>
-      <c r="AS162" s="191"/>
-      <c r="AT162" s="195"/>
-      <c r="AU162" s="195"/>
-      <c r="AV162" s="195"/>
-      <c r="AW162" s="195"/>
-      <c r="AX162" s="195"/>
-      <c r="AY162" s="195"/>
-      <c r="AZ162" s="195"/>
-      <c r="BA162" s="195"/>
-      <c r="BB162" s="200"/>
-      <c r="BC162" s="201"/>
-      <c r="BD162" s="200"/>
-      <c r="BE162" s="200"/>
-      <c r="BF162" s="204"/>
-      <c r="BG162" s="204"/>
-      <c r="BH162" s="204"/>
-      <c r="BI162" s="204"/>
-      <c r="BJ162" s="204"/>
-      <c r="BK162" s="204"/>
-      <c r="BL162" s="204"/>
-      <c r="BM162" s="200"/>
-      <c r="BN162" s="200"/>
-      <c r="BO162" s="206"/>
-      <c r="BP162" s="206"/>
-      <c r="BQ162" s="206"/>
-      <c r="BR162" s="206"/>
-      <c r="BS162" s="206"/>
-      <c r="BT162" s="206"/>
-      <c r="BU162" s="206"/>
-      <c r="BV162" s="206"/>
-      <c r="BW162" s="206"/>
-      <c r="BX162" s="206"/>
-      <c r="BY162" s="191"/>
-      <c r="BZ162" s="191"/>
-      <c r="CA162" s="195"/>
-      <c r="CB162" s="191"/>
-      <c r="CC162" s="195"/>
-      <c r="CD162" s="191"/>
-      <c r="CE162" s="195"/>
-      <c r="CF162" s="195"/>
-      <c r="CG162" s="195"/>
-      <c r="CH162" s="190"/>
-      <c r="CI162" s="190"/>
-      <c r="CJ162" s="191"/>
-      <c r="CK162" s="210"/>
-      <c r="CL162" s="190"/>
-      <c r="CM162" s="190"/>
-      <c r="CN162" s="190"/>
-      <c r="CO162" s="190"/>
-      <c r="CP162" s="190"/>
-      <c r="CQ162" s="190"/>
-      <c r="CR162" s="210"/>
-      <c r="CS162" s="215"/>
-      <c r="CT162" s="206"/>
-      <c r="CU162" s="206"/>
-      <c r="CV162" s="206"/>
-    </row>
-    <row r="163" spans="1:100">
-      <c r="A163" s="175"/>
+      <c r="AN162" s="192"/>
+      <c r="AO162" s="188"/>
+      <c r="AP162" s="188"/>
+      <c r="AQ162" s="192"/>
+      <c r="AR162" s="188"/>
+      <c r="AS162" s="188"/>
+      <c r="AT162" s="192"/>
+      <c r="AU162" s="192"/>
+      <c r="AV162" s="192"/>
+      <c r="AW162" s="192"/>
+      <c r="AX162" s="192"/>
+      <c r="AY162" s="192"/>
+      <c r="AZ162" s="192"/>
+      <c r="BA162" s="192"/>
+      <c r="BB162" s="197"/>
+      <c r="BC162" s="198"/>
+      <c r="BD162" s="197"/>
+      <c r="BE162" s="197"/>
+      <c r="BF162" s="201"/>
+      <c r="BG162" s="201"/>
+      <c r="BH162" s="201"/>
+      <c r="BI162" s="201"/>
+      <c r="BJ162" s="201"/>
+      <c r="BK162" s="201"/>
+      <c r="BL162" s="201"/>
+      <c r="BM162" s="197"/>
+      <c r="BN162" s="197"/>
+      <c r="BO162" s="203"/>
+      <c r="BP162" s="203"/>
+      <c r="BQ162" s="203"/>
+      <c r="BR162" s="203"/>
+      <c r="BS162" s="203"/>
+      <c r="BT162" s="203"/>
+      <c r="BU162" s="203"/>
+      <c r="BV162" s="203"/>
+      <c r="BW162" s="203"/>
+      <c r="BX162" s="203"/>
+      <c r="BY162" s="188"/>
+      <c r="BZ162" s="188"/>
+      <c r="CA162" s="192"/>
+      <c r="CB162" s="188"/>
+      <c r="CC162" s="192"/>
+      <c r="CD162" s="188"/>
+      <c r="CE162" s="192"/>
+      <c r="CF162" s="192"/>
+      <c r="CG162" s="192"/>
+      <c r="CH162" s="187"/>
+      <c r="CI162" s="187"/>
+      <c r="CJ162" s="188"/>
+      <c r="CK162" s="188"/>
+      <c r="CL162" s="207"/>
+      <c r="CM162" s="187"/>
+      <c r="CN162" s="187"/>
+      <c r="CO162" s="187"/>
+      <c r="CP162" s="187"/>
+      <c r="CQ162" s="187"/>
+      <c r="CR162" s="187"/>
+      <c r="CS162" s="207"/>
+      <c r="CT162" s="212"/>
+      <c r="CU162" s="203"/>
+      <c r="CV162" s="203"/>
+      <c r="CW162" s="203"/>
+    </row>
+    <row r="163" spans="1:101">
+      <c r="A163" s="27"/>
       <c r="B163" s="4">
         <v>2014</v>
       </c>
@@ -24305,21 +24470,22 @@
       <c r="CH163" s="76"/>
       <c r="CI163" s="76"/>
       <c r="CJ163" s="62"/>
-      <c r="CK163" s="56"/>
-      <c r="CL163" s="76"/>
+      <c r="CK163" s="62"/>
+      <c r="CL163" s="56"/>
       <c r="CM163" s="76"/>
       <c r="CN163" s="76"/>
       <c r="CO163" s="76"/>
       <c r="CP163" s="76"/>
       <c r="CQ163" s="76"/>
-      <c r="CR163" s="56"/>
-      <c r="CS163" s="128"/>
-      <c r="CT163" s="5"/>
+      <c r="CR163" s="76"/>
+      <c r="CS163" s="56"/>
+      <c r="CT163" s="128"/>
       <c r="CU163" s="5"/>
       <c r="CV163" s="5"/>
-    </row>
-    <row r="164" spans="1:100">
-      <c r="A164" s="175"/>
+      <c r="CW163" s="5"/>
+    </row>
+    <row r="164" spans="1:101">
+      <c r="A164" s="27"/>
       <c r="B164" s="4">
         <v>2013</v>
       </c>
@@ -24412,21 +24578,22 @@
       <c r="CH164" s="76"/>
       <c r="CI164" s="76"/>
       <c r="CJ164" s="62"/>
-      <c r="CK164" s="56"/>
-      <c r="CL164" s="76"/>
+      <c r="CK164" s="62"/>
+      <c r="CL164" s="56"/>
       <c r="CM164" s="76"/>
       <c r="CN164" s="76"/>
       <c r="CO164" s="76"/>
       <c r="CP164" s="76"/>
       <c r="CQ164" s="76"/>
-      <c r="CR164" s="56"/>
-      <c r="CS164" s="128"/>
-      <c r="CT164" s="5"/>
+      <c r="CR164" s="76"/>
+      <c r="CS164" s="56"/>
+      <c r="CT164" s="128"/>
       <c r="CU164" s="5"/>
       <c r="CV164" s="5"/>
-    </row>
-    <row r="165" spans="1:100">
-      <c r="A165" s="175"/>
+      <c r="CW164" s="5"/>
+    </row>
+    <row r="165" spans="1:101">
+      <c r="A165" s="27"/>
       <c r="B165" s="4">
         <v>2012</v>
       </c>
@@ -24519,21 +24686,22 @@
       <c r="CH165" s="76"/>
       <c r="CI165" s="76"/>
       <c r="CJ165" s="62"/>
-      <c r="CK165" s="56"/>
-      <c r="CL165" s="76"/>
+      <c r="CK165" s="62"/>
+      <c r="CL165" s="56"/>
       <c r="CM165" s="76"/>
       <c r="CN165" s="76"/>
       <c r="CO165" s="76"/>
       <c r="CP165" s="76"/>
       <c r="CQ165" s="76"/>
-      <c r="CR165" s="56"/>
-      <c r="CS165" s="128"/>
-      <c r="CT165" s="5"/>
+      <c r="CR165" s="76"/>
+      <c r="CS165" s="56"/>
+      <c r="CT165" s="128"/>
       <c r="CU165" s="5"/>
       <c r="CV165" s="5"/>
-    </row>
-    <row r="166" spans="1:100">
-      <c r="A166" s="175"/>
+      <c r="CW165" s="5"/>
+    </row>
+    <row r="166" spans="1:101">
+      <c r="A166" s="27"/>
       <c r="B166" s="4">
         <v>2011</v>
       </c>
@@ -24626,18 +24794,19 @@
       <c r="CH166" s="76"/>
       <c r="CI166" s="76"/>
       <c r="CJ166" s="62"/>
-      <c r="CK166" s="56"/>
-      <c r="CL166" s="76"/>
+      <c r="CK166" s="62"/>
+      <c r="CL166" s="56"/>
       <c r="CM166" s="76"/>
       <c r="CN166" s="76"/>
       <c r="CO166" s="76"/>
       <c r="CP166" s="76"/>
       <c r="CQ166" s="76"/>
-      <c r="CR166" s="56"/>
-      <c r="CS166" s="128"/>
-      <c r="CT166" s="5"/>
+      <c r="CR166" s="76"/>
+      <c r="CS166" s="56"/>
+      <c r="CT166" s="128"/>
       <c r="CU166" s="5"/>
       <c r="CV166" s="5"/>
+      <c r="CW166" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="87">
@@ -24714,7 +24883,6 @@
     <mergeCell ref="CG1:CG2"/>
     <mergeCell ref="CH1:CH2"/>
     <mergeCell ref="CI1:CI2"/>
-    <mergeCell ref="CJ1:CJ2"/>
     <mergeCell ref="CK1:CK2"/>
     <mergeCell ref="CL1:CL2"/>
     <mergeCell ref="CM1:CM2"/>
@@ -24728,6 +24896,7 @@
     <mergeCell ref="CU1:CU2"/>
     <mergeCell ref="CV1:CV2"/>
     <mergeCell ref="CW1:CW2"/>
+    <mergeCell ref="CX1:CX2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/酒水_饮料_矿泉水.xlsx
+++ b/我的创作/财务/证券投资/股票/财务报表分析系统/2023/财务/食品饮料行业/酒水_饮料_矿泉水.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27240" windowHeight="13340"/>
+    <workbookView windowWidth="27240" windowHeight="13360"/>
   </bookViews>
   <sheets>
     <sheet name="资产表分析" sheetId="1" r:id="rId1"/>
@@ -2516,11 +2516,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -2559,6 +2559,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -2573,25 +2587,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2611,16 +2619,46 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2634,9 +2672,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2651,51 +2695,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -2831,6 +2831,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2843,7 +2849,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2855,7 +2861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2867,13 +2873,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2885,127 +2999,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3120,6 +3120,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
@@ -3165,6 +3174,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -3190,159 +3214,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="50" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="48" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="49" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="51" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="41" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="41" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="50" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -3351,20 +3357,14 @@
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="214">
+  <cellXfs count="216">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3890,6 +3890,12 @@
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4329,11 +4335,11 @@
   <dimension ref="A1:CY166"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="101" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="CH3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="H84" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="CL5" sqref="CL5"/>
+      <selection pane="bottomRight" activeCell="J92" sqref="J92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -4856,7 +4862,7 @@
       <c r="W3" s="76"/>
       <c r="X3" s="76"/>
       <c r="Y3" s="76">
-        <f t="shared" ref="Y3:Y8" si="0">SUM(O3:X3)</f>
+        <f t="shared" ref="Y3:Y12" si="0">SUM(O3:X3)</f>
         <v>334447942.79</v>
       </c>
       <c r="Z3" s="76">
@@ -4923,7 +4929,7 @@
       <c r="BV3" s="5"/>
       <c r="BW3" s="5"/>
       <c r="BX3" s="103">
-        <f t="shared" ref="BX3:BX8" si="2">K3+Y3</f>
+        <f t="shared" ref="BX3:BX13" si="2">K3+Y3</f>
         <v>205299136196.87</v>
       </c>
       <c r="BY3" s="62"/>
@@ -4937,7 +4943,7 @@
         <v>87879521782.39</v>
       </c>
       <c r="CD3" s="62">
-        <f>(CC3-CC4)/CC4</f>
+        <f t="shared" ref="CD3:CD12" si="4">(CC3-CC4)/CC4</f>
         <v>0.175631923909293</v>
       </c>
       <c r="CE3" s="77"/>
@@ -4948,16 +4954,16 @@
         <v>-1391805826.72</v>
       </c>
       <c r="CH3" s="76">
-        <f t="shared" ref="CH3:CH8" si="4">CE3+CF3+CG3</f>
+        <f t="shared" ref="CH3:CH8" si="5">CE3+CF3+CG3</f>
         <v>-1286221620.48</v>
       </c>
       <c r="CI3" s="76">
-        <f t="shared" ref="CI3:CI8" si="5">CC3+CF3+CG3</f>
+        <f t="shared" ref="CI3:CI8" si="6">CC3+CF3+CG3</f>
         <v>86593300161.91</v>
       </c>
       <c r="CJ3" s="62"/>
       <c r="CK3" s="62">
-        <f t="shared" ref="CK3:CK8" si="6">CE3/BX3</f>
+        <f t="shared" ref="CK3:CK8" si="7">CE3/BX3</f>
         <v>0</v>
       </c>
       <c r="CL3" s="62">
@@ -4965,7 +4971,7 @@
         <v>0.421276570168972</v>
       </c>
       <c r="CM3" s="56">
-        <f t="shared" ref="CM3:CM8" si="7">CI3/CA3</f>
+        <f t="shared" ref="CM3:CM13" si="8">CI3/CA3</f>
         <v>3.28860196363658</v>
       </c>
       <c r="CN3" s="124"/>
@@ -4995,14 +5001,14 @@
         <v>255168195159.9</v>
       </c>
       <c r="J4" s="125">
-        <f t="shared" ref="J4:J12" si="8">(I4-I5)/I5</f>
+        <f t="shared" ref="J4:J12" si="9">(I4-I5)/I5</f>
         <v>0.195750725045582</v>
       </c>
       <c r="K4" s="76">
         <v>196957506705.34</v>
       </c>
       <c r="L4" s="62">
-        <f t="shared" ref="L4:L9" si="9">(K4-K5)/K5</f>
+        <f t="shared" ref="L4:L12" si="10">(K4-K5)/K5</f>
         <v>0.174318534026033</v>
       </c>
       <c r="M4" s="76">
@@ -5103,7 +5109,7 @@
         <v>74750880777.52</v>
       </c>
       <c r="CD4" s="62">
-        <f>(CC4-CC5)/CC5</f>
+        <f t="shared" si="4"/>
         <v>0.121794719980309</v>
       </c>
       <c r="CE4" s="77"/>
@@ -5114,24 +5120,24 @@
         <v>-934523406.02</v>
       </c>
       <c r="CH4" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-760626208.04</v>
       </c>
       <c r="CI4" s="76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>73990254569.48</v>
       </c>
       <c r="CJ4" s="62"/>
       <c r="CK4" s="62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CL4" s="62">
-        <f t="shared" ref="CL4:CL28" si="10">(CC4+CG4)/BX4</f>
+        <f t="shared" ref="CL4:CL28" si="11">(CC4+CG4)/BX4</f>
         <v>0.374219876458564</v>
       </c>
       <c r="CM4" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>10.9201754686187</v>
       </c>
       <c r="CN4" s="76"/>
@@ -5161,14 +5167,14 @@
         <v>213395810527.46</v>
       </c>
       <c r="J5" s="125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.165827388195736</v>
       </c>
       <c r="K5" s="76">
         <v>167720683101.28</v>
       </c>
       <c r="L5" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.182160715060385</v>
       </c>
       <c r="M5" s="76">
@@ -5267,7 +5273,7 @@
         <v>66635079882.38</v>
       </c>
       <c r="CD5" s="62">
-        <f>(CC5-CC6)/CC6</f>
+        <f t="shared" si="4"/>
         <v>0.128614482787255</v>
       </c>
       <c r="CE5" s="77"/>
@@ -5278,24 +5284,24 @@
         <v>-234610582.44</v>
       </c>
       <c r="CH5" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-123482045.13</v>
       </c>
       <c r="CI5" s="76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>66511597837.25</v>
       </c>
       <c r="CJ5" s="62"/>
       <c r="CK5" s="62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CL5" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.395899110784347</v>
       </c>
       <c r="CM5" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.3665762364497</v>
       </c>
       <c r="CN5" s="76"/>
@@ -5325,14 +5331,14 @@
         <v>183042372042.5</v>
       </c>
       <c r="J6" s="125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.145112166673458</v>
       </c>
       <c r="K6" s="76">
         <v>141876380228.65</v>
       </c>
       <c r="L6" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.208399688464302</v>
       </c>
       <c r="M6" s="76">
@@ -5429,7 +5435,7 @@
         <v>59041489276.14</v>
       </c>
       <c r="CD6" s="62">
-        <f>(CC6-CC7)/CC7</f>
+        <f t="shared" si="4"/>
         <v>0.149942610328108</v>
       </c>
       <c r="CE6" s="77"/>
@@ -5440,24 +5446,24 @@
         <v>7458015.66</v>
       </c>
       <c r="CH6" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>153210841.53</v>
       </c>
       <c r="CI6" s="76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59194700117.67</v>
       </c>
       <c r="CJ6" s="62"/>
       <c r="CK6" s="62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CL6" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.41619998477996</v>
       </c>
       <c r="CM6" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>5.44157359301602</v>
       </c>
       <c r="CN6" s="76"/>
@@ -5487,14 +5493,14 @@
         <v>159846674736.01</v>
       </c>
       <c r="J7" s="125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.187478909065578</v>
       </c>
       <c r="K7" s="76">
         <v>117408487922.53</v>
       </c>
       <c r="L7" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.222755086745166</v>
       </c>
       <c r="M7" s="76">
@@ -5591,7 +5597,7 @@
         <v>51342987681.18</v>
       </c>
       <c r="CD7" s="62">
-        <f>(CC7-CC8)/CC8</f>
+        <f t="shared" si="4"/>
         <v>0.318515093688045</v>
       </c>
       <c r="CE7" s="77"/>
@@ -5602,24 +5608,24 @@
         <v>-3521209.23</v>
       </c>
       <c r="CH7" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>132796570.61</v>
       </c>
       <c r="CI7" s="76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>51475784251.79</v>
       </c>
       <c r="CJ7" s="62"/>
       <c r="CK7" s="62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CL7" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.398346283589781</v>
       </c>
       <c r="CM7" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>3.07471696813104</v>
       </c>
       <c r="CN7" s="76"/>
@@ -5649,14 +5655,14 @@
         <v>134610116875.08</v>
       </c>
       <c r="J8" s="125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.191930466310056</v>
       </c>
       <c r="K8" s="76">
         <v>96019627475.08</v>
       </c>
       <c r="L8" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.265105018667808</v>
       </c>
       <c r="M8" s="76">
@@ -5755,7 +5761,7 @@
         <v>38940007533.45</v>
       </c>
       <c r="CD8" s="62">
-        <f>(CC8-CC9)/CC9</f>
+        <f t="shared" si="4"/>
         <v>0.604739513677271</v>
       </c>
       <c r="CE8" s="77"/>
@@ -5766,24 +5772,24 @@
         <v>-55722346.19</v>
       </c>
       <c r="CH8" s="76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>79465450.87</v>
       </c>
       <c r="CI8" s="76">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>39019472984.32</v>
       </c>
       <c r="CJ8" s="62"/>
       <c r="CK8" s="62">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="CL8" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.365118162884753</v>
       </c>
       <c r="CM8" s="56">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2.10157330475013</v>
       </c>
       <c r="CN8" s="76"/>
@@ -5813,14 +5819,14 @@
         <v>112934538280.41</v>
       </c>
       <c r="J9" s="125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.308605136012248</v>
       </c>
       <c r="K9" s="76">
         <v>75898542854.72</v>
       </c>
       <c r="L9" s="62">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.145912183574712</v>
       </c>
       <c r="M9" s="76"/>
@@ -5838,7 +5844,7 @@
       <c r="W9" s="76"/>
       <c r="X9" s="76"/>
       <c r="Y9" s="76">
-        <f>SUM(O9:X9)</f>
+        <f t="shared" si="0"/>
         <v>10778818332.13</v>
       </c>
       <c r="Z9" s="76">
@@ -5903,7 +5909,7 @@
       <c r="BV9" s="5"/>
       <c r="BW9" s="5"/>
       <c r="BX9" s="103">
-        <f>K9+Y9</f>
+        <f t="shared" si="2"/>
         <v>86677361186.85</v>
       </c>
       <c r="BY9" s="62"/>
@@ -5914,7 +5920,7 @@
         <v>24265625169.42</v>
       </c>
       <c r="CD9" s="62">
-        <f>(CC9-CC10)/CC10</f>
+        <f t="shared" si="4"/>
         <v>0.0950689999833887</v>
       </c>
       <c r="CE9" s="77">
@@ -5929,11 +5935,11 @@
       <c r="CJ9" s="62"/>
       <c r="CK9" s="62"/>
       <c r="CL9" s="62">
-        <f>(CC9+CG9)/BX9</f>
+        <f t="shared" si="11"/>
         <v>0.279570693536254</v>
       </c>
       <c r="CM9" s="56" t="e">
-        <f>CI9/CA9</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CN9" s="76"/>
@@ -5963,14 +5969,14 @@
         <v>86301463422.77</v>
       </c>
       <c r="J10" s="125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.310115630977785</v>
       </c>
       <c r="K10" s="76">
         <v>66234170421.29</v>
       </c>
       <c r="L10" s="62">
-        <f>(K10-K11)/K11</f>
+        <f t="shared" si="10"/>
         <v>0.197474477104154</v>
       </c>
       <c r="M10" s="76"/>
@@ -5988,7 +5994,7 @@
       <c r="W10" s="76"/>
       <c r="X10" s="76"/>
       <c r="Y10" s="76">
-        <f>SUM(O10:X10)</f>
+        <f t="shared" si="0"/>
         <v>5967622299.13</v>
       </c>
       <c r="Z10" s="76">
@@ -6051,7 +6057,7 @@
       <c r="BV10" s="5"/>
       <c r="BW10" s="5"/>
       <c r="BX10" s="103">
-        <f>K10+Y10</f>
+        <f t="shared" si="2"/>
         <v>72201792720.42</v>
       </c>
       <c r="BY10" s="62"/>
@@ -6062,7 +6068,7 @@
         <v>22158991962.87</v>
       </c>
       <c r="CD10" s="62">
-        <f>(CC10-CC11)/CC11</f>
+        <f t="shared" si="4"/>
         <v>0.00253444237271184</v>
       </c>
       <c r="CE10" s="77">
@@ -6077,11 +6083,11 @@
       <c r="CJ10" s="62"/>
       <c r="CK10" s="62"/>
       <c r="CL10" s="62">
-        <f>(CC10+CG10)/BX10</f>
+        <f t="shared" si="11"/>
         <v>0.305971975618994</v>
       </c>
       <c r="CM10" s="56" t="e">
-        <f>CI10/CA10</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CN10" s="76"/>
@@ -6111,14 +6117,14 @@
         <v>65873165224.63</v>
       </c>
       <c r="J11" s="125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.187885206434006</v>
       </c>
       <c r="K11" s="76">
         <v>55311550841.12</v>
       </c>
       <c r="L11" s="62">
-        <f>(K11-K12)/K12</f>
+        <f t="shared" si="10"/>
         <v>0.253403321750083</v>
       </c>
       <c r="M11" s="76">
@@ -6140,7 +6146,7 @@
       <c r="W11" s="76"/>
       <c r="X11" s="76"/>
       <c r="Y11" s="76">
-        <f>SUM(O11:X11)</f>
+        <f t="shared" si="0"/>
         <v>4019003193.19</v>
       </c>
       <c r="Z11" s="76">
@@ -6205,7 +6211,7 @@
       <c r="BV11" s="5"/>
       <c r="BW11" s="5"/>
       <c r="BX11" s="103">
-        <f>K11+Y11</f>
+        <f t="shared" si="2"/>
         <v>59330554034.31</v>
       </c>
       <c r="BY11" s="62"/>
@@ -6216,7 +6222,7 @@
         <v>22102973250.9</v>
       </c>
       <c r="CD11" s="62">
-        <f>(CC11-CC12)/CC12</f>
+        <f t="shared" si="4"/>
         <v>0.0142912445898619</v>
       </c>
       <c r="CE11" s="77">
@@ -6231,11 +6237,11 @@
       <c r="CJ11" s="62"/>
       <c r="CK11" s="62"/>
       <c r="CL11" s="62">
-        <f>(CC11+CG11)/BX11</f>
+        <f t="shared" si="11"/>
         <v>0.370463495829643</v>
       </c>
       <c r="CM11" s="56" t="e">
-        <f>CI11/CA11</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CN11" s="76"/>
@@ -6265,14 +6271,14 @@
         <v>55454150677.05</v>
       </c>
       <c r="J12" s="125">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.232363508832189</v>
       </c>
       <c r="K12" s="76">
         <v>44129092273.26</v>
       </c>
       <c r="L12" s="62">
-        <f>(K12-K13)/K13</f>
+        <f t="shared" si="10"/>
         <v>0.244684576357091</v>
       </c>
       <c r="M12" s="76">
@@ -6292,7 +6298,7 @@
       <c r="W12" s="76"/>
       <c r="X12" s="76"/>
       <c r="Y12" s="76">
-        <f>SUM(O12:X12)</f>
+        <f t="shared" si="0"/>
         <v>2773189099.54</v>
       </c>
       <c r="Z12" s="76">
@@ -6357,7 +6363,7 @@
       <c r="BV12" s="5"/>
       <c r="BW12" s="5"/>
       <c r="BX12" s="103">
-        <f>K12+Y12</f>
+        <f t="shared" si="2"/>
         <v>46902281372.8</v>
       </c>
       <c r="BY12" s="62"/>
@@ -6368,7 +6374,7 @@
         <v>21791544952</v>
       </c>
       <c r="CD12" s="62">
-        <f>(CC12-CC13)/CC13</f>
+        <f t="shared" si="4"/>
         <v>0.157232544393972</v>
       </c>
       <c r="CE12" s="77">
@@ -6383,11 +6389,11 @@
       <c r="CJ12" s="62"/>
       <c r="CK12" s="62"/>
       <c r="CL12" s="62">
-        <f>(CC12+CG12)/BX12</f>
+        <f t="shared" si="11"/>
         <v>0.45546762251332</v>
       </c>
       <c r="CM12" s="56" t="e">
-        <f>CI12/CA12</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CN12" s="76"/>
@@ -6494,7 +6500,7 @@
       <c r="BV13" s="5"/>
       <c r="BW13" s="5"/>
       <c r="BX13" s="103">
-        <f>K13+Y13</f>
+        <f t="shared" si="2"/>
         <v>35454036397.25</v>
       </c>
       <c r="BY13" s="62"/>
@@ -6517,11 +6523,11 @@
       <c r="CJ13" s="62"/>
       <c r="CK13" s="62"/>
       <c r="CL13" s="62">
-        <f>(CC13+CG13)/BX13</f>
+        <f t="shared" si="11"/>
         <v>0.519257206397745</v>
       </c>
       <c r="CM13" s="56" t="e">
-        <f>CI13/CA13</f>
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CN13" s="76"/>
@@ -6634,7 +6640,7 @@
       <c r="CJ14" s="62"/>
       <c r="CK14" s="62"/>
       <c r="CL14" s="62" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM14" s="56"/>
@@ -6746,7 +6752,7 @@
       <c r="CJ15" s="62"/>
       <c r="CK15" s="62"/>
       <c r="CL15" s="62" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM15" s="56"/>
@@ -6858,7 +6864,7 @@
       <c r="CJ16" s="62"/>
       <c r="CK16" s="62"/>
       <c r="CL16" s="62" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM16" s="56"/>
@@ -6970,7 +6976,7 @@
       <c r="CJ17" s="62"/>
       <c r="CK17" s="62"/>
       <c r="CL17" s="62" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM17" s="56"/>
@@ -7082,7 +7088,7 @@
       <c r="CJ18" s="62"/>
       <c r="CK18" s="62"/>
       <c r="CL18" s="62" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM18" s="56"/>
@@ -7194,7 +7200,7 @@
       <c r="CJ19" s="62"/>
       <c r="CK19" s="62"/>
       <c r="CL19" s="62" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM19" s="56"/>
@@ -7306,7 +7312,7 @@
       <c r="CJ20" s="62"/>
       <c r="CK20" s="62"/>
       <c r="CL20" s="62" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM20" s="56"/>
@@ -7418,7 +7424,7 @@
       <c r="CJ21" s="62"/>
       <c r="CK21" s="62"/>
       <c r="CL21" s="62" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM21" s="56"/>
@@ -7530,7 +7536,7 @@
       <c r="CJ22" s="62"/>
       <c r="CK22" s="62"/>
       <c r="CL22" s="62" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM22" s="56"/>
@@ -7642,7 +7648,7 @@
       <c r="CJ23" s="62"/>
       <c r="CK23" s="62"/>
       <c r="CL23" s="62" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM23" s="56"/>
@@ -7754,7 +7760,7 @@
       <c r="CJ24" s="62"/>
       <c r="CK24" s="62"/>
       <c r="CL24" s="62" t="e">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM24" s="56"/>
@@ -7870,20 +7876,20 @@
       <c r="BV25" s="5"/>
       <c r="BW25" s="5"/>
       <c r="BX25" s="103">
-        <f t="shared" ref="BX25:BX30" si="11">K25+Y25</f>
+        <f t="shared" ref="BX25:BX30" si="12">K25+Y25</f>
         <v>21745521217.96</v>
       </c>
       <c r="BY25" s="62">
-        <f t="shared" ref="BY25:BY30" si="12">(BX25-BX26)/BX26</f>
+        <f t="shared" ref="BY25:BY30" si="13">(BX25-BX26)/BX26</f>
         <v>0.395127742817061</v>
       </c>
       <c r="BZ25" s="62"/>
       <c r="CA25" s="77">
-        <f t="shared" ref="CA25:CA30" si="13">K25+Y25-AM25</f>
+        <f t="shared" ref="CA25:CA30" si="14">K25+Y25-AM25</f>
         <v>9378221900.86</v>
       </c>
       <c r="CB25" s="61">
-        <f t="shared" ref="CB25:CB30" si="14">(CA25-CA26)/CA26</f>
+        <f t="shared" ref="CB25:CB30" si="15">(CA25-CA26)/CA26</f>
         <v>1.83689681984684</v>
       </c>
       <c r="CC25" s="77">
@@ -7901,24 +7907,24 @@
         <v>-36794481.72</v>
       </c>
       <c r="CH25" s="76">
-        <f t="shared" ref="CH25:CH30" si="15">CE25+CG25</f>
+        <f t="shared" ref="CH25:CH30" si="16">CE25+CG25</f>
         <v>10839115307.87</v>
       </c>
       <c r="CI25" s="76">
-        <f t="shared" ref="CI25:CI30" si="16">CC25+CG25</f>
+        <f t="shared" ref="CI25:CI30" si="17">CC25+CG25</f>
         <v>10835882408.22</v>
       </c>
       <c r="CJ25" s="62"/>
       <c r="CK25" s="62">
-        <f t="shared" ref="CK25:CK30" si="17">CE25/BX25</f>
+        <f t="shared" ref="CK25:CK30" si="18">CE25/BX25</f>
         <v>0.50014481973453</v>
       </c>
       <c r="CL25" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.498304101318595</v>
       </c>
       <c r="CM25" s="165">
-        <f t="shared" ref="CM25:CM30" si="18">CI25/CA25</f>
+        <f t="shared" ref="CM25:CM30" si="19">CI25/CA25</f>
         <v>1.15543037078557</v>
       </c>
       <c r="CN25" s="76"/>
@@ -8031,20 +8037,20 @@
       <c r="BV26" s="5"/>
       <c r="BW26" s="5"/>
       <c r="BX26" s="103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>15586759943.61</v>
       </c>
       <c r="BY26" s="62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.548619763204388</v>
       </c>
       <c r="BZ26" s="62"/>
       <c r="CA26" s="77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3305802958.8</v>
       </c>
       <c r="CB26" s="61">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.386653932194121</v>
       </c>
       <c r="CC26" s="77">
@@ -8062,24 +8068,24 @@
         <v>-33120152.46</v>
       </c>
       <c r="CH26" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>7057400277.41</v>
       </c>
       <c r="CI26" s="76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>6996339915.57</v>
       </c>
       <c r="CJ26" s="62"/>
       <c r="CK26" s="62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.454906629442051</v>
       </c>
       <c r="CL26" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.44886428872206</v>
       </c>
       <c r="CM26" s="165">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>2.11638140650393</v>
       </c>
       <c r="CN26" s="76"/>
@@ -8188,20 +8194,20 @@
       <c r="BV27" s="5"/>
       <c r="BW27" s="5"/>
       <c r="BX27" s="103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>10064936735.25</v>
       </c>
       <c r="BY27" s="62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.275182269750049</v>
       </c>
       <c r="BZ27" s="62"/>
       <c r="CA27" s="77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5389784221.86</v>
       </c>
       <c r="CB27" s="61">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.382972010152462</v>
       </c>
       <c r="CC27" s="77">
@@ -8219,24 +8225,24 @@
         <v>-68024211.2</v>
       </c>
       <c r="CH27" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>4168592085.2</v>
       </c>
       <c r="CI27" s="76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>4166855234.06</v>
       </c>
       <c r="CJ27" s="62"/>
       <c r="CK27" s="62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.420928258948939</v>
       </c>
       <c r="CL27" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.413997161002175</v>
       </c>
       <c r="CM27" s="165">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.773102421644262</v>
       </c>
       <c r="CN27" s="76"/>
@@ -8343,20 +8349,20 @@
       <c r="BV28" s="5"/>
       <c r="BW28" s="5"/>
       <c r="BX28" s="103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>7892939679.3</v>
       </c>
       <c r="BY28" s="62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.217742873498307</v>
       </c>
       <c r="BZ28" s="62"/>
       <c r="CA28" s="77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>3897247509.2</v>
       </c>
       <c r="CB28" s="61">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>-0.244498658771564</v>
       </c>
       <c r="CC28" s="77">
@@ -8374,24 +8380,24 @@
         <v>-102873976.34</v>
       </c>
       <c r="CH28" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2828105980.64</v>
       </c>
       <c r="CI28" s="76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2826464286.13</v>
       </c>
       <c r="CJ28" s="62"/>
       <c r="CK28" s="62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0.371341993739896</v>
       </c>
       <c r="CL28" s="62">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.358100327757816</v>
       </c>
       <c r="CM28" s="165">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.725246287144384</v>
       </c>
       <c r="CN28" s="76"/>
@@ -8500,20 +8506,20 @@
       <c r="BV29" s="5"/>
       <c r="BW29" s="5"/>
       <c r="BX29" s="103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>6481614346.57</v>
       </c>
       <c r="BY29" s="62">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0.16061408832188</v>
       </c>
       <c r="BZ29" s="62"/>
       <c r="CA29" s="77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>5158491847.1</v>
       </c>
       <c r="CB29" s="61">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0.196049819622248</v>
       </c>
       <c r="CC29" s="77">
@@ -8529,24 +8535,24 @@
         <v>-27344298.56</v>
       </c>
       <c r="CH29" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-27344298.56</v>
       </c>
       <c r="CI29" s="76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>2149674502.48</v>
       </c>
       <c r="CJ29" s="62"/>
       <c r="CK29" s="62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CL29" s="62">
-        <f t="shared" ref="CL29:CL60" si="19">(CC29+CG29)/BX29</f>
+        <f t="shared" ref="CL29:CL60" si="20">(CC29+CG29)/BX29</f>
         <v>0.331657267393205</v>
       </c>
       <c r="CM29" s="165">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.416725385286497</v>
       </c>
       <c r="CN29" s="76"/>
@@ -8653,20 +8659,20 @@
       <c r="BV30" s="5"/>
       <c r="BW30" s="5"/>
       <c r="BX30" s="103">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>5584642140.56</v>
       </c>
       <c r="BY30" s="62" t="e">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BZ30" s="62"/>
       <c r="CA30" s="77">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>4312940617.08</v>
       </c>
       <c r="CB30" s="61" t="e">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CC30" s="77">
@@ -8679,24 +8685,24 @@
         <v>-22232980.13</v>
       </c>
       <c r="CH30" s="76">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>-22232980.13</v>
       </c>
       <c r="CI30" s="76">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1372472755.26</v>
       </c>
       <c r="CJ30" s="62"/>
       <c r="CK30" s="62">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="CL30" s="62">
+        <f t="shared" si="20"/>
+        <v>0.245758406844378</v>
+      </c>
+      <c r="CM30" s="165">
         <f t="shared" si="19"/>
-        <v>0.245758406844378</v>
-      </c>
-      <c r="CM30" s="165">
-        <f t="shared" si="18"/>
         <v>0.318222038537875</v>
       </c>
       <c r="CN30" s="76"/>
@@ -8807,7 +8813,7 @@
       <c r="CJ31" s="62"/>
       <c r="CK31" s="62"/>
       <c r="CL31" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM31" s="56"/>
@@ -8919,7 +8925,7 @@
       <c r="CJ32" s="62"/>
       <c r="CK32" s="62"/>
       <c r="CL32" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM32" s="56"/>
@@ -9031,7 +9037,7 @@
       <c r="CJ33" s="62"/>
       <c r="CK33" s="62"/>
       <c r="CL33" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM33" s="56"/>
@@ -9143,7 +9149,7 @@
       <c r="CJ34" s="62"/>
       <c r="CK34" s="62"/>
       <c r="CL34" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM34" s="56"/>
@@ -9255,7 +9261,7 @@
       <c r="CJ35" s="62"/>
       <c r="CK35" s="62"/>
       <c r="CL35" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM35" s="56"/>
@@ -9369,7 +9375,7 @@
       <c r="CJ36" s="62"/>
       <c r="CK36" s="62"/>
       <c r="CL36" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM36" s="56"/>
@@ -9481,7 +9487,7 @@
       <c r="CJ37" s="62"/>
       <c r="CK37" s="62"/>
       <c r="CL37" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM37" s="56"/>
@@ -9593,7 +9599,7 @@
       <c r="CJ38" s="62"/>
       <c r="CK38" s="62"/>
       <c r="CL38" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM38" s="56"/>
@@ -9705,7 +9711,7 @@
       <c r="CJ39" s="62"/>
       <c r="CK39" s="62"/>
       <c r="CL39" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM39" s="56"/>
@@ -9817,7 +9823,7 @@
       <c r="CJ40" s="62"/>
       <c r="CK40" s="62"/>
       <c r="CL40" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM40" s="56"/>
@@ -9929,7 +9935,7 @@
       <c r="CJ41" s="62"/>
       <c r="CK41" s="62"/>
       <c r="CL41" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM41" s="56"/>
@@ -10041,7 +10047,7 @@
       <c r="CJ42" s="62"/>
       <c r="CK42" s="62"/>
       <c r="CL42" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM42" s="56"/>
@@ -10153,7 +10159,7 @@
       <c r="CJ43" s="62"/>
       <c r="CK43" s="62"/>
       <c r="CL43" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM43" s="56"/>
@@ -10265,7 +10271,7 @@
       <c r="CJ44" s="62"/>
       <c r="CK44" s="62"/>
       <c r="CL44" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM44" s="56"/>
@@ -10377,7 +10383,7 @@
       <c r="CJ45" s="62"/>
       <c r="CK45" s="62"/>
       <c r="CL45" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM45" s="56"/>
@@ -10489,7 +10495,7 @@
       <c r="CJ46" s="62"/>
       <c r="CK46" s="62"/>
       <c r="CL46" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM46" s="56"/>
@@ -10603,7 +10609,7 @@
       <c r="CJ47" s="62"/>
       <c r="CK47" s="62"/>
       <c r="CL47" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM47" s="56"/>
@@ -10715,7 +10721,7 @@
       <c r="CJ48" s="62"/>
       <c r="CK48" s="62"/>
       <c r="CL48" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM48" s="56"/>
@@ -10827,7 +10833,7 @@
       <c r="CJ49" s="62"/>
       <c r="CK49" s="62"/>
       <c r="CL49" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM49" s="56"/>
@@ -10939,7 +10945,7 @@
       <c r="CJ50" s="62"/>
       <c r="CK50" s="62"/>
       <c r="CL50" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM50" s="56"/>
@@ -11051,7 +11057,7 @@
       <c r="CJ51" s="62"/>
       <c r="CK51" s="62"/>
       <c r="CL51" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM51" s="56"/>
@@ -11163,7 +11169,7 @@
       <c r="CJ52" s="62"/>
       <c r="CK52" s="62"/>
       <c r="CL52" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM52" s="56"/>
@@ -11275,7 +11281,7 @@
       <c r="CJ53" s="62"/>
       <c r="CK53" s="62"/>
       <c r="CL53" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM53" s="56"/>
@@ -11387,7 +11393,7 @@
       <c r="CJ54" s="62"/>
       <c r="CK54" s="62"/>
       <c r="CL54" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM54" s="56"/>
@@ -11499,7 +11505,7 @@
       <c r="CJ55" s="62"/>
       <c r="CK55" s="62"/>
       <c r="CL55" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM55" s="56"/>
@@ -11611,7 +11617,7 @@
       <c r="CJ56" s="62"/>
       <c r="CK56" s="62"/>
       <c r="CL56" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM56" s="56"/>
@@ -11671,7 +11677,7 @@
       <c r="AK57" s="77"/>
       <c r="AL57" s="77"/>
       <c r="AM57" s="77">
-        <f t="shared" ref="AM57:AM120" si="20">SUM(Z57:AL57)</f>
+        <f t="shared" ref="AM57:AM120" si="21">SUM(Z57:AL57)</f>
         <v>0</v>
       </c>
       <c r="AN57" s="77"/>
@@ -11725,7 +11731,7 @@
       <c r="CJ57" s="62"/>
       <c r="CK57" s="62"/>
       <c r="CL57" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM57" s="56"/>
@@ -11783,7 +11789,7 @@
       <c r="AK58" s="77"/>
       <c r="AL58" s="77"/>
       <c r="AM58" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN58" s="77"/>
@@ -11837,7 +11843,7 @@
       <c r="CJ58" s="62"/>
       <c r="CK58" s="62"/>
       <c r="CL58" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM58" s="56"/>
@@ -11895,7 +11901,7 @@
       <c r="AK59" s="77"/>
       <c r="AL59" s="77"/>
       <c r="AM59" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN59" s="77"/>
@@ -11949,7 +11955,7 @@
       <c r="CJ59" s="62"/>
       <c r="CK59" s="62"/>
       <c r="CL59" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM59" s="56"/>
@@ -12007,7 +12013,7 @@
       <c r="AK60" s="77"/>
       <c r="AL60" s="77"/>
       <c r="AM60" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN60" s="77"/>
@@ -12061,7 +12067,7 @@
       <c r="CJ60" s="62"/>
       <c r="CK60" s="62"/>
       <c r="CL60" s="62" t="e">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM60" s="56"/>
@@ -12119,7 +12125,7 @@
       <c r="AK61" s="77"/>
       <c r="AL61" s="77"/>
       <c r="AM61" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN61" s="77"/>
@@ -12173,7 +12179,7 @@
       <c r="CJ61" s="62"/>
       <c r="CK61" s="62"/>
       <c r="CL61" s="62" t="e">
-        <f t="shared" ref="CL61:CL92" si="21">(CC61+CG61)/BX61</f>
+        <f t="shared" ref="CL61:CL92" si="22">(CC61+CG61)/BX61</f>
         <v>#DIV/0!</v>
       </c>
       <c r="CM61" s="56"/>
@@ -12231,7 +12237,7 @@
       <c r="AK62" s="77"/>
       <c r="AL62" s="77"/>
       <c r="AM62" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN62" s="77"/>
@@ -12285,7 +12291,7 @@
       <c r="CJ62" s="62"/>
       <c r="CK62" s="62"/>
       <c r="CL62" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM62" s="56"/>
@@ -12343,7 +12349,7 @@
       <c r="AK63" s="77"/>
       <c r="AL63" s="77"/>
       <c r="AM63" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN63" s="77"/>
@@ -12397,7 +12403,7 @@
       <c r="CJ63" s="62"/>
       <c r="CK63" s="62"/>
       <c r="CL63" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM63" s="56"/>
@@ -12455,7 +12461,7 @@
       <c r="AK64" s="77"/>
       <c r="AL64" s="77"/>
       <c r="AM64" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN64" s="77"/>
@@ -12509,7 +12515,7 @@
       <c r="CJ64" s="62"/>
       <c r="CK64" s="62"/>
       <c r="CL64" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM64" s="56"/>
@@ -12567,7 +12573,7 @@
       <c r="AK65" s="77"/>
       <c r="AL65" s="77"/>
       <c r="AM65" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN65" s="77"/>
@@ -12621,7 +12627,7 @@
       <c r="CJ65" s="62"/>
       <c r="CK65" s="62"/>
       <c r="CL65" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM65" s="56"/>
@@ -12679,7 +12685,7 @@
       <c r="AK66" s="77"/>
       <c r="AL66" s="77"/>
       <c r="AM66" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN66" s="77"/>
@@ -12733,7 +12739,7 @@
       <c r="CJ66" s="62"/>
       <c r="CK66" s="62"/>
       <c r="CL66" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM66" s="56"/>
@@ -12793,7 +12799,7 @@
       <c r="AK67" s="77"/>
       <c r="AL67" s="77"/>
       <c r="AM67" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN67" s="77"/>
@@ -12847,7 +12853,7 @@
       <c r="CJ67" s="62"/>
       <c r="CK67" s="62"/>
       <c r="CL67" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM67" s="56"/>
@@ -12905,7 +12911,7 @@
       <c r="AK68" s="77"/>
       <c r="AL68" s="77"/>
       <c r="AM68" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN68" s="77"/>
@@ -12959,7 +12965,7 @@
       <c r="CJ68" s="62"/>
       <c r="CK68" s="62"/>
       <c r="CL68" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM68" s="56"/>
@@ -13017,7 +13023,7 @@
       <c r="AK69" s="77"/>
       <c r="AL69" s="77"/>
       <c r="AM69" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN69" s="77"/>
@@ -13071,7 +13077,7 @@
       <c r="CJ69" s="62"/>
       <c r="CK69" s="62"/>
       <c r="CL69" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM69" s="56"/>
@@ -13129,7 +13135,7 @@
       <c r="AK70" s="77"/>
       <c r="AL70" s="77"/>
       <c r="AM70" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN70" s="77"/>
@@ -13183,7 +13189,7 @@
       <c r="CJ70" s="62"/>
       <c r="CK70" s="62"/>
       <c r="CL70" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM70" s="56"/>
@@ -13241,7 +13247,7 @@
       <c r="AK71" s="77"/>
       <c r="AL71" s="77"/>
       <c r="AM71" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN71" s="77"/>
@@ -13295,7 +13301,7 @@
       <c r="CJ71" s="62"/>
       <c r="CK71" s="62"/>
       <c r="CL71" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM71" s="56"/>
@@ -13353,7 +13359,7 @@
       <c r="AK72" s="77"/>
       <c r="AL72" s="77"/>
       <c r="AM72" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN72" s="77"/>
@@ -13407,7 +13413,7 @@
       <c r="CJ72" s="62"/>
       <c r="CK72" s="62"/>
       <c r="CL72" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM72" s="56"/>
@@ -13465,7 +13471,7 @@
       <c r="AK73" s="77"/>
       <c r="AL73" s="77"/>
       <c r="AM73" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN73" s="77"/>
@@ -13519,7 +13525,7 @@
       <c r="CJ73" s="62"/>
       <c r="CK73" s="62"/>
       <c r="CL73" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM73" s="56"/>
@@ -13577,7 +13583,7 @@
       <c r="AK74" s="77"/>
       <c r="AL74" s="77"/>
       <c r="AM74" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN74" s="77"/>
@@ -13631,7 +13637,7 @@
       <c r="CJ74" s="62"/>
       <c r="CK74" s="62"/>
       <c r="CL74" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM74" s="56"/>
@@ -13689,7 +13695,7 @@
       <c r="AK75" s="77"/>
       <c r="AL75" s="77"/>
       <c r="AM75" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN75" s="77"/>
@@ -13743,7 +13749,7 @@
       <c r="CJ75" s="62"/>
       <c r="CK75" s="62"/>
       <c r="CL75" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM75" s="56"/>
@@ -13801,7 +13807,7 @@
       <c r="AK76" s="77"/>
       <c r="AL76" s="77"/>
       <c r="AM76" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN76" s="77"/>
@@ -13855,7 +13861,7 @@
       <c r="CJ76" s="62"/>
       <c r="CK76" s="62"/>
       <c r="CL76" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM76" s="56"/>
@@ -13915,7 +13921,7 @@
       <c r="AK77" s="77"/>
       <c r="AL77" s="77"/>
       <c r="AM77" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN77" s="77"/>
@@ -13969,7 +13975,7 @@
       <c r="CJ77" s="62"/>
       <c r="CK77" s="62"/>
       <c r="CL77" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM77" s="56"/>
@@ -14027,7 +14033,7 @@
       <c r="AK78" s="77"/>
       <c r="AL78" s="77"/>
       <c r="AM78" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN78" s="77"/>
@@ -14081,7 +14087,7 @@
       <c r="CJ78" s="62"/>
       <c r="CK78" s="62"/>
       <c r="CL78" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM78" s="56"/>
@@ -14139,7 +14145,7 @@
       <c r="AK79" s="77"/>
       <c r="AL79" s="77"/>
       <c r="AM79" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN79" s="77"/>
@@ -14193,7 +14199,7 @@
       <c r="CJ79" s="62"/>
       <c r="CK79" s="62"/>
       <c r="CL79" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM79" s="56"/>
@@ -14251,7 +14257,7 @@
       <c r="AK80" s="77"/>
       <c r="AL80" s="77"/>
       <c r="AM80" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN80" s="77"/>
@@ -14305,7 +14311,7 @@
       <c r="CJ80" s="62"/>
       <c r="CK80" s="62"/>
       <c r="CL80" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM80" s="56"/>
@@ -14363,7 +14369,7 @@
       <c r="AK81" s="77"/>
       <c r="AL81" s="77"/>
       <c r="AM81" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN81" s="77"/>
@@ -14417,7 +14423,7 @@
       <c r="CJ81" s="62"/>
       <c r="CK81" s="62"/>
       <c r="CL81" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM81" s="56"/>
@@ -14475,7 +14481,7 @@
       <c r="AK82" s="77"/>
       <c r="AL82" s="77"/>
       <c r="AM82" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN82" s="77"/>
@@ -14529,7 +14535,7 @@
       <c r="CJ82" s="62"/>
       <c r="CK82" s="62"/>
       <c r="CL82" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM82" s="56"/>
@@ -14587,7 +14593,7 @@
       <c r="AK83" s="77"/>
       <c r="AL83" s="77"/>
       <c r="AM83" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN83" s="77"/>
@@ -14641,7 +14647,7 @@
       <c r="CJ83" s="62"/>
       <c r="CK83" s="62"/>
       <c r="CL83" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM83" s="56"/>
@@ -14699,7 +14705,7 @@
       <c r="AK84" s="77"/>
       <c r="AL84" s="77"/>
       <c r="AM84" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN84" s="77"/>
@@ -14753,7 +14759,7 @@
       <c r="CJ84" s="62"/>
       <c r="CK84" s="62"/>
       <c r="CL84" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM84" s="56"/>
@@ -14811,7 +14817,7 @@
       <c r="AK85" s="77"/>
       <c r="AL85" s="77"/>
       <c r="AM85" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN85" s="77"/>
@@ -14865,7 +14871,7 @@
       <c r="CJ85" s="62"/>
       <c r="CK85" s="62"/>
       <c r="CL85" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM85" s="56"/>
@@ -14923,7 +14929,7 @@
       <c r="AK86" s="77"/>
       <c r="AL86" s="77"/>
       <c r="AM86" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN86" s="77"/>
@@ -14977,7 +14983,7 @@
       <c r="CJ86" s="62"/>
       <c r="CK86" s="62"/>
       <c r="CL86" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM86" s="56"/>
@@ -15035,7 +15041,7 @@
       <c r="AK87" s="77"/>
       <c r="AL87" s="77"/>
       <c r="AM87" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN87" s="77"/>
@@ -15089,7 +15095,7 @@
       <c r="CJ87" s="62"/>
       <c r="CK87" s="62"/>
       <c r="CL87" s="62" t="e">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM87" s="56"/>
@@ -15121,10 +15127,17 @@
       <c r="I88" s="124">
         <v>12497542168.83</v>
       </c>
+      <c r="J88" s="125">
+        <f>(I88-I89)/I89</f>
+        <v>0.0836511740173188</v>
+      </c>
       <c r="K88" s="171">
         <v>3623022779.13</v>
       </c>
-      <c r="L88" s="62"/>
+      <c r="L88" s="62">
+        <f>(K88-K89)/K89</f>
+        <v>0.158146051253663</v>
+      </c>
       <c r="M88" s="76"/>
       <c r="N88" s="62"/>
       <c r="O88" s="76"/>
@@ -15142,7 +15155,7 @@
         <v>2616336.56</v>
       </c>
       <c r="Y88" s="76">
-        <f t="shared" ref="Y88:Y104" si="22">SUM(O88:X88)</f>
+        <f t="shared" ref="Y88:Y104" si="23">SUM(O88:X88)</f>
         <v>80544934.43</v>
       </c>
       <c r="Z88" s="76"/>
@@ -15167,7 +15180,7 @@
       </c>
       <c r="AL88" s="77"/>
       <c r="AM88" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3712610161.2</v>
       </c>
       <c r="AN88" s="77"/>
@@ -15207,7 +15220,7 @@
       <c r="BV88" s="5"/>
       <c r="BW88" s="5"/>
       <c r="BX88" s="103">
-        <f t="shared" ref="BX88:BX93" si="23">K88+Y88</f>
+        <f t="shared" ref="BX88:BX93" si="24">K88+Y88</f>
         <v>3703567713.56</v>
       </c>
       <c r="BY88" s="62">
@@ -15216,7 +15229,7 @@
       </c>
       <c r="BZ88" s="62"/>
       <c r="CA88" s="77">
-        <f t="shared" ref="CA88:CA93" si="24">K88+Y88-AM88</f>
+        <f t="shared" ref="CA88:CA93" si="25">K88+Y88-AM88</f>
         <v>-9042447.64000034</v>
       </c>
       <c r="CB88" s="61">
@@ -15236,24 +15249,24 @@
         <v>-56102848.78</v>
       </c>
       <c r="CH88" s="76">
-        <f t="shared" ref="CH88:CH93" si="25">CE88+CG88</f>
+        <f t="shared" ref="CH88:CH93" si="26">CE88+CG88</f>
         <v>-56102848.78</v>
       </c>
       <c r="CI88" s="76">
-        <f t="shared" ref="CI88:CI93" si="26">CC88+CG88</f>
+        <f t="shared" ref="CI88:CI93" si="27">CC88+CG88</f>
         <v>3242863061.96</v>
       </c>
       <c r="CJ88" s="62"/>
       <c r="CK88" s="62">
-        <f t="shared" ref="CK88:CK93" si="27">CE88/BX88</f>
+        <f t="shared" ref="CK88:CK93" si="28">CE88/BX88</f>
         <v>0</v>
       </c>
-      <c r="CL88" s="62">
-        <f t="shared" si="21"/>
+      <c r="CL88" s="61">
+        <f t="shared" si="22"/>
         <v>0.875605176621125</v>
       </c>
-      <c r="CM88" s="165">
-        <f t="shared" ref="CM88:CM93" si="28">CI88/CA88</f>
+      <c r="CM88" s="175">
+        <f t="shared" ref="CM88:CM93" si="29">CI88/CA88</f>
         <v>-358.626689483366</v>
       </c>
       <c r="CN88" s="76"/>
@@ -15282,11 +15295,17 @@
       <c r="I89" s="124">
         <v>11532809144.2</v>
       </c>
-      <c r="J89" s="125"/>
+      <c r="J89" s="125">
+        <f t="shared" ref="J89:J98" si="30">(I89-I90)/I90</f>
+        <v>0.201913573939765</v>
+      </c>
       <c r="K89" s="76">
         <v>3128295239.8</v>
       </c>
-      <c r="L89" s="62"/>
+      <c r="L89" s="62">
+        <f t="shared" ref="L89:L98" si="31">(K89-K90)/K90</f>
+        <v>0.994022469596426</v>
+      </c>
       <c r="M89" s="76"/>
       <c r="N89" s="62"/>
       <c r="O89" s="76"/>
@@ -15302,7 +15321,7 @@
       <c r="W89" s="76"/>
       <c r="X89" s="76"/>
       <c r="Y89" s="76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>16951000</v>
       </c>
       <c r="Z89" s="76"/>
@@ -15327,7 +15346,7 @@
       <c r="AK89" s="77"/>
       <c r="AL89" s="77"/>
       <c r="AM89" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3109814139.78</v>
       </c>
       <c r="AN89" s="77"/>
@@ -15367,27 +15386,27 @@
       <c r="BV89" s="5"/>
       <c r="BW89" s="5"/>
       <c r="BX89" s="103">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3145246239.8</v>
       </c>
       <c r="BY89" s="62">
-        <f t="shared" ref="BY89:BY98" si="29">(BX89-BX90)/BX90</f>
+        <f t="shared" ref="BY89:BY98" si="32">(BX89-BX90)/BX90</f>
         <v>0.62642820814389</v>
       </c>
       <c r="BZ89" s="62"/>
       <c r="CA89" s="77">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>35432100.0200005</v>
       </c>
       <c r="CB89" s="61">
-        <f t="shared" ref="CB89:CB98" si="30">(CA89-CA90)/CA90</f>
+        <f t="shared" ref="CB89:CB98" si="33">(CA89-CA90)/CA90</f>
         <v>-1.15312371619392</v>
       </c>
       <c r="CC89" s="77">
         <v>2947538796.81</v>
       </c>
       <c r="CD89" s="61">
-        <f t="shared" ref="CD89:CD99" si="31">(CC89-CC90)/CC90</f>
+        <f t="shared" ref="CD89:CD99" si="34">(CC89-CC90)/CC90</f>
         <v>0.5007553653089</v>
       </c>
       <c r="CE89" s="77"/>
@@ -15396,24 +15415,24 @@
         <v>-15880844.25</v>
       </c>
       <c r="CH89" s="76">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>-15880844.25</v>
       </c>
       <c r="CI89" s="76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>2931657952.56</v>
       </c>
       <c r="CJ89" s="62"/>
       <c r="CK89" s="62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="CL89" s="62">
-        <f t="shared" si="21"/>
+      <c r="CL89" s="61">
+        <f t="shared" si="22"/>
         <v>0.932091712077341</v>
       </c>
-      <c r="CM89" s="165">
-        <f t="shared" si="28"/>
+      <c r="CM89" s="175">
+        <f t="shared" si="29"/>
         <v>82.7401692506275</v>
       </c>
       <c r="CN89" s="76"/>
@@ -15442,11 +15461,17 @@
       <c r="I90" s="124">
         <v>9595373073.62</v>
       </c>
-      <c r="J90" s="125"/>
+      <c r="J90" s="125">
+        <f t="shared" si="30"/>
+        <v>-0.110473890639341</v>
+      </c>
       <c r="K90" s="76">
         <v>1568836503.85</v>
       </c>
-      <c r="L90" s="62"/>
+      <c r="L90" s="62">
+        <f t="shared" si="31"/>
+        <v>-0.56101647552061</v>
+      </c>
       <c r="M90" s="76"/>
       <c r="N90" s="62"/>
       <c r="O90" s="76"/>
@@ -15462,7 +15487,7 @@
       <c r="W90" s="76"/>
       <c r="X90" s="76"/>
       <c r="Y90" s="76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>365000000</v>
       </c>
       <c r="Z90" s="76"/>
@@ -15485,7 +15510,7 @@
       <c r="AK90" s="77"/>
       <c r="AL90" s="77"/>
       <c r="AM90" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2165231750.13</v>
       </c>
       <c r="AN90" s="77"/>
@@ -15525,27 +15550,27 @@
       <c r="BV90" s="5"/>
       <c r="BW90" s="5"/>
       <c r="BX90" s="103">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1933836503.85</v>
       </c>
       <c r="BY90" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-0.458884107971941</v>
       </c>
       <c r="BZ90" s="62"/>
       <c r="CA90" s="77">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>-231395246.28</v>
       </c>
       <c r="CB90" s="61">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-1.12551290565473</v>
       </c>
       <c r="CC90" s="174">
         <v>1964036821.02</v>
       </c>
       <c r="CD90" s="61">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.207307784193462</v>
       </c>
       <c r="CE90" s="77"/>
@@ -15554,24 +15579,24 @@
         <v>6223479.14</v>
       </c>
       <c r="CH90" s="76">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>6223479.14</v>
       </c>
       <c r="CI90" s="76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1970260300.16</v>
       </c>
       <c r="CJ90" s="62"/>
       <c r="CK90" s="62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="CL90" s="62">
-        <f t="shared" si="21"/>
+      <c r="CL90" s="61">
+        <f t="shared" si="22"/>
         <v>1.01883499263639</v>
       </c>
-      <c r="CM90" s="165">
-        <f t="shared" si="28"/>
+      <c r="CM90" s="175">
+        <f t="shared" si="29"/>
         <v>-8.51469652827648</v>
       </c>
       <c r="CN90" s="76"/>
@@ -15600,11 +15625,17 @@
       <c r="I91" s="124">
         <v>10787061754.17</v>
       </c>
-      <c r="J91" s="125"/>
+      <c r="J91" s="125">
+        <f t="shared" si="30"/>
+        <v>2.27115278158149</v>
+      </c>
       <c r="K91" s="76">
         <v>3573793585.33</v>
       </c>
-      <c r="L91" s="62"/>
+      <c r="L91" s="62">
+        <f t="shared" si="31"/>
+        <v>2.07586466210338</v>
+      </c>
       <c r="M91" s="76"/>
       <c r="N91" s="62"/>
       <c r="O91" s="76"/>
@@ -15618,7 +15649,7 @@
       <c r="W91" s="76"/>
       <c r="X91" s="76"/>
       <c r="Y91" s="76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z91" s="76"/>
@@ -15641,7 +15672,7 @@
       <c r="AK91" s="77"/>
       <c r="AL91" s="77"/>
       <c r="AM91" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1730196346.68</v>
       </c>
       <c r="AN91" s="77"/>
@@ -15681,27 +15712,27 @@
       <c r="BV91" s="5"/>
       <c r="BW91" s="5"/>
       <c r="BX91" s="103">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3573793585.33</v>
       </c>
       <c r="BY91" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>2.07586466210338</v>
       </c>
       <c r="BZ91" s="62"/>
       <c r="CA91" s="173">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1843597238.65</v>
       </c>
       <c r="CB91" s="61">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>222.497338488334</v>
       </c>
       <c r="CC91" s="174">
         <v>1626790489.33</v>
       </c>
       <c r="CD91" s="61">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>2.38571888343092</v>
       </c>
       <c r="CE91" s="77"/>
@@ -15710,24 +15741,24 @@
         <v>36191414</v>
       </c>
       <c r="CH91" s="76">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>36191414</v>
       </c>
       <c r="CI91" s="76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1662981903.33</v>
       </c>
       <c r="CJ91" s="62"/>
       <c r="CK91" s="62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="CL91" s="62">
-        <f t="shared" si="21"/>
+      <c r="CL91" s="61">
+        <f t="shared" si="22"/>
         <v>0.465326791719685</v>
       </c>
-      <c r="CM91" s="165">
-        <f t="shared" si="28"/>
+      <c r="CM91" s="175">
+        <f t="shared" si="29"/>
         <v>0.902031023081669</v>
       </c>
       <c r="CN91" s="76"/>
@@ -15756,11 +15787,17 @@
       <c r="I92" s="124">
         <v>3297633120.32</v>
       </c>
-      <c r="J92" s="125"/>
+      <c r="J92" s="125">
+        <f t="shared" si="30"/>
+        <v>-0.059480655348284</v>
+      </c>
       <c r="K92" s="76">
         <v>1161882585.2</v>
       </c>
-      <c r="L92" s="62"/>
+      <c r="L92" s="62">
+        <f t="shared" si="31"/>
+        <v>-0.00289848414797182</v>
+      </c>
       <c r="M92" s="76"/>
       <c r="N92" s="62"/>
       <c r="O92" s="76"/>
@@ -15774,7 +15811,7 @@
       <c r="W92" s="76"/>
       <c r="X92" s="76"/>
       <c r="Y92" s="76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z92" s="76"/>
@@ -15797,7 +15834,7 @@
       <c r="AK92" s="77"/>
       <c r="AL92" s="77"/>
       <c r="AM92" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1153633729.75</v>
       </c>
       <c r="AN92" s="77"/>
@@ -15837,27 +15874,27 @@
       <c r="BV92" s="5"/>
       <c r="BW92" s="5"/>
       <c r="BX92" s="103">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1161882585.2</v>
       </c>
       <c r="BY92" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-0.00289848414797182</v>
       </c>
       <c r="BZ92" s="62"/>
       <c r="CA92" s="77">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>8248855.45000005</v>
       </c>
       <c r="CB92" s="61">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-0.975985672576568</v>
       </c>
       <c r="CC92" s="77">
         <v>480485989.93</v>
       </c>
       <c r="CD92" s="61">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.436656397165548</v>
       </c>
       <c r="CE92" s="77"/>
@@ -15866,24 +15903,24 @@
         <v>18039545.19</v>
       </c>
       <c r="CH92" s="76">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>18039545.19</v>
       </c>
       <c r="CI92" s="76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>498525535.12</v>
       </c>
       <c r="CJ92" s="62"/>
       <c r="CK92" s="62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="CL92" s="62">
-        <f t="shared" si="21"/>
+      <c r="CL92" s="61">
+        <f t="shared" si="22"/>
         <v>0.42906705158524</v>
       </c>
-      <c r="CM92" s="165">
-        <f t="shared" si="28"/>
+      <c r="CM92" s="175">
+        <f t="shared" si="29"/>
         <v>60.4357220394736</v>
       </c>
       <c r="CN92" s="76"/>
@@ -15912,11 +15949,17 @@
       <c r="I93" s="124">
         <v>3506183194.5</v>
       </c>
-      <c r="J93" s="125"/>
+      <c r="J93" s="125">
+        <f t="shared" si="30"/>
+        <v>0.0417521025917934</v>
+      </c>
       <c r="K93" s="76">
         <v>1165260073.05</v>
       </c>
-      <c r="L93" s="62"/>
+      <c r="L93" s="62">
+        <f t="shared" si="31"/>
+        <v>-0.0619965465270477</v>
+      </c>
       <c r="M93" s="76"/>
       <c r="N93" s="62"/>
       <c r="O93" s="76"/>
@@ -15930,7 +15973,7 @@
       <c r="W93" s="76"/>
       <c r="X93" s="76"/>
       <c r="Y93" s="76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z93" s="76"/>
@@ -15953,7 +15996,7 @@
       <c r="AK93" s="77"/>
       <c r="AL93" s="77"/>
       <c r="AM93" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>821762822.24</v>
       </c>
       <c r="AN93" s="77"/>
@@ -15993,27 +16036,27 @@
       <c r="BV93" s="5"/>
       <c r="BW93" s="5"/>
       <c r="BX93" s="103">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>1165260073.05</v>
       </c>
       <c r="BY93" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-0.0669240277768685</v>
       </c>
       <c r="BZ93" s="62"/>
       <c r="CA93" s="77">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>343497250.81</v>
       </c>
       <c r="CB93" s="61">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-0.40226036151622</v>
       </c>
       <c r="CC93" s="77">
         <v>334447395.27</v>
       </c>
       <c r="CD93" s="61">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.792466371226126</v>
       </c>
       <c r="CE93" s="77"/>
@@ -16022,24 +16065,24 @@
         <v>23144875.36</v>
       </c>
       <c r="CH93" s="76">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>23144875.36</v>
       </c>
       <c r="CI93" s="76">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>357592270.63</v>
       </c>
       <c r="CJ93" s="62"/>
       <c r="CK93" s="62">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="CL93" s="62">
-        <f t="shared" ref="CL93:CL124" si="32">(CC93+CG93)/BX93</f>
+      <c r="CL93" s="61">
+        <f t="shared" ref="CL93:CL124" si="35">(CC93+CG93)/BX93</f>
         <v>0.306877648089343</v>
       </c>
-      <c r="CM93" s="165">
-        <f t="shared" si="28"/>
+      <c r="CM93" s="175">
+        <f t="shared" si="29"/>
         <v>1.04103386500696</v>
       </c>
       <c r="CN93" s="76"/>
@@ -16068,11 +16111,17 @@
       <c r="I94" s="124">
         <v>3365659820.39</v>
       </c>
-      <c r="J94" s="125"/>
+      <c r="J94" s="125">
+        <f t="shared" si="30"/>
+        <v>-0.0955430452425984</v>
+      </c>
       <c r="K94" s="76">
         <v>1242276954.03</v>
       </c>
-      <c r="L94" s="62"/>
+      <c r="L94" s="62">
+        <f t="shared" si="31"/>
+        <v>0.0189918299882362</v>
+      </c>
       <c r="M94" s="76"/>
       <c r="N94" s="62"/>
       <c r="O94" s="76"/>
@@ -16088,7 +16137,7 @@
       <c r="W94" s="76"/>
       <c r="X94" s="76"/>
       <c r="Y94" s="76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>6560340.83</v>
       </c>
       <c r="Z94" s="76"/>
@@ -16113,7 +16162,7 @@
         <v>100235260.27</v>
       </c>
       <c r="AM94" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>674176976.73</v>
       </c>
       <c r="AN94" s="77"/>
@@ -16153,27 +16202,27 @@
       <c r="BV94" s="5"/>
       <c r="BW94" s="5"/>
       <c r="BX94" s="103">
-        <f t="shared" ref="BX94:BX104" si="33">K94+Y94</f>
+        <f t="shared" ref="BX94:BX104" si="36">K94+Y94</f>
         <v>1248837294.86</v>
       </c>
       <c r="BY94" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-0.32462060737483</v>
       </c>
       <c r="BZ94" s="62"/>
       <c r="CA94" s="77">
-        <f t="shared" ref="CA94:CA104" si="34">K94+Y94-AM94</f>
+        <f t="shared" ref="CA94:CA104" si="37">K94+Y94-AM94</f>
         <v>574660318.13</v>
       </c>
       <c r="CB94" s="61">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-0.574977259410339</v>
       </c>
       <c r="CC94" s="77">
         <v>186585032.02</v>
       </c>
       <c r="CD94" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-2.63636788606317</v>
       </c>
       <c r="CE94" s="77">
@@ -16184,24 +16233,24 @@
         <v>25998693.74</v>
       </c>
       <c r="CH94" s="76">
-        <f t="shared" ref="CH94:CH104" si="35">CE94+CG94</f>
+        <f t="shared" ref="CH94:CH104" si="38">CE94+CG94</f>
         <v>182773134.18</v>
       </c>
       <c r="CI94" s="76">
-        <f t="shared" ref="CI94:CI104" si="36">CC94+CG94</f>
+        <f t="shared" ref="CI94:CI104" si="39">CC94+CG94</f>
         <v>212583725.76</v>
       </c>
       <c r="CJ94" s="62"/>
       <c r="CK94" s="62">
-        <f t="shared" ref="CK94:CK104" si="37">CE94/BX94</f>
+        <f t="shared" ref="CK94:CK104" si="40">CE94/BX94</f>
         <v>0.125536321733229</v>
       </c>
       <c r="CL94" s="62">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.170225318089841</v>
       </c>
-      <c r="CM94" s="56">
-        <f t="shared" ref="CM94:CM104" si="38">CI94/CA94</f>
+      <c r="CM94" s="176">
+        <f t="shared" ref="CM94:CM104" si="41">CI94/CA94</f>
         <v>0.36992936357911</v>
       </c>
       <c r="CN94" s="76"/>
@@ -16230,11 +16279,17 @@
       <c r="I95" s="124">
         <v>3721194029.95</v>
       </c>
-      <c r="J95" s="125"/>
+      <c r="J95" s="125">
+        <f t="shared" si="30"/>
+        <v>-0.0519952989021594</v>
+      </c>
       <c r="K95" s="76">
         <v>1219123566.52</v>
       </c>
-      <c r="L95" s="62"/>
+      <c r="L95" s="62">
+        <f t="shared" si="31"/>
+        <v>-0.140930765130987</v>
+      </c>
       <c r="M95" s="76"/>
       <c r="N95" s="62"/>
       <c r="O95" s="76"/>
@@ -16250,7 +16305,7 @@
       <c r="W95" s="76"/>
       <c r="X95" s="76"/>
       <c r="Y95" s="76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>629966453.84</v>
       </c>
       <c r="Z95" s="76"/>
@@ -16275,7 +16330,7 @@
         <v>38121658.07</v>
       </c>
       <c r="AM95" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>497020440.9</v>
       </c>
       <c r="AN95" s="77"/>
@@ -16315,27 +16370,27 @@
       <c r="BV95" s="5"/>
       <c r="BW95" s="5"/>
       <c r="BX95" s="103">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>1849090020.36</v>
       </c>
       <c r="BY95" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-0.148761348387564</v>
       </c>
       <c r="BZ95" s="62"/>
       <c r="CA95" s="77">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1352069579.46</v>
       </c>
       <c r="CB95" s="61">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-0.268732401267591</v>
       </c>
       <c r="CC95" s="77">
         <v>-114023890.11</v>
       </c>
       <c r="CD95" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-4.97216256816685</v>
       </c>
       <c r="CE95" s="77">
@@ -16346,24 +16401,24 @@
         <v>43612148.46</v>
       </c>
       <c r="CH95" s="76">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>-66960247.6</v>
       </c>
       <c r="CI95" s="76">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>-70411741.65</v>
       </c>
       <c r="CJ95" s="62"/>
       <c r="CK95" s="62">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>-0.0597982763643236</v>
       </c>
       <c r="CL95" s="62">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>-0.0380791312887468</v>
       </c>
       <c r="CM95" s="56">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>-0.0520770104731752</v>
       </c>
       <c r="CN95" s="76"/>
@@ -16392,11 +16447,17 @@
       <c r="I96" s="124">
         <v>3925290692.8</v>
       </c>
-      <c r="J96" s="125"/>
+      <c r="J96" s="125">
+        <f t="shared" si="30"/>
+        <v>-0.0952293934263177</v>
+      </c>
       <c r="K96" s="76">
         <v>1419121436.36</v>
       </c>
-      <c r="L96" s="62"/>
+      <c r="L96" s="62">
+        <f t="shared" si="31"/>
+        <v>-0.211575863677877</v>
+      </c>
       <c r="M96" s="76"/>
       <c r="N96" s="62"/>
       <c r="O96" s="76"/>
@@ -16412,7 +16473,7 @@
       <c r="W96" s="76"/>
       <c r="X96" s="76"/>
       <c r="Y96" s="76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>753113126.6</v>
       </c>
       <c r="Z96" s="76"/>
@@ -16435,7 +16496,7 @@
       <c r="AK96" s="77"/>
       <c r="AL96" s="77"/>
       <c r="AM96" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>323295020.44</v>
       </c>
       <c r="AN96" s="77"/>
@@ -16475,27 +16536,27 @@
       <c r="BV96" s="5"/>
       <c r="BW96" s="5"/>
       <c r="BX96" s="103">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>2172234562.96</v>
       </c>
       <c r="BY96" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-0.260250645844569</v>
       </c>
       <c r="BZ96" s="62"/>
       <c r="CA96" s="77">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>1848939542.52</v>
       </c>
       <c r="CB96" s="61">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-0.242481507311488</v>
       </c>
       <c r="CC96" s="77">
         <v>28705746.09</v>
       </c>
       <c r="CD96" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-0.834376366832034</v>
       </c>
       <c r="CE96" s="77">
@@ -16506,24 +16567,24 @@
         <v>69489777.31</v>
       </c>
       <c r="CH96" s="76">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>94518216.56</v>
       </c>
       <c r="CI96" s="76">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>98195523.4</v>
       </c>
       <c r="CJ96" s="62"/>
       <c r="CK96" s="62">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.0115219781863221</v>
       </c>
       <c r="CL96" s="62">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.0452048434705844</v>
       </c>
       <c r="CM96" s="56">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.0531091045119653</v>
       </c>
       <c r="CN96" s="76"/>
@@ -16552,11 +16613,17 @@
       <c r="I97" s="124">
         <v>4338437460.59</v>
       </c>
-      <c r="J97" s="125"/>
+      <c r="J97" s="125">
+        <f t="shared" si="30"/>
+        <v>-0.068587107956968</v>
+      </c>
       <c r="K97" s="76">
         <v>1799946717.74</v>
       </c>
-      <c r="L97" s="62"/>
+      <c r="L97" s="62">
+        <f t="shared" si="31"/>
+        <v>-0.0291751837847548</v>
+      </c>
       <c r="M97" s="76"/>
       <c r="N97" s="62"/>
       <c r="O97" s="76"/>
@@ -16572,7 +16639,7 @@
       <c r="W97" s="76"/>
       <c r="X97" s="76"/>
       <c r="Y97" s="76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1136500000</v>
       </c>
       <c r="Z97" s="76"/>
@@ -16595,7 +16662,7 @@
       <c r="AK97" s="77"/>
       <c r="AL97" s="77"/>
       <c r="AM97" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>495662023.55</v>
       </c>
       <c r="AN97" s="77"/>
@@ -16635,27 +16702,27 @@
       <c r="BV97" s="5"/>
       <c r="BW97" s="5"/>
       <c r="BX97" s="103">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>2936446717.74</v>
       </c>
       <c r="BY97" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>-0.0586919860026321</v>
       </c>
       <c r="BZ97" s="62"/>
       <c r="CA97" s="77">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>2440784694.19</v>
       </c>
       <c r="CB97" s="61">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>-0.0394789159755684</v>
       </c>
       <c r="CC97" s="77">
         <v>173319142.57</v>
       </c>
       <c r="CD97" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>0.0881826866410799</v>
       </c>
       <c r="CE97" s="77">
@@ -16666,24 +16733,24 @@
         <v>79814161.27</v>
       </c>
       <c r="CH97" s="76">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>250748181.35</v>
       </c>
       <c r="CI97" s="76">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>253133303.84</v>
       </c>
       <c r="CJ97" s="62"/>
       <c r="CK97" s="62">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.0582111771507154</v>
       </c>
       <c r="CL97" s="62">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.0862039492529328</v>
       </c>
       <c r="CM97" s="56">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.103709804655263</v>
       </c>
       <c r="CN97" s="76"/>
@@ -16712,11 +16779,17 @@
       <c r="I98" s="124">
         <v>4657910039.31</v>
       </c>
-      <c r="J98" s="125"/>
+      <c r="J98" s="125">
+        <f t="shared" si="30"/>
+        <v>0.299518641776976</v>
+      </c>
       <c r="K98" s="76">
         <v>1854038635.68</v>
       </c>
-      <c r="L98" s="62"/>
+      <c r="L98" s="62">
+        <f t="shared" si="31"/>
+        <v>0.252499948579362</v>
+      </c>
       <c r="M98" s="76"/>
       <c r="N98" s="62"/>
       <c r="O98" s="76"/>
@@ -16732,7 +16805,7 @@
       <c r="W98" s="76"/>
       <c r="X98" s="76"/>
       <c r="Y98" s="76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>1265500000</v>
       </c>
       <c r="Z98" s="76"/>
@@ -16753,7 +16826,7 @@
       <c r="AK98" s="77"/>
       <c r="AL98" s="77"/>
       <c r="AM98" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>578433880.37</v>
       </c>
       <c r="AN98" s="77"/>
@@ -16793,27 +16866,27 @@
       <c r="BV98" s="5"/>
       <c r="BW98" s="5"/>
       <c r="BX98" s="103">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>3119538635.68</v>
       </c>
       <c r="BY98" s="62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>0.268378183949582</v>
       </c>
       <c r="BZ98" s="62"/>
       <c r="CA98" s="77">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>2541104755.31</v>
       </c>
       <c r="CB98" s="61">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>0.190017808786756</v>
       </c>
       <c r="CC98" s="77">
         <v>159273938.74</v>
       </c>
       <c r="CD98" s="62">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>-0.094430422319564</v>
       </c>
       <c r="CE98" s="77">
@@ -16824,24 +16897,24 @@
         <v>89545322.45</v>
       </c>
       <c r="CH98" s="76">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>279563332.08</v>
       </c>
       <c r="CI98" s="76">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>248819261.19</v>
       </c>
       <c r="CJ98" s="62"/>
       <c r="CK98" s="62">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.0609122154977188</v>
       </c>
       <c r="CL98" s="62">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.0797615577970754</v>
       </c>
       <c r="CM98" s="56">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.097917750407596</v>
       </c>
       <c r="CN98" s="76"/>
@@ -16892,7 +16965,7 @@
       <c r="W99" s="76"/>
       <c r="X99" s="76"/>
       <c r="Y99" s="76">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>979200000</v>
       </c>
       <c r="Z99" s="76"/>
@@ -16913,7 +16986,7 @@
       <c r="AK99" s="77"/>
       <c r="AL99" s="77"/>
       <c r="AM99" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>324120237.56</v>
       </c>
       <c r="AN99" s="77"/>
@@ -16953,7 +17026,7 @@
       <c r="BV99" s="5"/>
       <c r="BW99" s="5"/>
       <c r="BX99" s="103">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>2459470428.58</v>
       </c>
       <c r="BY99" s="62">
@@ -16962,7 +17035,7 @@
       </c>
       <c r="BZ99" s="62"/>
       <c r="CA99" s="77">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>2135350191.02</v>
       </c>
       <c r="CB99" s="61"/>
@@ -16981,24 +17054,24 @@
         <v>57783173.7</v>
       </c>
       <c r="CH99" s="76">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>258409121.56</v>
       </c>
       <c r="CI99" s="76">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>233665781.36</v>
       </c>
       <c r="CJ99" s="62"/>
       <c r="CK99" s="62">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>0.0815728237789114</v>
       </c>
       <c r="CL99" s="62">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.0950065423209456</v>
       </c>
       <c r="CM99" s="56">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>0.109427382142123</v>
       </c>
       <c r="CN99" s="76"/>
@@ -17057,7 +17130,7 @@
       <c r="AK100" s="77"/>
       <c r="AL100" s="77"/>
       <c r="AM100" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN100" s="77"/>
@@ -17111,7 +17184,7 @@
       <c r="CJ100" s="62"/>
       <c r="CK100" s="62"/>
       <c r="CL100" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM100" s="56"/>
@@ -17169,7 +17242,7 @@
       <c r="AK101" s="77"/>
       <c r="AL101" s="77"/>
       <c r="AM101" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN101" s="77"/>
@@ -17223,7 +17296,7 @@
       <c r="CJ101" s="62"/>
       <c r="CK101" s="62"/>
       <c r="CL101" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM101" s="56"/>
@@ -17281,7 +17354,7 @@
       <c r="AK102" s="77"/>
       <c r="AL102" s="77"/>
       <c r="AM102" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN102" s="77"/>
@@ -17335,7 +17408,7 @@
       <c r="CJ102" s="62"/>
       <c r="CK102" s="62"/>
       <c r="CL102" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM102" s="56"/>
@@ -17393,7 +17466,7 @@
       <c r="AK103" s="77"/>
       <c r="AL103" s="77"/>
       <c r="AM103" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN103" s="77"/>
@@ -17447,7 +17520,7 @@
       <c r="CJ103" s="62"/>
       <c r="CK103" s="62"/>
       <c r="CL103" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM103" s="56"/>
@@ -17505,7 +17578,7 @@
       <c r="AK104" s="77"/>
       <c r="AL104" s="77"/>
       <c r="AM104" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN104" s="77"/>
@@ -17559,7 +17632,7 @@
       <c r="CJ104" s="62"/>
       <c r="CK104" s="62"/>
       <c r="CL104" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM104" s="56"/>
@@ -17617,7 +17690,7 @@
       <c r="AK105" s="77"/>
       <c r="AL105" s="77"/>
       <c r="AM105" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN105" s="77"/>
@@ -17671,7 +17744,7 @@
       <c r="CJ105" s="62"/>
       <c r="CK105" s="62"/>
       <c r="CL105" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM105" s="56"/>
@@ -17729,7 +17802,7 @@
       <c r="AK106" s="77"/>
       <c r="AL106" s="77"/>
       <c r="AM106" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN106" s="77"/>
@@ -17783,7 +17856,7 @@
       <c r="CJ106" s="62"/>
       <c r="CK106" s="62"/>
       <c r="CL106" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM106" s="56"/>
@@ -17841,7 +17914,7 @@
       <c r="AK107" s="77"/>
       <c r="AL107" s="77"/>
       <c r="AM107" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN107" s="77"/>
@@ -17895,7 +17968,7 @@
       <c r="CJ107" s="62"/>
       <c r="CK107" s="62"/>
       <c r="CL107" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM107" s="56"/>
@@ -17953,7 +18026,7 @@
       <c r="AK108" s="77"/>
       <c r="AL108" s="77"/>
       <c r="AM108" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN108" s="77"/>
@@ -18007,7 +18080,7 @@
       <c r="CJ108" s="62"/>
       <c r="CK108" s="62"/>
       <c r="CL108" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM108" s="56"/>
@@ -18065,7 +18138,7 @@
       <c r="AK109" s="77"/>
       <c r="AL109" s="77"/>
       <c r="AM109" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN109" s="77"/>
@@ -18119,7 +18192,7 @@
       <c r="CJ109" s="62"/>
       <c r="CK109" s="62"/>
       <c r="CL109" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM109" s="56"/>
@@ -18177,7 +18250,7 @@
       <c r="AK110" s="77"/>
       <c r="AL110" s="77"/>
       <c r="AM110" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN110" s="77"/>
@@ -18231,7 +18304,7 @@
       <c r="CJ110" s="62"/>
       <c r="CK110" s="62"/>
       <c r="CL110" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM110" s="56"/>
@@ -18291,7 +18364,7 @@
       <c r="AK111" s="77"/>
       <c r="AL111" s="77"/>
       <c r="AM111" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN111" s="77"/>
@@ -18345,7 +18418,7 @@
       <c r="CJ111" s="62"/>
       <c r="CK111" s="62"/>
       <c r="CL111" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM111" s="56"/>
@@ -18403,7 +18476,7 @@
       <c r="AK112" s="77"/>
       <c r="AL112" s="77"/>
       <c r="AM112" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN112" s="77"/>
@@ -18457,7 +18530,7 @@
       <c r="CJ112" s="62"/>
       <c r="CK112" s="62"/>
       <c r="CL112" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM112" s="56"/>
@@ -18515,7 +18588,7 @@
       <c r="AK113" s="77"/>
       <c r="AL113" s="77"/>
       <c r="AM113" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN113" s="77"/>
@@ -18569,7 +18642,7 @@
       <c r="CJ113" s="62"/>
       <c r="CK113" s="62"/>
       <c r="CL113" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM113" s="56"/>
@@ -18627,7 +18700,7 @@
       <c r="AK114" s="77"/>
       <c r="AL114" s="77"/>
       <c r="AM114" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN114" s="77"/>
@@ -18681,7 +18754,7 @@
       <c r="CJ114" s="62"/>
       <c r="CK114" s="62"/>
       <c r="CL114" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM114" s="56"/>
@@ -18739,7 +18812,7 @@
       <c r="AK115" s="77"/>
       <c r="AL115" s="77"/>
       <c r="AM115" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN115" s="77"/>
@@ -18793,7 +18866,7 @@
       <c r="CJ115" s="62"/>
       <c r="CK115" s="62"/>
       <c r="CL115" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM115" s="56"/>
@@ -18851,7 +18924,7 @@
       <c r="AK116" s="77"/>
       <c r="AL116" s="77"/>
       <c r="AM116" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN116" s="77"/>
@@ -18905,7 +18978,7 @@
       <c r="CJ116" s="62"/>
       <c r="CK116" s="62"/>
       <c r="CL116" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM116" s="56"/>
@@ -18963,7 +19036,7 @@
       <c r="AK117" s="77"/>
       <c r="AL117" s="77"/>
       <c r="AM117" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN117" s="77"/>
@@ -19017,7 +19090,7 @@
       <c r="CJ117" s="62"/>
       <c r="CK117" s="62"/>
       <c r="CL117" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM117" s="56"/>
@@ -19075,7 +19148,7 @@
       <c r="AK118" s="77"/>
       <c r="AL118" s="77"/>
       <c r="AM118" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN118" s="77"/>
@@ -19129,7 +19202,7 @@
       <c r="CJ118" s="62"/>
       <c r="CK118" s="62"/>
       <c r="CL118" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM118" s="56"/>
@@ -19187,7 +19260,7 @@
       <c r="AK119" s="77"/>
       <c r="AL119" s="77"/>
       <c r="AM119" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN119" s="77"/>
@@ -19241,7 +19314,7 @@
       <c r="CJ119" s="62"/>
       <c r="CK119" s="62"/>
       <c r="CL119" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM119" s="56"/>
@@ -19299,7 +19372,7 @@
       <c r="AK120" s="77"/>
       <c r="AL120" s="77"/>
       <c r="AM120" s="77">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="AN120" s="77"/>
@@ -19353,7 +19426,7 @@
       <c r="CJ120" s="62"/>
       <c r="CK120" s="62"/>
       <c r="CL120" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM120" s="56"/>
@@ -19411,7 +19484,7 @@
       <c r="AK121" s="77"/>
       <c r="AL121" s="77"/>
       <c r="AM121" s="77">
-        <f t="shared" ref="AM121:AM184" si="39">SUM(Z121:AL121)</f>
+        <f t="shared" ref="AM121:AM184" si="42">SUM(Z121:AL121)</f>
         <v>0</v>
       </c>
       <c r="AN121" s="77"/>
@@ -19465,7 +19538,7 @@
       <c r="CJ121" s="62"/>
       <c r="CK121" s="62"/>
       <c r="CL121" s="62" t="e">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM121" s="56"/>
@@ -19546,7 +19619,7 @@
       <c r="AK122" s="77"/>
       <c r="AL122" s="77"/>
       <c r="AM122" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>5194398480.81</v>
       </c>
       <c r="AN122" s="77"/>
@@ -19633,7 +19706,7 @@
         <v>0.220379298944783</v>
       </c>
       <c r="CL122" s="62">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.22749674444575</v>
       </c>
       <c r="CM122" s="56">
@@ -19717,7 +19790,7 @@
       <c r="AK123" s="77"/>
       <c r="AL123" s="77"/>
       <c r="AM123" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>3396521782.81</v>
       </c>
       <c r="AN123" s="77"/>
@@ -19804,7 +19877,7 @@
         <v>0.303811185764005</v>
       </c>
       <c r="CL123" s="62">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.304543161419949</v>
       </c>
       <c r="CM123" s="165">
@@ -19889,7 +19962,7 @@
       <c r="AK124" s="77"/>
       <c r="AL124" s="77"/>
       <c r="AM124" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1374853700</v>
       </c>
       <c r="AN124" s="77"/>
@@ -19979,7 +20052,7 @@
         <v>0.442769422642727</v>
       </c>
       <c r="CL124" s="62">
-        <f t="shared" si="32"/>
+        <f t="shared" si="35"/>
         <v>0.444842318030319</v>
       </c>
       <c r="CM124" s="165">
@@ -20061,7 +20134,7 @@
       <c r="AK125" s="77"/>
       <c r="AL125" s="77"/>
       <c r="AM125" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1075095700</v>
       </c>
       <c r="AN125" s="77"/>
@@ -20151,7 +20224,7 @@
         <v>0.39132891855125</v>
       </c>
       <c r="CL125" s="62">
-        <f t="shared" ref="CL125:CL166" si="40">(CC125+CG125)/BX125</f>
+        <f t="shared" ref="CL125:CL166" si="43">(CC125+CG125)/BX125</f>
         <v>0.386102665707219</v>
       </c>
       <c r="CM125" s="165">
@@ -20230,7 +20303,7 @@
       <c r="AK126" s="77"/>
       <c r="AL126" s="77"/>
       <c r="AM126" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>339295000</v>
       </c>
       <c r="AN126" s="77"/>
@@ -20314,7 +20387,7 @@
         <v>0.211596388690062</v>
       </c>
       <c r="CL126" s="62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.21675345645701</v>
       </c>
       <c r="CM126" s="56">
@@ -20375,7 +20448,7 @@
       <c r="AK127" s="77"/>
       <c r="AL127" s="77"/>
       <c r="AM127" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN127" s="77"/>
@@ -20429,7 +20502,7 @@
       <c r="CJ127" s="62"/>
       <c r="CK127" s="62"/>
       <c r="CL127" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM127" s="56"/>
@@ -20487,7 +20560,7 @@
       <c r="AK128" s="77"/>
       <c r="AL128" s="77"/>
       <c r="AM128" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN128" s="77"/>
@@ -20541,7 +20614,7 @@
       <c r="CJ128" s="62"/>
       <c r="CK128" s="62"/>
       <c r="CL128" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM128" s="56"/>
@@ -20599,7 +20672,7 @@
       <c r="AK129" s="77"/>
       <c r="AL129" s="77"/>
       <c r="AM129" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN129" s="77"/>
@@ -20653,7 +20726,7 @@
       <c r="CJ129" s="62"/>
       <c r="CK129" s="62"/>
       <c r="CL129" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM129" s="56"/>
@@ -20711,7 +20784,7 @@
       <c r="AK130" s="77"/>
       <c r="AL130" s="77"/>
       <c r="AM130" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN130" s="77"/>
@@ -20765,7 +20838,7 @@
       <c r="CJ130" s="62"/>
       <c r="CK130" s="62"/>
       <c r="CL130" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM130" s="56"/>
@@ -20823,7 +20896,7 @@
       <c r="AK131" s="77"/>
       <c r="AL131" s="77"/>
       <c r="AM131" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN131" s="77"/>
@@ -20877,7 +20950,7 @@
       <c r="CJ131" s="62"/>
       <c r="CK131" s="62"/>
       <c r="CL131" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM131" s="56"/>
@@ -20935,7 +21008,7 @@
       <c r="AK132" s="77"/>
       <c r="AL132" s="77"/>
       <c r="AM132" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN132" s="77"/>
@@ -20989,7 +21062,7 @@
       <c r="CJ132" s="62"/>
       <c r="CK132" s="62"/>
       <c r="CL132" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM132" s="56"/>
@@ -21022,7 +21095,7 @@
         <v>3812738019.4</v>
       </c>
       <c r="J133" s="62"/>
-      <c r="K133" s="180">
+      <c r="K133" s="182">
         <v>2793705645.6</v>
       </c>
       <c r="L133" s="62"/>
@@ -21059,7 +21132,7 @@
       <c r="AK133" s="77"/>
       <c r="AL133" s="77"/>
       <c r="AM133" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2989858579.93</v>
       </c>
       <c r="AN133" s="77">
@@ -21109,7 +21182,7 @@
         <v>2793705645.6</v>
       </c>
       <c r="BY133" s="62">
-        <f t="shared" ref="BY133:CD133" si="41">(BX133-BX134)/BX134</f>
+        <f t="shared" ref="BY133:CD133" si="44">(BX133-BX134)/BX134</f>
         <v>0.167907450764277</v>
       </c>
       <c r="BZ133" s="62"/>
@@ -21118,14 +21191,14 @@
         <v>-196152934.33</v>
       </c>
       <c r="CB133" s="61">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-0.0858532834018416</v>
       </c>
       <c r="CC133" s="77">
         <v>796165149.65</v>
       </c>
       <c r="CD133" s="62">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>0.059438524829996</v>
       </c>
       <c r="CE133" s="77">
@@ -21149,10 +21222,10 @@
         <v>0.284389968532052</v>
       </c>
       <c r="CL133" s="62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.271172050399496</v>
       </c>
-      <c r="CM133" s="207">
+      <c r="CM133" s="209">
         <f>CI133/CA133</f>
         <v>-3.8621644418303</v>
       </c>
@@ -21183,7 +21256,7 @@
         <v>3508334611.06</v>
       </c>
       <c r="J134" s="62"/>
-      <c r="K134" s="180">
+      <c r="K134" s="182">
         <v>2392060812.5</v>
       </c>
       <c r="L134" s="62"/>
@@ -21220,17 +21293,17 @@
       <c r="AK134" s="77"/>
       <c r="AL134" s="77"/>
       <c r="AM134" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2606635705.97</v>
       </c>
       <c r="AN134" s="77">
-        <f t="shared" ref="AN134:AN143" si="42">SUM(Z134:AG134)</f>
+        <f t="shared" ref="AN134:AN143" si="45">SUM(Z134:AG134)</f>
         <v>0</v>
       </c>
       <c r="AO134" s="62"/>
       <c r="AP134" s="62"/>
       <c r="AQ134" s="77">
-        <f t="shared" ref="AQ134:AQ143" si="43">SUM(AH134:AL134)</f>
+        <f t="shared" ref="AQ134:AQ143" si="46">SUM(AH134:AL134)</f>
         <v>2606635705.97</v>
       </c>
       <c r="AR134" s="62"/>
@@ -21266,27 +21339,27 @@
       <c r="BV134" s="5"/>
       <c r="BW134" s="5"/>
       <c r="BX134" s="103">
-        <f t="shared" ref="BX134:BX143" si="44">K134+Y134</f>
+        <f t="shared" ref="BX134:BX143" si="47">K134+Y134</f>
         <v>2392060812.5</v>
       </c>
       <c r="BY134" s="62">
-        <f t="shared" ref="BY134:BY143" si="45">(BX134-BX135)/BX135</f>
+        <f t="shared" ref="BY134:BY143" si="48">(BX134-BX135)/BX135</f>
         <v>0.0687927460622966</v>
       </c>
       <c r="BZ134" s="62"/>
       <c r="CA134" s="77">
-        <f t="shared" ref="CA134:CA143" si="46">K134+Y134-AM134</f>
+        <f t="shared" ref="CA134:CA143" si="49">K134+Y134-AM134</f>
         <v>-214574893.47</v>
       </c>
       <c r="CB134" s="61">
-        <f t="shared" ref="CB134:CB142" si="47">(CA134-CA135)/CA135</f>
+        <f t="shared" ref="CB134:CB142" si="50">(CA134-CA135)/CA135</f>
         <v>1.01798538381287</v>
       </c>
       <c r="CC134" s="77">
         <v>751497261.04</v>
       </c>
       <c r="CD134" s="62">
-        <f t="shared" ref="CD134:CD143" si="48">(CC134-CC135)/CC135</f>
+        <f t="shared" ref="CD134:CD143" si="51">(CC134-CC135)/CC135</f>
         <v>0.285211658464694</v>
       </c>
       <c r="CE134" s="77">
@@ -21297,24 +21370,24 @@
         <v>-40556321.51</v>
       </c>
       <c r="CH134" s="76">
-        <f t="shared" ref="CH134:CH143" si="49">CE134+CG134</f>
+        <f t="shared" ref="CH134:CH143" si="52">CE134+CG134</f>
         <v>712069021.57</v>
       </c>
       <c r="CI134" s="76">
-        <f t="shared" ref="CI134:CI143" si="50">CC134+CG134</f>
+        <f t="shared" ref="CI134:CI143" si="53">CC134+CG134</f>
         <v>710940939.53</v>
       </c>
       <c r="CJ134" s="62"/>
       <c r="CK134" s="62">
-        <f t="shared" ref="CK134:CK143" si="51">CE134/BX134</f>
+        <f t="shared" ref="CK134:CK143" si="54">CE134/BX134</f>
         <v>0.314634702908499</v>
       </c>
       <c r="CL134" s="62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.297208555825543</v>
       </c>
-      <c r="CM134" s="207">
-        <f t="shared" ref="CM134:CM143" si="52">CI134/CA134</f>
+      <c r="CM134" s="209">
+        <f t="shared" ref="CM134:CM143" si="55">CI134/CA134</f>
         <v>-3.31325313988516</v>
       </c>
       <c r="CN134" s="76"/>
@@ -21381,17 +21454,17 @@
       <c r="AK135" s="77"/>
       <c r="AL135" s="77"/>
       <c r="AM135" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2344427282.59</v>
       </c>
       <c r="AN135" s="77">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>2547658.76</v>
       </c>
       <c r="AO135" s="62"/>
       <c r="AP135" s="62"/>
       <c r="AQ135" s="77">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>2341879623.83</v>
       </c>
       <c r="AR135" s="62"/>
@@ -21427,27 +21500,27 @@
       <c r="BV135" s="5"/>
       <c r="BW135" s="5"/>
       <c r="BX135" s="103">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>2238096039.96</v>
       </c>
       <c r="BY135" s="62">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.10196826067192</v>
       </c>
       <c r="BZ135" s="62"/>
       <c r="CA135" s="77">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-106331242.63</v>
       </c>
       <c r="CB135" s="61">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-0.394237938482467</v>
       </c>
       <c r="CC135" s="77">
         <v>584726458.16</v>
       </c>
       <c r="CD135" s="62">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>-0.0544801663241003</v>
       </c>
       <c r="CE135" s="77">
@@ -21458,24 +21531,24 @@
         <v>-32383675.53</v>
       </c>
       <c r="CH135" s="76">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>552585251.83</v>
       </c>
       <c r="CI135" s="76">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>552342782.63</v>
       </c>
       <c r="CJ135" s="62"/>
       <c r="CK135" s="62">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0.261369001560118</v>
       </c>
       <c r="CL135" s="62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.246791367648312</v>
       </c>
-      <c r="CM135" s="207">
-        <f t="shared" si="52"/>
+      <c r="CM135" s="209">
+        <f t="shared" si="55"/>
         <v>-5.19454836573275</v>
       </c>
       <c r="CN135" s="76"/>
@@ -21544,17 +21617,17 @@
       <c r="AK136" s="77"/>
       <c r="AL136" s="77"/>
       <c r="AM136" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2206531658.74</v>
       </c>
       <c r="AN136" s="77">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>2909380.13</v>
       </c>
       <c r="AO136" s="62"/>
       <c r="AP136" s="62"/>
       <c r="AQ136" s="77">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>2203622278.61</v>
       </c>
       <c r="AR136" s="62"/>
@@ -21590,27 +21663,27 @@
       <c r="BV136" s="5"/>
       <c r="BW136" s="5"/>
       <c r="BX136" s="103">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>2030998641.1</v>
       </c>
       <c r="BY136" s="62">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.0380388648499827</v>
       </c>
       <c r="BZ136" s="62"/>
       <c r="CA136" s="77">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-175533017.64</v>
       </c>
       <c r="CB136" s="61">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-8.11525346419397</v>
       </c>
       <c r="CC136" s="77">
         <v>618417972.14</v>
       </c>
       <c r="CD136" s="62">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.126337854241162</v>
       </c>
       <c r="CE136" s="77">
@@ -21621,24 +21694,24 @@
         <v>-21882135.48</v>
       </c>
       <c r="CH136" s="76">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>596358691.19</v>
       </c>
       <c r="CI136" s="76">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>596535836.66</v>
       </c>
       <c r="CJ136" s="62"/>
       <c r="CK136" s="62">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0.30440238322127</v>
       </c>
       <c r="CL136" s="62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.293715527223058</v>
       </c>
-      <c r="CM136" s="207">
-        <f t="shared" si="52"/>
+      <c r="CM136" s="209">
+        <f t="shared" si="55"/>
         <v>-3.39842523463837</v>
       </c>
       <c r="CN136" s="76"/>
@@ -21707,17 +21780,17 @@
       <c r="AK137" s="77"/>
       <c r="AL137" s="77"/>
       <c r="AM137" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1931902871.69</v>
       </c>
       <c r="AN137" s="77">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>4759857.26</v>
       </c>
       <c r="AO137" s="62"/>
       <c r="AP137" s="62"/>
       <c r="AQ137" s="77">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1927143014.43</v>
       </c>
       <c r="AR137" s="62"/>
@@ -21753,27 +21826,27 @@
       <c r="BV137" s="5"/>
       <c r="BW137" s="5"/>
       <c r="BX137" s="103">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1956572831.59</v>
       </c>
       <c r="BY137" s="62">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>-0.0376919621245688</v>
       </c>
       <c r="BZ137" s="62"/>
       <c r="CA137" s="173">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>24669959.8999999</v>
       </c>
       <c r="CB137" s="61">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-0.796562128783059</v>
       </c>
       <c r="CC137" s="77">
         <v>549051929.5</v>
       </c>
       <c r="CD137" s="62">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>-0.0201702537528667</v>
       </c>
       <c r="CE137" s="77">
@@ -21784,24 +21857,24 @@
         <v>-26390709.15</v>
       </c>
       <c r="CH137" s="76">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>522836727.28</v>
       </c>
       <c r="CI137" s="76">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>522661220.35</v>
       </c>
       <c r="CJ137" s="62"/>
       <c r="CK137" s="62">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0.280708914875238</v>
       </c>
       <c r="CL137" s="62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.267130981229695</v>
       </c>
       <c r="CM137" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>21.1861398424893</v>
       </c>
       <c r="CN137" s="76"/>
@@ -21870,17 +21943,17 @@
       <c r="AK138" s="77"/>
       <c r="AL138" s="77"/>
       <c r="AM138" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1911943120.76</v>
       </c>
       <c r="AN138" s="77">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>6283810.89</v>
       </c>
       <c r="AO138" s="62"/>
       <c r="AP138" s="62"/>
       <c r="AQ138" s="77">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1905659309.87</v>
       </c>
       <c r="AR138" s="62"/>
@@ -21916,27 +21989,27 @@
       <c r="BV138" s="5"/>
       <c r="BW138" s="5"/>
       <c r="BX138" s="103">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>2033208447.38</v>
       </c>
       <c r="BY138" s="62">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.0133117996066434</v>
       </c>
       <c r="BZ138" s="62"/>
       <c r="CA138" s="77">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>121265326.62</v>
       </c>
       <c r="CB138" s="61">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-1.74533211097639</v>
       </c>
       <c r="CC138" s="77">
         <v>560354420.35</v>
       </c>
       <c r="CD138" s="62">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>-0.0842800872717325</v>
       </c>
       <c r="CE138" s="77">
@@ -21947,24 +22020,24 @@
         <v>-19026446.27</v>
       </c>
       <c r="CH138" s="76">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>541523520.8</v>
       </c>
       <c r="CI138" s="76">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>541327974.08</v>
       </c>
       <c r="CJ138" s="62"/>
       <c r="CK138" s="62">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0.275697244811434</v>
       </c>
       <c r="CL138" s="62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.266243224976543</v>
       </c>
       <c r="CM138" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>4.46399633900561</v>
       </c>
       <c r="CN138" s="76"/>
@@ -22033,17 +22106,17 @@
       <c r="AK139" s="77"/>
       <c r="AL139" s="77"/>
       <c r="AM139" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>2169198064.67</v>
       </c>
       <c r="AN139" s="77">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>7320270.57</v>
       </c>
       <c r="AO139" s="62"/>
       <c r="AP139" s="62"/>
       <c r="AQ139" s="77">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>2161877794.1</v>
       </c>
       <c r="AR139" s="62"/>
@@ -22079,27 +22152,27 @@
       <c r="BV139" s="5"/>
       <c r="BW139" s="5"/>
       <c r="BX139" s="103">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>2006498343.52</v>
       </c>
       <c r="BY139" s="62">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.179375605204468</v>
       </c>
       <c r="BZ139" s="62"/>
       <c r="CA139" s="77">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>-162699721.15</v>
       </c>
       <c r="CB139" s="61">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-1.84677575436417</v>
       </c>
       <c r="CC139" s="77">
         <v>611927744.02</v>
       </c>
       <c r="CD139" s="62">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>-0.00231986199054144</v>
       </c>
       <c r="CE139" s="77">
@@ -22110,24 +22183,24 @@
         <v>-20246380.65</v>
       </c>
       <c r="CH139" s="76">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>588128446.88</v>
       </c>
       <c r="CI139" s="76">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>591681363.37</v>
       </c>
       <c r="CJ139" s="62"/>
       <c r="CK139" s="62">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0.303202257552193</v>
       </c>
       <c r="CL139" s="62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.294882557606309</v>
       </c>
-      <c r="CM139" s="207">
-        <f t="shared" si="52"/>
+      <c r="CM139" s="209">
+        <f t="shared" si="55"/>
         <v>-3.63664645020813</v>
       </c>
       <c r="CN139" s="76"/>
@@ -22196,17 +22269,17 @@
       <c r="AK140" s="77"/>
       <c r="AL140" s="77"/>
       <c r="AM140" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>1509182307.77</v>
       </c>
       <c r="AN140" s="77">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>7016474.62</v>
       </c>
       <c r="AO140" s="62"/>
       <c r="AP140" s="62"/>
       <c r="AQ140" s="77">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>1502165833.15</v>
       </c>
       <c r="AR140" s="62"/>
@@ -22242,27 +22315,27 @@
       <c r="BV140" s="5"/>
       <c r="BW140" s="5"/>
       <c r="BX140" s="103">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1701322576.68</v>
       </c>
       <c r="BY140" s="62">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.269993728467291</v>
       </c>
       <c r="BZ140" s="62"/>
       <c r="CA140" s="77">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>192140268.91</v>
       </c>
       <c r="CB140" s="61">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>-0.586971426462437</v>
       </c>
       <c r="CC140" s="77">
         <v>613350632.84</v>
       </c>
       <c r="CD140" s="62">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.0483674452133285</v>
       </c>
       <c r="CE140" s="77">
@@ -22273,24 +22346,24 @@
         <v>-18640291.68</v>
       </c>
       <c r="CH140" s="76">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>604318655.04</v>
       </c>
       <c r="CI140" s="76">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>594710341.16</v>
       </c>
       <c r="CJ140" s="62"/>
       <c r="CK140" s="62">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0.366161570568032</v>
       </c>
       <c r="CL140" s="62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.349557661381613</v>
       </c>
       <c r="CM140" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>3.09518845025957</v>
       </c>
       <c r="CN140" s="76"/>
@@ -22359,17 +22432,17 @@
       <c r="AK141" s="77"/>
       <c r="AL141" s="77"/>
       <c r="AM141" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>874432201.09</v>
       </c>
       <c r="AN141" s="77">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>8523340.33</v>
       </c>
       <c r="AO141" s="62"/>
       <c r="AP141" s="62"/>
       <c r="AQ141" s="77">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>865908860.76</v>
       </c>
       <c r="AR141" s="62"/>
@@ -22405,27 +22478,27 @@
       <c r="BV141" s="5"/>
       <c r="BW141" s="5"/>
       <c r="BX141" s="103">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1339630691.51</v>
       </c>
       <c r="BY141" s="62">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.289663481062299</v>
       </c>
       <c r="BZ141" s="62"/>
       <c r="CA141" s="77">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>465198490.42</v>
       </c>
       <c r="CB141" s="61">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.481394049008209</v>
       </c>
       <c r="CC141" s="77">
         <v>585053108.66</v>
       </c>
       <c r="CD141" s="62">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.31817293700364</v>
       </c>
       <c r="CE141" s="77">
@@ -22436,24 +22509,24 @@
         <v>-13071814.25</v>
       </c>
       <c r="CH141" s="76">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>585165010.98</v>
       </c>
       <c r="CI141" s="76">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>571981294.41</v>
       </c>
       <c r="CJ141" s="62"/>
       <c r="CK141" s="62">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0.44656846772873</v>
       </c>
       <c r="CL141" s="62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.426969386439838</v>
       </c>
       <c r="CM141" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>1.22954245593874</v>
       </c>
       <c r="CN141" s="76"/>
@@ -22522,17 +22595,17 @@
       <c r="AK142" s="77"/>
       <c r="AL142" s="77"/>
       <c r="AM142" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>724716864.84</v>
       </c>
       <c r="AN142" s="77">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>9514357.65</v>
       </c>
       <c r="AO142" s="62"/>
       <c r="AP142" s="62"/>
       <c r="AQ142" s="77">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>715202507.19</v>
       </c>
       <c r="AR142" s="62"/>
@@ -22568,27 +22641,27 @@
       <c r="BV142" s="5"/>
       <c r="BW142" s="5"/>
       <c r="BX142" s="103">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1038744378.81</v>
       </c>
       <c r="BY142" s="62">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0.264499843149093</v>
       </c>
       <c r="BZ142" s="62"/>
       <c r="CA142" s="77">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>314027513.97</v>
       </c>
       <c r="CB142" s="61">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>0.20579940660096</v>
       </c>
       <c r="CC142" s="77">
         <v>443836383.1</v>
       </c>
       <c r="CD142" s="62">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>0.449049420748774</v>
       </c>
       <c r="CE142" s="77">
@@ -22599,24 +22672,24 @@
         <v>-9156414.69</v>
       </c>
       <c r="CH142" s="76">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>449785305.59</v>
       </c>
       <c r="CI142" s="76">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>434679968.41</v>
       </c>
       <c r="CJ142" s="62"/>
       <c r="CK142" s="62">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0.441823541616437</v>
       </c>
       <c r="CL142" s="62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.418466734720601</v>
       </c>
       <c r="CM142" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>1.38420981943489</v>
       </c>
       <c r="CN142" s="76"/>
@@ -22683,17 +22756,17 @@
       <c r="AK143" s="77"/>
       <c r="AL143" s="77"/>
       <c r="AM143" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>561035619.59</v>
       </c>
       <c r="AN143" s="77">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>10009987.49</v>
       </c>
       <c r="AO143" s="62"/>
       <c r="AP143" s="62"/>
       <c r="AQ143" s="77">
-        <f t="shared" si="43"/>
+        <f t="shared" si="46"/>
         <v>551025632.1</v>
       </c>
       <c r="AR143" s="62"/>
@@ -22729,16 +22802,16 @@
       <c r="BV143" s="5"/>
       <c r="BW143" s="5"/>
       <c r="BX143" s="103">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>821466593.64</v>
       </c>
       <c r="BY143" s="62" t="e">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BZ143" s="62"/>
       <c r="CA143" s="77">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>260430974.05</v>
       </c>
       <c r="CB143" s="61"/>
@@ -22746,7 +22819,7 @@
         <v>306294855.61</v>
       </c>
       <c r="CD143" s="62" t="e">
-        <f t="shared" si="48"/>
+        <f t="shared" si="51"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CE143" s="77">
@@ -22757,24 +22830,24 @@
         <v>-5701448.97</v>
       </c>
       <c r="CH143" s="76">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>305236254.74</v>
       </c>
       <c r="CI143" s="76">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>300593406.64</v>
       </c>
       <c r="CJ143" s="62"/>
       <c r="CK143" s="62">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>0.378515336006793</v>
       </c>
       <c r="CL143" s="62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.365922861583501</v>
       </c>
       <c r="CM143" s="56">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>1.15421526850446</v>
       </c>
       <c r="CN143" s="76"/>
@@ -22833,7 +22906,7 @@
       <c r="AK144" s="77"/>
       <c r="AL144" s="77"/>
       <c r="AM144" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN144" s="77"/>
@@ -22887,7 +22960,7 @@
       <c r="CJ144" s="62"/>
       <c r="CK144" s="62"/>
       <c r="CL144" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM144" s="56"/>
@@ -22945,7 +23018,7 @@
       <c r="AK145" s="77"/>
       <c r="AL145" s="77"/>
       <c r="AM145" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN145" s="77"/>
@@ -22999,7 +23072,7 @@
       <c r="CJ145" s="62"/>
       <c r="CK145" s="62"/>
       <c r="CL145" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM145" s="56"/>
@@ -23057,7 +23130,7 @@
       <c r="AK146" s="77"/>
       <c r="AL146" s="77"/>
       <c r="AM146" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN146" s="77"/>
@@ -23111,7 +23184,7 @@
       <c r="CJ146" s="62"/>
       <c r="CK146" s="62"/>
       <c r="CL146" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM146" s="56"/>
@@ -23169,7 +23242,7 @@
       <c r="AK147" s="77"/>
       <c r="AL147" s="77"/>
       <c r="AM147" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN147" s="77"/>
@@ -23223,7 +23296,7 @@
       <c r="CJ147" s="62"/>
       <c r="CK147" s="62"/>
       <c r="CL147" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM147" s="56"/>
@@ -23281,7 +23354,7 @@
       <c r="AK148" s="77"/>
       <c r="AL148" s="77"/>
       <c r="AM148" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN148" s="77"/>
@@ -23335,7 +23408,7 @@
       <c r="CJ148" s="62"/>
       <c r="CK148" s="62"/>
       <c r="CL148" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM148" s="56"/>
@@ -23393,7 +23466,7 @@
       <c r="AK149" s="77"/>
       <c r="AL149" s="77"/>
       <c r="AM149" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN149" s="77"/>
@@ -23447,7 +23520,7 @@
       <c r="CJ149" s="62"/>
       <c r="CK149" s="62"/>
       <c r="CL149" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM149" s="56"/>
@@ -23505,7 +23578,7 @@
       <c r="AK150" s="77"/>
       <c r="AL150" s="77"/>
       <c r="AM150" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN150" s="77"/>
@@ -23559,7 +23632,7 @@
       <c r="CJ150" s="62"/>
       <c r="CK150" s="62"/>
       <c r="CL150" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM150" s="56"/>
@@ -23617,7 +23690,7 @@
       <c r="AK151" s="77"/>
       <c r="AL151" s="77"/>
       <c r="AM151" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN151" s="77"/>
@@ -23671,7 +23744,7 @@
       <c r="CJ151" s="62"/>
       <c r="CK151" s="62"/>
       <c r="CL151" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM151" s="56"/>
@@ -23729,7 +23802,7 @@
       <c r="AK152" s="77"/>
       <c r="AL152" s="77"/>
       <c r="AM152" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN152" s="77"/>
@@ -23783,7 +23856,7 @@
       <c r="CJ152" s="62"/>
       <c r="CK152" s="62"/>
       <c r="CL152" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM152" s="56"/>
@@ -23841,7 +23914,7 @@
       <c r="AK153" s="77"/>
       <c r="AL153" s="77"/>
       <c r="AM153" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN153" s="77"/>
@@ -23895,7 +23968,7 @@
       <c r="CJ153" s="62"/>
       <c r="CK153" s="62"/>
       <c r="CL153" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM153" s="56"/>
@@ -23953,7 +24026,7 @@
       <c r="AK154" s="77"/>
       <c r="AL154" s="77"/>
       <c r="AM154" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN154" s="77"/>
@@ -24007,7 +24080,7 @@
       <c r="CJ154" s="62"/>
       <c r="CK154" s="62"/>
       <c r="CL154" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM154" s="56"/>
@@ -24099,7 +24172,7 @@
       </c>
       <c r="AL155" s="77"/>
       <c r="AM155" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>43563409529.18</v>
       </c>
       <c r="AN155" s="77"/>
@@ -24139,20 +24212,20 @@
       <c r="BV155" s="5"/>
       <c r="BW155" s="5"/>
       <c r="BX155" s="103">
-        <f t="shared" ref="BX155:BX161" si="53">K155+Y155</f>
+        <f t="shared" ref="BX155:BX161" si="56">K155+Y155</f>
         <v>54143103199.66</v>
       </c>
       <c r="BY155" s="62">
-        <f t="shared" ref="BY155:BY161" si="54">(BX155-BX156)/BX156</f>
+        <f t="shared" ref="BY155:BY161" si="57">(BX155-BX156)/BX156</f>
         <v>0.109694060062119</v>
       </c>
       <c r="BZ155" s="62"/>
       <c r="CA155" s="77">
-        <f t="shared" ref="CA155:CA161" si="55">K155+Y155-AM155</f>
+        <f t="shared" ref="CA155:CA161" si="58">K155+Y155-AM155</f>
         <v>10579693670.48</v>
       </c>
       <c r="CB155" s="61">
-        <f t="shared" ref="CB155:CB160" si="56">(CA155-CA156)/CA156</f>
+        <f t="shared" ref="CB155:CB160" si="59">(CA155-CA156)/CA156</f>
         <v>0.359876341529012</v>
       </c>
       <c r="CC155" s="77">
@@ -24168,24 +24241,24 @@
         <v>-254602871.53</v>
       </c>
       <c r="CH155" s="76">
-        <f t="shared" ref="CH155:CH161" si="57">CE155+CG155</f>
+        <f t="shared" ref="CH155:CH161" si="60">CE155+CG155</f>
         <v>-254602871.53</v>
       </c>
       <c r="CI155" s="76">
-        <f t="shared" ref="CI155:CI161" si="58">CC155+CG155</f>
+        <f t="shared" ref="CI155:CI161" si="61">CC155+CG155</f>
         <v>10605370084.47</v>
       </c>
       <c r="CJ155" s="62"/>
       <c r="CK155" s="62">
-        <f t="shared" ref="CK155:CK161" si="59">CE155/BX155</f>
+        <f t="shared" ref="CK155:CK161" si="62">CE155/BX155</f>
         <v>0</v>
       </c>
       <c r="CL155" s="62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.195876657556204</v>
       </c>
       <c r="CM155" s="56">
-        <f t="shared" ref="CM155:CM161" si="60">CI155/CA155</f>
+        <f t="shared" ref="CM155:CM161" si="63">CI155/CA155</f>
         <v>1.00242695249879</v>
       </c>
       <c r="CN155" s="76"/>
@@ -24274,7 +24347,7 @@
       </c>
       <c r="AL156" s="77"/>
       <c r="AM156" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>41011124395.04</v>
       </c>
       <c r="AN156" s="77"/>
@@ -24314,27 +24387,27 @@
       <c r="BV156" s="5"/>
       <c r="BW156" s="5"/>
       <c r="BX156" s="103">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>48791018307</v>
       </c>
       <c r="BY156" s="62">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.597995195871233</v>
       </c>
       <c r="BZ156" s="62"/>
       <c r="CA156" s="77">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>7779893911.96</v>
       </c>
       <c r="CB156" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>-0.301238195774396</v>
       </c>
       <c r="CC156" s="77">
         <v>10230310826.96</v>
       </c>
       <c r="CD156" s="62">
-        <f t="shared" ref="CD156:CD161" si="61">(CC156-CC157)/CC157</f>
+        <f t="shared" ref="CD156:CD161" si="64">(CC156-CC157)/CC157</f>
         <v>0.195376720842524</v>
       </c>
       <c r="CE156" s="77"/>
@@ -24343,24 +24416,24 @@
         <v>-29158814.97</v>
       </c>
       <c r="CH156" s="76">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>-29158814.97</v>
       </c>
       <c r="CI156" s="76">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>10201152011.99</v>
       </c>
       <c r="CJ156" s="62"/>
       <c r="CK156" s="62">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="CL156" s="62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.209078481367265</v>
       </c>
       <c r="CM156" s="56">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>1.31121993788473</v>
       </c>
       <c r="CN156" s="76"/>
@@ -24445,7 +24518,7 @@
       </c>
       <c r="AL157" s="77"/>
       <c r="AM157" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>19398815679.15</v>
       </c>
       <c r="AN157" s="77"/>
@@ -24485,27 +24558,27 @@
       <c r="BV157" s="5"/>
       <c r="BW157" s="5"/>
       <c r="BX157" s="103">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>30532643923.5</v>
       </c>
       <c r="BY157" s="62">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.16207972279486</v>
       </c>
       <c r="BZ157" s="62"/>
       <c r="CA157" s="77">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>11133828244.35</v>
       </c>
       <c r="CB157" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>0.0333441828843937</v>
       </c>
       <c r="CC157" s="77">
         <v>8558231600.62</v>
       </c>
       <c r="CD157" s="62">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.0335632820288337</v>
       </c>
       <c r="CE157" s="77"/>
@@ -24514,24 +24587,24 @@
         <v>188090069.95</v>
       </c>
       <c r="CH157" s="76">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>188090069.95</v>
       </c>
       <c r="CI157" s="76">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>8746321670.57</v>
       </c>
       <c r="CJ157" s="62"/>
       <c r="CK157" s="62">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="CL157" s="62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.286458051012026</v>
       </c>
       <c r="CM157" s="56">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.785562834149919</v>
       </c>
       <c r="CN157" s="76"/>
@@ -24614,7 +24687,7 @@
       <c r="AK158" s="77"/>
       <c r="AL158" s="77"/>
       <c r="AM158" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>15499579425.16</v>
       </c>
       <c r="AN158" s="77"/>
@@ -24654,27 +24727,27 @@
       <c r="BV158" s="5"/>
       <c r="BW158" s="5"/>
       <c r="BX158" s="103">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>26274138791.5</v>
       </c>
       <c r="BY158" s="62">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>-0.0628836599411676</v>
       </c>
       <c r="BZ158" s="62"/>
       <c r="CA158" s="77">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>10774559366.34</v>
       </c>
       <c r="CB158" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>-0.243642237027252</v>
       </c>
       <c r="CC158" s="77">
         <v>8280316986.32</v>
       </c>
       <c r="CD158" s="62">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>0.0766481773156449</v>
       </c>
       <c r="CE158" s="77"/>
@@ -24683,24 +24756,24 @@
         <v>8002122.74</v>
       </c>
       <c r="CH158" s="76">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>8002122.74</v>
       </c>
       <c r="CI158" s="76">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>8288319109.06</v>
       </c>
       <c r="CJ158" s="62"/>
       <c r="CK158" s="62">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>0</v>
       </c>
       <c r="CL158" s="62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.315455405592261</v>
       </c>
       <c r="CM158" s="56">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.769249008451605</v>
       </c>
       <c r="CN158" s="76"/>
@@ -24720,566 +24793,566 @@
       <c r="B159" s="17">
         <v>2018</v>
       </c>
-      <c r="C159" s="175"/>
+      <c r="C159" s="177"/>
       <c r="D159" s="41"/>
       <c r="E159" s="41"/>
       <c r="F159" s="41"/>
       <c r="G159" s="41"/>
       <c r="H159" s="41"/>
-      <c r="I159" s="175">
+      <c r="I159" s="177">
         <v>47606204460.43</v>
       </c>
-      <c r="J159" s="181"/>
-      <c r="K159" s="182">
+      <c r="J159" s="183"/>
+      <c r="K159" s="184">
         <v>28037221920.44</v>
       </c>
-      <c r="L159" s="183"/>
-      <c r="M159" s="182"/>
-      <c r="N159" s="183"/>
-      <c r="O159" s="182"/>
-      <c r="P159" s="182">
+      <c r="L159" s="185"/>
+      <c r="M159" s="184"/>
+      <c r="N159" s="185"/>
+      <c r="O159" s="184"/>
+      <c r="P159" s="184">
         <v>289000</v>
       </c>
-      <c r="Q159" s="182"/>
-      <c r="R159" s="182"/>
-      <c r="S159" s="182">
+      <c r="Q159" s="184"/>
+      <c r="R159" s="184"/>
+      <c r="S159" s="184">
         <v>133664814.17</v>
       </c>
       <c r="T159" s="72">
         <v>1523000000</v>
       </c>
-      <c r="U159" s="182"/>
-      <c r="V159" s="182"/>
-      <c r="W159" s="182"/>
-      <c r="X159" s="182"/>
-      <c r="Y159" s="182"/>
-      <c r="Z159" s="182"/>
-      <c r="AA159" s="182"/>
-      <c r="AB159" s="182">
+      <c r="U159" s="184"/>
+      <c r="V159" s="184"/>
+      <c r="W159" s="184"/>
+      <c r="X159" s="184"/>
+      <c r="Y159" s="184"/>
+      <c r="Z159" s="184"/>
+      <c r="AA159" s="184"/>
+      <c r="AB159" s="184">
         <v>831010989.62</v>
       </c>
-      <c r="AC159" s="182"/>
-      <c r="AD159" s="182">
+      <c r="AC159" s="184"/>
+      <c r="AD159" s="184">
         <v>1909387113.45</v>
       </c>
-      <c r="AE159" s="182"/>
-      <c r="AF159" s="190"/>
-      <c r="AG159" s="190"/>
-      <c r="AH159" s="190">
+      <c r="AE159" s="184"/>
+      <c r="AF159" s="192"/>
+      <c r="AG159" s="192"/>
+      <c r="AH159" s="192">
         <v>11051003654.02</v>
       </c>
-      <c r="AI159" s="190"/>
-      <c r="AJ159" s="190"/>
-      <c r="AK159" s="190"/>
-      <c r="AL159" s="190">
+      <c r="AI159" s="192"/>
+      <c r="AJ159" s="192"/>
+      <c r="AK159" s="192"/>
+      <c r="AL159" s="192">
         <v>498843.46</v>
       </c>
       <c r="AM159" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>13791900600.55</v>
       </c>
-      <c r="AN159" s="190"/>
-      <c r="AO159" s="183"/>
-      <c r="AP159" s="183"/>
-      <c r="AQ159" s="190"/>
-      <c r="AR159" s="183"/>
-      <c r="AS159" s="183"/>
-      <c r="AT159" s="190"/>
-      <c r="AU159" s="190"/>
-      <c r="AV159" s="190"/>
-      <c r="AW159" s="190"/>
-      <c r="AX159" s="190"/>
-      <c r="AY159" s="190"/>
-      <c r="AZ159" s="190"/>
-      <c r="BA159" s="190"/>
-      <c r="BB159" s="194"/>
-      <c r="BC159" s="195"/>
-      <c r="BD159" s="194"/>
-      <c r="BE159" s="194"/>
-      <c r="BF159" s="200"/>
-      <c r="BG159" s="200"/>
-      <c r="BH159" s="200"/>
-      <c r="BI159" s="200"/>
-      <c r="BJ159" s="200"/>
-      <c r="BK159" s="200"/>
-      <c r="BL159" s="200"/>
-      <c r="BM159" s="194"/>
-      <c r="BN159" s="194"/>
-      <c r="BO159" s="203"/>
-      <c r="BP159" s="203"/>
-      <c r="BQ159" s="203"/>
-      <c r="BR159" s="203"/>
-      <c r="BS159" s="203"/>
-      <c r="BT159" s="203"/>
-      <c r="BU159" s="203"/>
-      <c r="BV159" s="203"/>
-      <c r="BW159" s="203"/>
+      <c r="AN159" s="192"/>
+      <c r="AO159" s="185"/>
+      <c r="AP159" s="185"/>
+      <c r="AQ159" s="192"/>
+      <c r="AR159" s="185"/>
+      <c r="AS159" s="185"/>
+      <c r="AT159" s="192"/>
+      <c r="AU159" s="192"/>
+      <c r="AV159" s="192"/>
+      <c r="AW159" s="192"/>
+      <c r="AX159" s="192"/>
+      <c r="AY159" s="192"/>
+      <c r="AZ159" s="192"/>
+      <c r="BA159" s="192"/>
+      <c r="BB159" s="196"/>
+      <c r="BC159" s="197"/>
+      <c r="BD159" s="196"/>
+      <c r="BE159" s="196"/>
+      <c r="BF159" s="202"/>
+      <c r="BG159" s="202"/>
+      <c r="BH159" s="202"/>
+      <c r="BI159" s="202"/>
+      <c r="BJ159" s="202"/>
+      <c r="BK159" s="202"/>
+      <c r="BL159" s="202"/>
+      <c r="BM159" s="196"/>
+      <c r="BN159" s="196"/>
+      <c r="BO159" s="205"/>
+      <c r="BP159" s="205"/>
+      <c r="BQ159" s="205"/>
+      <c r="BR159" s="205"/>
+      <c r="BS159" s="205"/>
+      <c r="BT159" s="205"/>
+      <c r="BU159" s="205"/>
+      <c r="BV159" s="205"/>
+      <c r="BW159" s="205"/>
       <c r="BX159" s="103">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>28037221920.44</v>
       </c>
       <c r="BY159" s="62">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.110832988972343</v>
       </c>
       <c r="BZ159" s="62"/>
       <c r="CA159" s="77">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>14245321319.89</v>
       </c>
       <c r="CB159" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>13.2489314642181</v>
       </c>
-      <c r="CC159" s="205">
+      <c r="CC159" s="207">
         <v>7690828964.17</v>
       </c>
       <c r="CD159" s="62">
+        <f t="shared" si="64"/>
+        <v>0.0807932779864668</v>
+      </c>
+      <c r="CE159" s="192">
+        <v>7577632378.18</v>
+      </c>
+      <c r="CF159" s="192"/>
+      <c r="CG159" s="192">
+        <v>-60271167.99</v>
+      </c>
+      <c r="CH159" s="76">
+        <f t="shared" si="60"/>
+        <v>7517361210.19</v>
+      </c>
+      <c r="CI159" s="76">
         <f t="shared" si="61"/>
-        <v>0.0807932779864668</v>
-      </c>
-      <c r="CE159" s="190">
-        <v>7577632378.18</v>
-      </c>
-      <c r="CF159" s="190"/>
-      <c r="CG159" s="190">
-        <v>-60271167.99</v>
-      </c>
-      <c r="CH159" s="76">
-        <f t="shared" si="57"/>
-        <v>7517361210.19</v>
-      </c>
-      <c r="CI159" s="76">
-        <f t="shared" si="58"/>
         <v>7630557796.18</v>
       </c>
       <c r="CJ159" s="62"/>
       <c r="CK159" s="62">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>0.270270442616701</v>
       </c>
       <c r="CL159" s="62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.272158126715725</v>
       </c>
       <c r="CM159" s="56">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.535653610391073</v>
       </c>
-      <c r="CN159" s="182"/>
-      <c r="CO159" s="182"/>
-      <c r="CP159" s="182"/>
-      <c r="CQ159" s="182"/>
-      <c r="CR159" s="182"/>
-      <c r="CS159" s="182"/>
-      <c r="CT159" s="209"/>
-      <c r="CU159" s="210"/>
-      <c r="CV159" s="203"/>
-      <c r="CW159" s="203"/>
-      <c r="CX159" s="203"/>
+      <c r="CN159" s="184"/>
+      <c r="CO159" s="184"/>
+      <c r="CP159" s="184"/>
+      <c r="CQ159" s="184"/>
+      <c r="CR159" s="184"/>
+      <c r="CS159" s="184"/>
+      <c r="CT159" s="211"/>
+      <c r="CU159" s="212"/>
+      <c r="CV159" s="205"/>
+      <c r="CW159" s="205"/>
+      <c r="CX159" s="205"/>
     </row>
     <row r="160" s="115" customFormat="1" spans="1:99">
-      <c r="A160" s="176"/>
-      <c r="B160" s="177">
+      <c r="A160" s="178"/>
+      <c r="B160" s="179">
         <v>2017</v>
       </c>
-      <c r="C160" s="178"/>
-      <c r="D160" s="176"/>
-      <c r="E160" s="176"/>
-      <c r="F160" s="176"/>
-      <c r="G160" s="176"/>
-      <c r="H160" s="176"/>
-      <c r="I160" s="178">
+      <c r="C160" s="180"/>
+      <c r="D160" s="178"/>
+      <c r="E160" s="178"/>
+      <c r="F160" s="178"/>
+      <c r="G160" s="178"/>
+      <c r="H160" s="178"/>
+      <c r="I160" s="180">
         <v>49300355318.14</v>
       </c>
-      <c r="J160" s="184"/>
-      <c r="K160" s="185">
+      <c r="J160" s="186"/>
+      <c r="K160" s="187">
         <v>25239817505.22</v>
       </c>
-      <c r="L160" s="186"/>
-      <c r="M160" s="185"/>
-      <c r="N160" s="186"/>
-      <c r="O160" s="185"/>
-      <c r="P160" s="185">
+      <c r="L160" s="188"/>
+      <c r="M160" s="187"/>
+      <c r="N160" s="188"/>
+      <c r="O160" s="187"/>
+      <c r="P160" s="187">
         <v>289000</v>
       </c>
-      <c r="Q160" s="185"/>
-      <c r="R160" s="185"/>
-      <c r="S160" s="185">
+      <c r="Q160" s="187"/>
+      <c r="R160" s="187"/>
+      <c r="S160" s="187">
         <v>64037282.56</v>
       </c>
-      <c r="T160" s="182">
+      <c r="T160" s="184">
         <v>7860000000</v>
       </c>
-      <c r="U160" s="185"/>
-      <c r="V160" s="185"/>
-      <c r="W160" s="185"/>
-      <c r="X160" s="185"/>
-      <c r="Y160" s="185"/>
-      <c r="Z160" s="185"/>
-      <c r="AA160" s="185"/>
-      <c r="AB160" s="185">
+      <c r="U160" s="187"/>
+      <c r="V160" s="187"/>
+      <c r="W160" s="187"/>
+      <c r="X160" s="187"/>
+      <c r="Y160" s="187"/>
+      <c r="Z160" s="187"/>
+      <c r="AA160" s="187"/>
+      <c r="AB160" s="187">
         <v>651819595.43</v>
       </c>
-      <c r="AD160" s="185">
+      <c r="AD160" s="187">
         <v>1765185096.75</v>
       </c>
-      <c r="AE160" s="185"/>
-      <c r="AF160" s="191"/>
-      <c r="AG160" s="191"/>
-      <c r="AH160" s="192">
+      <c r="AE160" s="187"/>
+      <c r="AF160" s="193"/>
+      <c r="AG160" s="193"/>
+      <c r="AH160" s="194">
         <v>21823066175.5</v>
       </c>
-      <c r="AI160" s="191"/>
-      <c r="AJ160" s="191"/>
-      <c r="AK160" s="191"/>
-      <c r="AL160" s="191"/>
+      <c r="AI160" s="193"/>
+      <c r="AJ160" s="193"/>
+      <c r="AK160" s="193"/>
+      <c r="AL160" s="193"/>
       <c r="AM160" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>24240070867.68</v>
       </c>
-      <c r="AN160" s="191"/>
-      <c r="AO160" s="186"/>
-      <c r="AP160" s="186"/>
-      <c r="AQ160" s="191"/>
-      <c r="AR160" s="186"/>
-      <c r="AS160" s="186"/>
-      <c r="AT160" s="191"/>
-      <c r="AU160" s="191"/>
-      <c r="AV160" s="191"/>
-      <c r="AW160" s="191"/>
-      <c r="AX160" s="191"/>
-      <c r="AY160" s="191"/>
-      <c r="AZ160" s="191"/>
-      <c r="BA160" s="191"/>
-      <c r="BB160" s="196"/>
-      <c r="BC160" s="197"/>
-      <c r="BD160" s="196"/>
-      <c r="BE160" s="196"/>
-      <c r="BF160" s="201"/>
-      <c r="BG160" s="201"/>
-      <c r="BH160" s="201"/>
-      <c r="BI160" s="201"/>
-      <c r="BJ160" s="201"/>
-      <c r="BK160" s="201"/>
-      <c r="BL160" s="201"/>
-      <c r="BM160" s="196"/>
-      <c r="BN160" s="196"/>
+      <c r="AN160" s="193"/>
+      <c r="AO160" s="188"/>
+      <c r="AP160" s="188"/>
+      <c r="AQ160" s="193"/>
+      <c r="AR160" s="188"/>
+      <c r="AS160" s="188"/>
+      <c r="AT160" s="193"/>
+      <c r="AU160" s="193"/>
+      <c r="AV160" s="193"/>
+      <c r="AW160" s="193"/>
+      <c r="AX160" s="193"/>
+      <c r="AY160" s="193"/>
+      <c r="AZ160" s="193"/>
+      <c r="BA160" s="193"/>
+      <c r="BB160" s="198"/>
+      <c r="BC160" s="199"/>
+      <c r="BD160" s="198"/>
+      <c r="BE160" s="198"/>
+      <c r="BF160" s="203"/>
+      <c r="BG160" s="203"/>
+      <c r="BH160" s="203"/>
+      <c r="BI160" s="203"/>
+      <c r="BJ160" s="203"/>
+      <c r="BK160" s="203"/>
+      <c r="BL160" s="203"/>
+      <c r="BM160" s="198"/>
+      <c r="BN160" s="198"/>
       <c r="BX160" s="103">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>25239817505.22</v>
       </c>
       <c r="BY160" s="62">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>0.0862428687623273</v>
       </c>
       <c r="BZ160" s="62"/>
       <c r="CA160" s="77">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>999746637.540001</v>
       </c>
       <c r="CB160" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>-0.860541378081072</v>
       </c>
-      <c r="CC160" s="192">
+      <c r="CC160" s="194">
         <v>7115911174.52</v>
       </c>
       <c r="CD160" s="62">
+        <f t="shared" si="64"/>
+        <v>0.288150839386482</v>
+      </c>
+      <c r="CE160" s="208">
+        <v>7073973345.81</v>
+      </c>
+      <c r="CF160" s="193"/>
+      <c r="CG160" s="208">
+        <v>113485343.63</v>
+      </c>
+      <c r="CH160" s="76">
+        <f t="shared" si="60"/>
+        <v>7187458689.44</v>
+      </c>
+      <c r="CI160" s="76">
         <f t="shared" si="61"/>
-        <v>0.288150839386482</v>
-      </c>
-      <c r="CE160" s="206">
-        <v>7073973345.81</v>
-      </c>
-      <c r="CF160" s="191"/>
-      <c r="CG160" s="206">
-        <v>113485343.63</v>
-      </c>
-      <c r="CH160" s="76">
-        <f t="shared" si="57"/>
-        <v>7187458689.44</v>
-      </c>
-      <c r="CI160" s="76">
-        <f t="shared" si="58"/>
         <v>7229396518.15</v>
       </c>
       <c r="CJ160" s="62"/>
       <c r="CK160" s="62">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>0.2802703840607</v>
       </c>
       <c r="CL160" s="62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.286428240483706</v>
       </c>
       <c r="CM160" s="56">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>7.23122864002705</v>
       </c>
-      <c r="CN160" s="185"/>
-      <c r="CO160" s="185"/>
-      <c r="CP160" s="185"/>
-      <c r="CQ160" s="185"/>
-      <c r="CR160" s="185"/>
-      <c r="CS160" s="185"/>
-      <c r="CT160" s="211"/>
-      <c r="CU160" s="212"/>
+      <c r="CN160" s="187"/>
+      <c r="CO160" s="187"/>
+      <c r="CP160" s="187"/>
+      <c r="CQ160" s="187"/>
+      <c r="CR160" s="187"/>
+      <c r="CS160" s="187"/>
+      <c r="CT160" s="213"/>
+      <c r="CU160" s="214"/>
     </row>
     <row r="161" s="115" customFormat="1" spans="1:99">
-      <c r="A161" s="176"/>
-      <c r="B161" s="177">
+      <c r="A161" s="178"/>
+      <c r="B161" s="179">
         <v>2016</v>
       </c>
-      <c r="C161" s="178"/>
-      <c r="D161" s="176"/>
-      <c r="E161" s="176"/>
-      <c r="F161" s="176"/>
-      <c r="G161" s="176"/>
-      <c r="H161" s="176"/>
-      <c r="I161" s="178">
+      <c r="C161" s="180"/>
+      <c r="D161" s="178"/>
+      <c r="E161" s="178"/>
+      <c r="F161" s="178"/>
+      <c r="G161" s="178"/>
+      <c r="H161" s="178"/>
+      <c r="I161" s="180">
         <v>39262272885.74</v>
       </c>
-      <c r="J161" s="184"/>
-      <c r="K161" s="185">
+      <c r="J161" s="186"/>
+      <c r="K161" s="187">
         <v>23235887876.51</v>
       </c>
-      <c r="L161" s="186"/>
-      <c r="M161" s="185"/>
-      <c r="N161" s="186"/>
-      <c r="O161" s="185"/>
-      <c r="P161" s="185">
+      <c r="L161" s="188"/>
+      <c r="M161" s="187"/>
+      <c r="N161" s="188"/>
+      <c r="O161" s="187"/>
+      <c r="P161" s="187">
         <v>289000</v>
       </c>
-      <c r="Q161" s="185"/>
-      <c r="R161" s="185"/>
-      <c r="S161" s="185"/>
-      <c r="T161" s="185">
+      <c r="Q161" s="187"/>
+      <c r="R161" s="187"/>
+      <c r="S161" s="187"/>
+      <c r="T161" s="187">
         <v>150000000</v>
       </c>
-      <c r="U161" s="185"/>
-      <c r="V161" s="185"/>
-      <c r="W161" s="185"/>
-      <c r="X161" s="185"/>
-      <c r="Y161" s="185"/>
-      <c r="Z161" s="185"/>
-      <c r="AA161" s="185"/>
-      <c r="AB161" s="185">
+      <c r="U161" s="187"/>
+      <c r="V161" s="187"/>
+      <c r="W161" s="187"/>
+      <c r="X161" s="187"/>
+      <c r="Y161" s="187"/>
+      <c r="Z161" s="187"/>
+      <c r="AA161" s="187"/>
+      <c r="AB161" s="187">
         <v>612364316.3</v>
       </c>
-      <c r="AD161" s="192">
+      <c r="AD161" s="194">
         <v>1631100350.13</v>
       </c>
-      <c r="AE161" s="185"/>
-      <c r="AF161" s="191"/>
-      <c r="AG161" s="191"/>
-      <c r="AH161" s="191">
+      <c r="AE161" s="187"/>
+      <c r="AF161" s="193"/>
+      <c r="AG161" s="193"/>
+      <c r="AH161" s="193">
         <v>13823654267.84</v>
       </c>
-      <c r="AI161" s="191"/>
-      <c r="AJ161" s="191"/>
-      <c r="AK161" s="191"/>
-      <c r="AL161" s="191"/>
+      <c r="AI161" s="193"/>
+      <c r="AJ161" s="193"/>
+      <c r="AK161" s="193"/>
+      <c r="AL161" s="193"/>
       <c r="AM161" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>16067118934.27</v>
       </c>
-      <c r="AN161" s="191"/>
-      <c r="AO161" s="186"/>
-      <c r="AP161" s="186"/>
-      <c r="AQ161" s="191"/>
-      <c r="AR161" s="186"/>
-      <c r="AS161" s="186"/>
-      <c r="AT161" s="191"/>
-      <c r="AU161" s="191"/>
-      <c r="AV161" s="191"/>
-      <c r="AW161" s="191"/>
-      <c r="AX161" s="191"/>
-      <c r="AY161" s="191"/>
-      <c r="AZ161" s="191"/>
-      <c r="BA161" s="191"/>
-      <c r="BB161" s="196"/>
-      <c r="BC161" s="197"/>
-      <c r="BD161" s="196"/>
-      <c r="BE161" s="196"/>
-      <c r="BF161" s="201"/>
-      <c r="BG161" s="201"/>
-      <c r="BH161" s="201"/>
-      <c r="BI161" s="201"/>
-      <c r="BJ161" s="201"/>
-      <c r="BK161" s="201"/>
-      <c r="BL161" s="201"/>
-      <c r="BM161" s="196"/>
-      <c r="BN161" s="196"/>
+      <c r="AN161" s="193"/>
+      <c r="AO161" s="188"/>
+      <c r="AP161" s="188"/>
+      <c r="AQ161" s="193"/>
+      <c r="AR161" s="188"/>
+      <c r="AS161" s="188"/>
+      <c r="AT161" s="193"/>
+      <c r="AU161" s="193"/>
+      <c r="AV161" s="193"/>
+      <c r="AW161" s="193"/>
+      <c r="AX161" s="193"/>
+      <c r="AY161" s="193"/>
+      <c r="AZ161" s="193"/>
+      <c r="BA161" s="193"/>
+      <c r="BB161" s="198"/>
+      <c r="BC161" s="199"/>
+      <c r="BD161" s="198"/>
+      <c r="BE161" s="198"/>
+      <c r="BF161" s="203"/>
+      <c r="BG161" s="203"/>
+      <c r="BH161" s="203"/>
+      <c r="BI161" s="203"/>
+      <c r="BJ161" s="203"/>
+      <c r="BK161" s="203"/>
+      <c r="BL161" s="203"/>
+      <c r="BM161" s="198"/>
+      <c r="BN161" s="198"/>
       <c r="BX161" s="103">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>23235887876.51</v>
       </c>
       <c r="BY161" s="62" t="e">
-        <f t="shared" si="54"/>
+        <f t="shared" si="57"/>
         <v>#DIV/0!</v>
       </c>
       <c r="BZ161" s="62"/>
       <c r="CA161" s="77">
-        <f t="shared" si="55"/>
+        <f t="shared" si="58"/>
         <v>7168768942.24</v>
       </c>
       <c r="CB161" s="61"/>
-      <c r="CC161" s="192">
+      <c r="CC161" s="194">
         <v>5524128818.57</v>
       </c>
       <c r="CD161" s="62" t="e">
+        <f t="shared" si="64"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="CE161" s="208">
+        <v>6632072003.91</v>
+      </c>
+      <c r="CF161" s="193"/>
+      <c r="CG161" s="208">
+        <v>23879679.28</v>
+      </c>
+      <c r="CH161" s="76">
+        <f t="shared" si="60"/>
+        <v>6655951683.19</v>
+      </c>
+      <c r="CI161" s="76">
         <f t="shared" si="61"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="CE161" s="206">
-        <v>6632072003.91</v>
-      </c>
-      <c r="CF161" s="191"/>
-      <c r="CG161" s="206">
-        <v>23879679.28</v>
-      </c>
-      <c r="CH161" s="76">
-        <f t="shared" si="57"/>
-        <v>6655951683.19</v>
-      </c>
-      <c r="CI161" s="76">
-        <f t="shared" si="58"/>
         <v>5548008497.85</v>
       </c>
       <c r="CJ161" s="62"/>
       <c r="CK161" s="62">
-        <f t="shared" si="59"/>
+        <f t="shared" si="62"/>
         <v>0.285423653236621</v>
       </c>
       <c r="CL161" s="62">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>0.238768947730148</v>
       </c>
       <c r="CM161" s="56">
-        <f t="shared" si="60"/>
+        <f t="shared" si="63"/>
         <v>0.773913700183568</v>
       </c>
-      <c r="CN161" s="185"/>
-      <c r="CO161" s="185"/>
-      <c r="CP161" s="185"/>
-      <c r="CQ161" s="185"/>
-      <c r="CR161" s="185"/>
-      <c r="CS161" s="185"/>
-      <c r="CT161" s="211"/>
-      <c r="CU161" s="212"/>
+      <c r="CN161" s="187"/>
+      <c r="CO161" s="187"/>
+      <c r="CP161" s="187"/>
+      <c r="CQ161" s="187"/>
+      <c r="CR161" s="187"/>
+      <c r="CS161" s="187"/>
+      <c r="CT161" s="213"/>
+      <c r="CU161" s="214"/>
     </row>
     <row r="162" spans="1:102">
       <c r="A162" s="44"/>
       <c r="B162" s="19">
         <v>2015</v>
       </c>
-      <c r="C162" s="179"/>
+      <c r="C162" s="181"/>
       <c r="D162" s="44"/>
       <c r="E162" s="44"/>
       <c r="F162" s="44"/>
       <c r="G162" s="44"/>
       <c r="H162" s="44"/>
-      <c r="I162" s="179"/>
-      <c r="J162" s="187"/>
-      <c r="K162" s="188"/>
-      <c r="L162" s="189"/>
-      <c r="M162" s="188"/>
-      <c r="N162" s="189"/>
-      <c r="O162" s="188"/>
-      <c r="P162" s="188"/>
-      <c r="Q162" s="188"/>
-      <c r="R162" s="188"/>
-      <c r="S162" s="188"/>
-      <c r="T162" s="188"/>
-      <c r="U162" s="188"/>
-      <c r="V162" s="188"/>
-      <c r="W162" s="188"/>
-      <c r="X162" s="188"/>
-      <c r="Y162" s="188"/>
-      <c r="Z162" s="188"/>
-      <c r="AA162" s="188"/>
-      <c r="AB162" s="188"/>
-      <c r="AC162" s="188"/>
-      <c r="AD162" s="188"/>
-      <c r="AE162" s="188"/>
-      <c r="AF162" s="193"/>
-      <c r="AG162" s="193"/>
-      <c r="AH162" s="193"/>
-      <c r="AI162" s="193"/>
-      <c r="AJ162" s="193"/>
-      <c r="AK162" s="193"/>
-      <c r="AL162" s="193"/>
+      <c r="I162" s="181"/>
+      <c r="J162" s="189"/>
+      <c r="K162" s="190"/>
+      <c r="L162" s="191"/>
+      <c r="M162" s="190"/>
+      <c r="N162" s="191"/>
+      <c r="O162" s="190"/>
+      <c r="P162" s="190"/>
+      <c r="Q162" s="190"/>
+      <c r="R162" s="190"/>
+      <c r="S162" s="190"/>
+      <c r="T162" s="190"/>
+      <c r="U162" s="190"/>
+      <c r="V162" s="190"/>
+      <c r="W162" s="190"/>
+      <c r="X162" s="190"/>
+      <c r="Y162" s="190"/>
+      <c r="Z162" s="190"/>
+      <c r="AA162" s="190"/>
+      <c r="AB162" s="190"/>
+      <c r="AC162" s="190"/>
+      <c r="AD162" s="190"/>
+      <c r="AE162" s="190"/>
+      <c r="AF162" s="195"/>
+      <c r="AG162" s="195"/>
+      <c r="AH162" s="195"/>
+      <c r="AI162" s="195"/>
+      <c r="AJ162" s="195"/>
+      <c r="AK162" s="195"/>
+      <c r="AL162" s="195"/>
       <c r="AM162" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
-      <c r="AN162" s="193"/>
-      <c r="AO162" s="189"/>
-      <c r="AP162" s="189"/>
-      <c r="AQ162" s="193"/>
-      <c r="AR162" s="189"/>
-      <c r="AS162" s="189"/>
-      <c r="AT162" s="193"/>
-      <c r="AU162" s="193"/>
-      <c r="AV162" s="193"/>
-      <c r="AW162" s="193"/>
-      <c r="AX162" s="193"/>
-      <c r="AY162" s="193"/>
-      <c r="AZ162" s="193"/>
-      <c r="BA162" s="193"/>
-      <c r="BB162" s="198"/>
-      <c r="BC162" s="199"/>
-      <c r="BD162" s="198"/>
-      <c r="BE162" s="198"/>
-      <c r="BF162" s="202"/>
-      <c r="BG162" s="202"/>
-      <c r="BH162" s="202"/>
-      <c r="BI162" s="202"/>
-      <c r="BJ162" s="202"/>
-      <c r="BK162" s="202"/>
-      <c r="BL162" s="202"/>
-      <c r="BM162" s="198"/>
-      <c r="BN162" s="198"/>
-      <c r="BO162" s="204"/>
-      <c r="BP162" s="204"/>
-      <c r="BQ162" s="204"/>
-      <c r="BR162" s="204"/>
-      <c r="BS162" s="204"/>
-      <c r="BT162" s="204"/>
-      <c r="BU162" s="204"/>
-      <c r="BV162" s="204"/>
-      <c r="BW162" s="204"/>
-      <c r="BX162" s="204"/>
-      <c r="BY162" s="189"/>
-      <c r="BZ162" s="189"/>
-      <c r="CA162" s="193"/>
-      <c r="CB162" s="189"/>
-      <c r="CC162" s="193"/>
-      <c r="CD162" s="189"/>
-      <c r="CE162" s="193"/>
-      <c r="CF162" s="193"/>
-      <c r="CG162" s="193"/>
-      <c r="CH162" s="188"/>
-      <c r="CI162" s="188"/>
-      <c r="CJ162" s="189"/>
-      <c r="CK162" s="189"/>
+      <c r="AN162" s="195"/>
+      <c r="AO162" s="191"/>
+      <c r="AP162" s="191"/>
+      <c r="AQ162" s="195"/>
+      <c r="AR162" s="191"/>
+      <c r="AS162" s="191"/>
+      <c r="AT162" s="195"/>
+      <c r="AU162" s="195"/>
+      <c r="AV162" s="195"/>
+      <c r="AW162" s="195"/>
+      <c r="AX162" s="195"/>
+      <c r="AY162" s="195"/>
+      <c r="AZ162" s="195"/>
+      <c r="BA162" s="195"/>
+      <c r="BB162" s="200"/>
+      <c r="BC162" s="201"/>
+      <c r="BD162" s="200"/>
+      <c r="BE162" s="200"/>
+      <c r="BF162" s="204"/>
+      <c r="BG162" s="204"/>
+      <c r="BH162" s="204"/>
+      <c r="BI162" s="204"/>
+      <c r="BJ162" s="204"/>
+      <c r="BK162" s="204"/>
+      <c r="BL162" s="204"/>
+      <c r="BM162" s="200"/>
+      <c r="BN162" s="200"/>
+      <c r="BO162" s="206"/>
+      <c r="BP162" s="206"/>
+      <c r="BQ162" s="206"/>
+      <c r="BR162" s="206"/>
+      <c r="BS162" s="206"/>
+      <c r="BT162" s="206"/>
+      <c r="BU162" s="206"/>
+      <c r="BV162" s="206"/>
+      <c r="BW162" s="206"/>
+      <c r="BX162" s="206"/>
+      <c r="BY162" s="191"/>
+      <c r="BZ162" s="191"/>
+      <c r="CA162" s="195"/>
+      <c r="CB162" s="191"/>
+      <c r="CC162" s="195"/>
+      <c r="CD162" s="191"/>
+      <c r="CE162" s="195"/>
+      <c r="CF162" s="195"/>
+      <c r="CG162" s="195"/>
+      <c r="CH162" s="190"/>
+      <c r="CI162" s="190"/>
+      <c r="CJ162" s="191"/>
+      <c r="CK162" s="191"/>
       <c r="CL162" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="CM162" s="208"/>
-      <c r="CN162" s="188"/>
-      <c r="CO162" s="188"/>
-      <c r="CP162" s="188"/>
-      <c r="CQ162" s="188"/>
-      <c r="CR162" s="188"/>
-      <c r="CS162" s="188"/>
-      <c r="CT162" s="208"/>
-      <c r="CU162" s="213"/>
-      <c r="CV162" s="204"/>
-      <c r="CW162" s="204"/>
-      <c r="CX162" s="204"/>
+      <c r="CM162" s="210"/>
+      <c r="CN162" s="190"/>
+      <c r="CO162" s="190"/>
+      <c r="CP162" s="190"/>
+      <c r="CQ162" s="190"/>
+      <c r="CR162" s="190"/>
+      <c r="CS162" s="190"/>
+      <c r="CT162" s="210"/>
+      <c r="CU162" s="215"/>
+      <c r="CV162" s="206"/>
+      <c r="CW162" s="206"/>
+      <c r="CX162" s="206"/>
     </row>
     <row r="163" spans="1:102">
       <c r="A163" s="27"/>
@@ -25323,7 +25396,7 @@
       <c r="AK163" s="77"/>
       <c r="AL163" s="77"/>
       <c r="AM163" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN163" s="77"/>
@@ -25377,7 +25450,7 @@
       <c r="CJ163" s="62"/>
       <c r="CK163" s="62"/>
       <c r="CL163" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM163" s="56"/>
@@ -25435,7 +25508,7 @@
       <c r="AK164" s="77"/>
       <c r="AL164" s="77"/>
       <c r="AM164" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN164" s="77"/>
@@ -25489,7 +25562,7 @@
       <c r="CJ164" s="62"/>
       <c r="CK164" s="62"/>
       <c r="CL164" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM164" s="56"/>
@@ -25547,7 +25620,7 @@
       <c r="AK165" s="77"/>
       <c r="AL165" s="77"/>
       <c r="AM165" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN165" s="77"/>
@@ -25601,7 +25674,7 @@
       <c r="CJ165" s="62"/>
       <c r="CK165" s="62"/>
       <c r="CL165" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM165" s="56"/>
@@ -25659,7 +25732,7 @@
       <c r="AK166" s="77"/>
       <c r="AL166" s="77"/>
       <c r="AM166" s="77">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AN166" s="77"/>
@@ -25713,7 +25786,7 @@
       <c r="CJ166" s="62"/>
       <c r="CK166" s="62"/>
       <c r="CL166" s="62" t="e">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>#DIV/0!</v>
       </c>
       <c r="CM166" s="56"/>
